--- a/WEO統計ページ/XLSXTable/履歴/穀物.xlsx
+++ b/WEO統計ページ/XLSXTable/履歴/穀物.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7c144b2c14e6297/ドキュメント/GitHub/WorldData/WEO統計ページ/XLSXTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F19263-C6AC-4C59-A71C-0A8EC3EF7280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C664AE2A-1897-477B-B01B-463B6FB73A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="1350" windowWidth="26760" windowHeight="16830" xr2:uid="{8C7FEA70-9D0D-4457-BFB8-50B1CF486EA5}"/>
+    <workbookView xWindow="1560" yWindow="2220" windowWidth="26760" windowHeight="16830" xr2:uid="{5BCC8AFC-C312-4CFB-A522-F5779BDB11EB}"/>
   </bookViews>
   <sheets>
     <sheet name="穀物" sheetId="1" r:id="rId1"/>
@@ -2533,7 +2533,7 @@
             <v>442.1</v>
           </cell>
           <cell r="C2">
-            <v>190.33572173913001</v>
+            <v>190.34</v>
           </cell>
           <cell r="D2">
             <v>515</v>
@@ -2556,7 +2556,7 @@
             <v>391.31</v>
           </cell>
           <cell r="C3">
-            <v>184.96715420690001</v>
+            <v>184.97</v>
           </cell>
           <cell r="D3">
             <v>580</v>
@@ -2579,7 +2579,7 @@
             <v>400.13</v>
           </cell>
           <cell r="C4">
-            <v>170.32475727273001</v>
+            <v>170.32</v>
           </cell>
           <cell r="D4">
             <v>589</v>
@@ -2602,7 +2602,7 @@
             <v>469.63</v>
           </cell>
           <cell r="C5">
-            <v>177.42921392</v>
+            <v>177.43</v>
           </cell>
           <cell r="D5">
             <v>590</v>
@@ -2625,7 +2625,7 @@
             <v>479.72</v>
           </cell>
           <cell r="C6">
-            <v>192.506708</v>
+            <v>192.51</v>
           </cell>
           <cell r="D6">
             <v>632</v>
@@ -2648,7 +2648,7 @@
             <v>490.22</v>
           </cell>
           <cell r="C7">
-            <v>197.79344374999999</v>
+            <v>197.79</v>
           </cell>
           <cell r="D7">
             <v>628</v>
@@ -2671,7 +2671,7 @@
             <v>477.3</v>
           </cell>
           <cell r="C8">
-            <v>191.65107888889</v>
+            <v>191.65</v>
           </cell>
           <cell r="D8">
             <v>592</v>
@@ -2694,7 +2694,7 @@
             <v>487.49</v>
           </cell>
           <cell r="C9">
-            <v>190.56700445999999</v>
+            <v>190.57</v>
           </cell>
           <cell r="D9">
             <v>613</v>
@@ -2717,7 +2717,7 @@
             <v>519.75</v>
           </cell>
           <cell r="C10">
-            <v>189.128793</v>
+            <v>189.13</v>
           </cell>
           <cell r="D10">
             <v>624</v>
@@ -2740,7 +2740,7 @@
             <v>547.38</v>
           </cell>
           <cell r="C11">
-            <v>198.62480884614999</v>
+            <v>198.62</v>
           </cell>
           <cell r="D11">
             <v>660</v>
@@ -2763,7 +2763,7 @@
             <v>547.42999999999995</v>
           </cell>
           <cell r="C12">
-            <v>206.54803944445001</v>
+            <v>206.55</v>
           </cell>
           <cell r="D12">
             <v>644</v>
@@ -2786,7 +2786,7 @@
             <v>553.04999999999995</v>
           </cell>
           <cell r="C13">
-            <v>211.26049839999999</v>
+            <v>211.26</v>
           </cell>
           <cell r="D13">
             <v>598</v>
@@ -2809,7 +2809,7 @@
             <v>529.57000000000005</v>
           </cell>
           <cell r="C14">
-            <v>230.69648000000001</v>
+            <v>230.7</v>
           </cell>
           <cell r="D14">
             <v>590</v>
@@ -2832,7 +2832,7 @@
             <v>619.04</v>
           </cell>
           <cell r="C15">
-            <v>223.80708000000001</v>
+            <v>223.81</v>
           </cell>
           <cell r="D15">
             <v>620</v>
@@ -2855,7 +2855,7 @@
             <v>583.92999999999995</v>
           </cell>
           <cell r="C16">
-            <v>207.607148</v>
+            <v>207.61</v>
           </cell>
           <cell r="D16">
             <v>635</v>
@@ -2878,7 +2878,7 @@
             <v>633.85</v>
           </cell>
           <cell r="C17">
-            <v>242.38483919999999</v>
+            <v>242.38</v>
           </cell>
           <cell r="D17">
             <v>547</v>
@@ -2901,7 +2901,7 @@
             <v>591.89</v>
           </cell>
           <cell r="C18">
-            <v>266.86779840000003</v>
+            <v>266.87</v>
           </cell>
           <cell r="D18">
             <v>514</v>
@@ -2924,7 +2924,7 @@
             <v>595</v>
           </cell>
           <cell r="C19">
-            <v>268.135448</v>
+            <v>268.14</v>
           </cell>
           <cell r="D19">
             <v>510</v>
@@ -2947,7 +2947,7 @@
             <v>614.92999999999995</v>
           </cell>
           <cell r="C20">
-            <v>291.11454959999998</v>
+            <v>291.11</v>
           </cell>
           <cell r="D20">
             <v>501</v>
@@ -2970,7 +2970,7 @@
             <v>628.38</v>
           </cell>
           <cell r="C21">
-            <v>282.48902079999999</v>
+            <v>282.49</v>
           </cell>
           <cell r="D21">
             <v>476</v>
@@ -2993,7 +2993,7 @@
             <v>651.12</v>
           </cell>
           <cell r="C22">
-            <v>298.1771688</v>
+            <v>298.18</v>
           </cell>
           <cell r="D22">
             <v>492</v>
@@ -3016,7 +3016,7 @@
             <v>626.59</v>
           </cell>
           <cell r="C23">
-            <v>302.77535119999999</v>
+            <v>302.77999999999997</v>
           </cell>
           <cell r="D23">
             <v>517</v>
@@ -3039,7 +3039,7 @@
             <v>645.66999999999996</v>
           </cell>
           <cell r="C24">
-            <v>302.24781999999999</v>
+            <v>302.25</v>
           </cell>
           <cell r="D24">
             <v>467</v>
@@ -3062,7 +3062,7 @@
             <v>648.91999999999996</v>
           </cell>
           <cell r="C25">
-            <v>320.92006240000001</v>
+            <v>320.92</v>
           </cell>
           <cell r="D25">
             <v>440</v>
@@ -3085,7 +3085,7 @@
             <v>626</v>
           </cell>
           <cell r="C26">
-            <v>343.55666239999999</v>
+            <v>343.56</v>
           </cell>
           <cell r="D26">
             <v>431</v>
@@ -3108,7 +3108,7 @@
             <v>664.45</v>
           </cell>
           <cell r="C27">
-            <v>312.6567192</v>
+            <v>312.66000000000003</v>
           </cell>
           <cell r="D27">
             <v>439</v>
@@ -3131,7 +3131,7 @@
             <v>671.11</v>
           </cell>
           <cell r="C28">
-            <v>289.8350896</v>
+            <v>289.83999999999997</v>
           </cell>
           <cell r="D28">
             <v>431</v>
@@ -3154,7 +3154,7 @@
             <v>678.2</v>
           </cell>
           <cell r="C29">
-            <v>322.96719839999997</v>
+            <v>322.97000000000003</v>
           </cell>
           <cell r="D29">
             <v>418</v>
@@ -3177,7 +3177,7 @@
             <v>737.06</v>
           </cell>
           <cell r="C30">
-            <v>335.71455680000003</v>
+            <v>335.71</v>
           </cell>
           <cell r="D30">
             <v>444</v>
@@ -3200,7 +3200,7 @@
             <v>724.09</v>
           </cell>
           <cell r="C31">
-            <v>344.84005919999998</v>
+            <v>344.84</v>
           </cell>
           <cell r="D31">
             <v>464</v>
@@ -3223,7 +3223,7 @@
             <v>720.79</v>
           </cell>
           <cell r="C32">
-            <v>348.16665519999998</v>
+            <v>348.17</v>
           </cell>
           <cell r="D32">
             <v>431</v>
@@ -3246,7 +3246,7 @@
             <v>720.6</v>
           </cell>
           <cell r="C33">
-            <v>335.52952720000002</v>
+            <v>335.53</v>
           </cell>
           <cell r="D33">
             <v>422</v>
@@ -3269,7 +3269,7 @@
             <v>661.63</v>
           </cell>
           <cell r="C34">
-            <v>292.622344</v>
+            <v>292.62</v>
           </cell>
           <cell r="D34">
             <v>427</v>
@@ -3292,7 +3292,7 @@
             <v>606.22</v>
           </cell>
           <cell r="C35">
-            <v>276.62318879999998</v>
+            <v>276.62</v>
           </cell>
           <cell r="D35">
             <v>427</v>
@@ -3315,7 +3315,7 @@
             <v>554.14</v>
           </cell>
           <cell r="C36">
-            <v>264.53721280000002</v>
+            <v>264.54000000000002</v>
           </cell>
           <cell r="D36">
             <v>400</v>
@@ -3338,7 +3338,7 @@
             <v>551.04</v>
           </cell>
           <cell r="C37">
-            <v>248.71915039999999</v>
+            <v>248.72</v>
           </cell>
           <cell r="D37">
             <v>400</v>
@@ -3361,7 +3361,7 @@
             <v>551.95000000000005</v>
           </cell>
           <cell r="C38">
-            <v>239.64876319999999</v>
+            <v>239.65</v>
           </cell>
           <cell r="D38">
             <v>401</v>
@@ -3384,7 +3384,7 @@
             <v>557.54999999999995</v>
           </cell>
           <cell r="C39">
-            <v>235.61748</v>
+            <v>235.62</v>
           </cell>
           <cell r="D39">
             <v>400</v>
@@ -3407,7 +3407,7 @@
             <v>585.79999999999995</v>
           </cell>
           <cell r="C40">
-            <v>256.61243439999998</v>
+            <v>256.61</v>
           </cell>
           <cell r="D40">
             <v>403</v>
@@ -3430,7 +3430,7 @@
             <v>600.44000000000005</v>
           </cell>
           <cell r="C41">
-            <v>278.43411680000003</v>
+            <v>278.43</v>
           </cell>
           <cell r="D41">
             <v>414</v>
@@ -3453,7 +3453,7 @@
             <v>614.67999999999995</v>
           </cell>
           <cell r="C42">
-            <v>292.55935520000003</v>
+            <v>292.56</v>
           </cell>
           <cell r="D42">
             <v>466</v>
@@ -3476,7 +3476,7 @@
             <v>646.79999999999995</v>
           </cell>
           <cell r="C43">
-            <v>305.31065039999999</v>
+            <v>305.31</v>
           </cell>
           <cell r="D43">
             <v>493</v>
@@ -3499,7 +3499,7 @@
             <v>597.13</v>
           </cell>
           <cell r="C44">
-            <v>268.23386799999997</v>
+            <v>268.23</v>
           </cell>
           <cell r="D44">
             <v>495</v>
@@ -3522,7 +3522,7 @@
             <v>585.71</v>
           </cell>
           <cell r="C45">
-            <v>245.17209360000001</v>
+            <v>245.17</v>
           </cell>
           <cell r="D45">
             <v>525</v>
@@ -3545,7 +3545,7 @@
             <v>578.26</v>
           </cell>
           <cell r="C46">
-            <v>245.23508240000001</v>
+            <v>245.24</v>
           </cell>
           <cell r="D46">
             <v>557</v>
@@ -3568,7 +3568,7 @@
             <v>576.37</v>
           </cell>
           <cell r="C47">
-            <v>234.46795014720001</v>
+            <v>234.47</v>
           </cell>
           <cell r="D47">
             <v>545</v>
@@ -3588,10 +3588,10 @@
             <v>44166</v>
           </cell>
           <cell r="B48">
-            <v>510.93573705179</v>
+            <v>510.94</v>
           </cell>
           <cell r="C48">
-            <v>198.76903200000001</v>
+            <v>198.77</v>
           </cell>
           <cell r="D48">
             <v>520</v>
@@ -3614,7 +3614,7 @@
             <v>499.98</v>
           </cell>
           <cell r="C49">
-            <v>190.37577440000001</v>
+            <v>190.38</v>
           </cell>
           <cell r="D49">
             <v>489</v>
@@ -3637,7 +3637,7 @@
             <v>454.25</v>
           </cell>
           <cell r="C50">
-            <v>186.74604479999999</v>
+            <v>186.75</v>
           </cell>
           <cell r="D50">
             <v>471</v>
@@ -3660,7 +3660,7 @@
             <v>423.41</v>
           </cell>
           <cell r="C51">
-            <v>166.0817816</v>
+            <v>166.08</v>
           </cell>
           <cell r="D51">
             <v>507</v>
@@ -3680,10 +3680,10 @@
             <v>44044</v>
           </cell>
           <cell r="B52">
-            <v>384.55236292427998</v>
+            <v>384.55</v>
           </cell>
           <cell r="C52">
-            <v>149.34250800000001</v>
+            <v>149.34</v>
           </cell>
           <cell r="D52">
             <v>505</v>
@@ -3706,7 +3706,7 @@
             <v>381.07</v>
           </cell>
           <cell r="C53">
-            <v>152.55493680000001</v>
+            <v>152.55000000000001</v>
           </cell>
           <cell r="D53">
             <v>480</v>
@@ -3729,7 +3729,7 @@
             <v>369.58</v>
           </cell>
           <cell r="C54">
-            <v>147.98824880000001</v>
+            <v>147.99</v>
           </cell>
           <cell r="D54">
             <v>520</v>
@@ -3741,7 +3741,7 @@
             <v>449.46</v>
           </cell>
           <cell r="G54">
-            <v>198.415818</v>
+            <v>198.42</v>
           </cell>
         </row>
         <row r="55">
@@ -3752,7 +3752,7 @@
             <v>359.17</v>
           </cell>
           <cell r="C55">
-            <v>143.90578719999999</v>
+            <v>143.91</v>
           </cell>
           <cell r="D55">
             <v>510</v>
@@ -3764,7 +3764,7 @@
             <v>438.42</v>
           </cell>
           <cell r="G55">
-            <v>205.76455200000001</v>
+            <v>205.76</v>
           </cell>
         </row>
         <row r="56">
@@ -3775,7 +3775,7 @@
             <v>361.26</v>
           </cell>
           <cell r="C56">
-            <v>146.90956560000001</v>
+            <v>146.91</v>
           </cell>
           <cell r="D56">
             <v>564</v>
@@ -3787,7 +3787,7 @@
             <v>407.14</v>
           </cell>
           <cell r="G56">
-            <v>218.9922732</v>
+            <v>218.99</v>
           </cell>
         </row>
         <row r="57">
@@ -3798,7 +3798,7 @@
             <v>372.61</v>
           </cell>
           <cell r="C57">
-            <v>162.4205576</v>
+            <v>162.41999999999999</v>
           </cell>
           <cell r="D57">
             <v>494</v>
@@ -3810,7 +3810,7 @@
             <v>372.58</v>
           </cell>
           <cell r="G57">
-            <v>209.07148230000001</v>
+            <v>209.07</v>
           </cell>
         </row>
         <row r="58">
@@ -3821,7 +3821,7 @@
             <v>375.63</v>
           </cell>
           <cell r="C58">
-            <v>168.71156400000001</v>
+            <v>168.71</v>
           </cell>
           <cell r="D58">
             <v>450</v>
@@ -3833,7 +3833,7 @@
             <v>357.42</v>
           </cell>
           <cell r="G58">
-            <v>215.31790620000001</v>
+            <v>215.32</v>
           </cell>
         </row>
         <row r="59">
@@ -3844,7 +3844,7 @@
             <v>387.23</v>
           </cell>
           <cell r="C59">
-            <v>171.78620480000001</v>
+            <v>171.79</v>
           </cell>
           <cell r="D59">
             <v>451</v>
@@ -3856,7 +3856,7 @@
             <v>348.68</v>
           </cell>
           <cell r="G59">
-            <v>224.5038237</v>
+            <v>224.5</v>
           </cell>
         </row>
         <row r="60">
@@ -3867,7 +3867,7 @@
             <v>383.2</v>
           </cell>
           <cell r="C60">
-            <v>166.95575120000001</v>
+            <v>166.96</v>
           </cell>
           <cell r="D60">
             <v>432</v>
@@ -3879,7 +3879,7 @@
             <v>337.43</v>
           </cell>
           <cell r="G60">
-            <v>210.90866579999999</v>
+            <v>210.91</v>
           </cell>
         </row>
         <row r="61">
@@ -3890,7 +3890,7 @@
             <v>375.51</v>
           </cell>
           <cell r="C61">
-            <v>166.3337368</v>
+            <v>166.33</v>
           </cell>
           <cell r="D61">
             <v>421</v>
@@ -3902,7 +3902,7 @@
             <v>328.24</v>
           </cell>
           <cell r="G61">
-            <v>203.1924951</v>
+            <v>203.19</v>
           </cell>
         </row>
         <row r="62">
@@ -3913,7 +3913,7 @@
             <v>381.65</v>
           </cell>
           <cell r="C62">
-            <v>167.1486544</v>
+            <v>167.15</v>
           </cell>
           <cell r="D62">
             <v>424</v>
@@ -3925,7 +3925,7 @@
             <v>325.79000000000002</v>
           </cell>
           <cell r="G62">
-            <v>199.51812810000001</v>
+            <v>199.52</v>
           </cell>
         </row>
         <row r="63">
@@ -3936,7 +3936,7 @@
             <v>366.07</v>
           </cell>
           <cell r="C63">
-            <v>157.25941280000001</v>
+            <v>157.26</v>
           </cell>
           <cell r="D63">
             <v>427</v>
@@ -3948,7 +3948,7 @@
             <v>350.85</v>
           </cell>
           <cell r="G63">
-            <v>189.5973372</v>
+            <v>189.6</v>
           </cell>
         </row>
         <row r="64">
@@ -3959,7 +3959,7 @@
             <v>360.93</v>
           </cell>
           <cell r="C64">
-            <v>163.5858504</v>
+            <v>163.59</v>
           </cell>
           <cell r="D64">
             <v>430</v>
@@ -3971,7 +3971,7 @@
             <v>362.39</v>
           </cell>
           <cell r="G64">
-            <v>181.14629310000001</v>
+            <v>181.15</v>
           </cell>
         </row>
         <row r="65">
@@ -3982,7 +3982,7 @@
             <v>369.58</v>
           </cell>
           <cell r="C65">
-            <v>189.41913199999999</v>
+            <v>189.42</v>
           </cell>
           <cell r="D65">
             <v>416</v>
@@ -3994,7 +3994,7 @@
             <v>360.16</v>
           </cell>
           <cell r="G65">
-            <v>196.21119780000001</v>
+            <v>196.21</v>
           </cell>
         </row>
         <row r="66">
@@ -4005,7 +4005,7 @@
             <v>358.95</v>
           </cell>
           <cell r="C66">
-            <v>195.08025040000001</v>
+            <v>195.08</v>
           </cell>
           <cell r="D66">
             <v>420</v>
@@ -4017,7 +4017,7 @@
             <v>358.82</v>
           </cell>
           <cell r="G66">
-            <v>206.13198869999999</v>
+            <v>206.13</v>
           </cell>
         </row>
         <row r="67">
@@ -4028,7 +4028,7 @@
             <v>339.81</v>
           </cell>
           <cell r="C67">
-            <v>171.08151760000001</v>
+            <v>171.08</v>
           </cell>
           <cell r="D67">
             <v>409</v>
@@ -4040,7 +4040,7 @@
             <v>350.94</v>
           </cell>
           <cell r="G67">
-            <v>199.51812810000001</v>
+            <v>199.52</v>
           </cell>
         </row>
         <row r="68">
@@ -4051,7 +4051,7 @@
             <v>359.84</v>
           </cell>
           <cell r="C68">
-            <v>161.48753600000001</v>
+            <v>161.49</v>
           </cell>
           <cell r="D68">
             <v>413</v>
@@ -4063,7 +4063,7 @@
             <v>341.11</v>
           </cell>
           <cell r="G68">
-            <v>199.51812810000001</v>
+            <v>199.52</v>
           </cell>
         </row>
         <row r="69">
@@ -4074,7 +4074,7 @@
             <v>369.53</v>
           </cell>
           <cell r="C69">
-            <v>166.22350639999999</v>
+            <v>166.22</v>
           </cell>
           <cell r="D69">
             <v>406</v>
@@ -4086,7 +4086,7 @@
             <v>342.62</v>
           </cell>
           <cell r="G69">
-            <v>205.76455200000001</v>
+            <v>205.76</v>
           </cell>
         </row>
         <row r="70">
@@ -4097,7 +4097,7 @@
             <v>380.33</v>
           </cell>
           <cell r="C70">
-            <v>169.52254479999999</v>
+            <v>169.52</v>
           </cell>
           <cell r="D70">
             <v>408</v>
@@ -4109,7 +4109,7 @@
             <v>367.95</v>
           </cell>
           <cell r="G70">
-            <v>218.9922732</v>
+            <v>218.99</v>
           </cell>
         </row>
         <row r="71">
@@ -4120,7 +4120,7 @@
             <v>381.96</v>
           </cell>
           <cell r="C71">
-            <v>166.74316400000001</v>
+            <v>166.74</v>
           </cell>
           <cell r="D71">
             <v>410</v>
@@ -4132,7 +4132,7 @@
             <v>396.31</v>
           </cell>
           <cell r="G71">
-            <v>209.80635570000001</v>
+            <v>209.81</v>
           </cell>
         </row>
         <row r="72">
@@ -4143,7 +4143,7 @@
             <v>380.53</v>
           </cell>
           <cell r="C72">
-            <v>167.43997759999999</v>
+            <v>167.44</v>
           </cell>
           <cell r="D72">
             <v>404</v>
@@ -4155,7 +4155,7 @@
             <v>399.52</v>
           </cell>
           <cell r="G72">
-            <v>211.27610250000001</v>
+            <v>211.28</v>
           </cell>
         </row>
         <row r="73">
@@ -4166,7 +4166,7 @@
             <v>374.04</v>
           </cell>
           <cell r="C73">
-            <v>160.6883656</v>
+            <v>160.69</v>
           </cell>
           <cell r="D73">
             <v>401</v>
@@ -4178,7 +4178,7 @@
             <v>395.73</v>
           </cell>
           <cell r="G73">
-            <v>203.55993179999999</v>
+            <v>203.56</v>
           </cell>
         </row>
         <row r="74">
@@ -4189,7 +4189,7 @@
             <v>367.96</v>
           </cell>
           <cell r="C74">
-            <v>160.25531760000001</v>
+            <v>160.26</v>
           </cell>
           <cell r="D74">
             <v>409</v>
@@ -4201,7 +4201,7 @@
             <v>389.8</v>
           </cell>
           <cell r="G74">
-            <v>213.4807227</v>
+            <v>213.48</v>
           </cell>
         </row>
         <row r="75">
@@ -4212,7 +4212,7 @@
             <v>356.87</v>
           </cell>
           <cell r="C75">
-            <v>154.8028496</v>
+            <v>154.80000000000001</v>
           </cell>
           <cell r="D75">
             <v>405</v>
@@ -4224,7 +4224,7 @@
             <v>384.65</v>
           </cell>
           <cell r="G75">
-            <v>212.37841259999999</v>
+            <v>212.38</v>
           </cell>
         </row>
         <row r="76">
@@ -4235,7 +4235,7 @@
             <v>376.77</v>
           </cell>
           <cell r="C76">
-            <v>162.37331599999999</v>
+            <v>162.37</v>
           </cell>
           <cell r="D76">
             <v>405</v>
@@ -4247,7 +4247,7 @@
             <v>401.56</v>
           </cell>
           <cell r="G76">
-            <v>236.62923480000001</v>
+            <v>236.63</v>
           </cell>
         </row>
         <row r="77">
@@ -4258,7 +4258,7 @@
             <v>377.17</v>
           </cell>
           <cell r="C77">
-            <v>156.4602424</v>
+            <v>156.46</v>
           </cell>
           <cell r="D77">
             <v>398</v>
@@ -4270,7 +4270,7 @@
             <v>440.65</v>
           </cell>
           <cell r="G77">
-            <v>218.2573998</v>
+            <v>218.26</v>
           </cell>
         </row>
         <row r="78">
@@ -4281,7 +4281,7 @@
             <v>394.44</v>
           </cell>
           <cell r="C78">
-            <v>165.07002399999999</v>
+            <v>165.07</v>
           </cell>
           <cell r="D78">
             <v>427</v>
@@ -4293,7 +4293,7 @@
             <v>443.1</v>
           </cell>
           <cell r="G78">
-            <v>219.35970990000001</v>
+            <v>219.36</v>
           </cell>
         </row>
         <row r="79">
@@ -4304,7 +4304,7 @@
             <v>430.32</v>
           </cell>
           <cell r="C79">
-            <v>179.08503200000001</v>
+            <v>179.09</v>
           </cell>
           <cell r="D79">
             <v>451</v>
@@ -4316,7 +4316,7 @@
             <v>419</v>
           </cell>
           <cell r="G79">
-            <v>213.84815939999999</v>
+            <v>213.85</v>
           </cell>
         </row>
         <row r="80">
@@ -4327,7 +4327,7 @@
             <v>439.07</v>
           </cell>
           <cell r="C80">
-            <v>175.6049008</v>
+            <v>175.6</v>
           </cell>
           <cell r="D80">
             <v>451</v>
@@ -4339,7 +4339,7 @@
             <v>413.43</v>
           </cell>
           <cell r="G80">
-            <v>213.84815939999999</v>
+            <v>213.85</v>
           </cell>
         </row>
         <row r="81">
@@ -4350,7 +4350,7 @@
             <v>430.11</v>
           </cell>
           <cell r="C81">
-            <v>171.99879200000001</v>
+            <v>172</v>
           </cell>
           <cell r="D81">
             <v>430</v>
@@ -4362,7 +4362,7 @@
             <v>409.92</v>
           </cell>
           <cell r="G81">
-            <v>192.16939410000001</v>
+            <v>192.17</v>
           </cell>
         </row>
         <row r="82">
@@ -4373,7 +4373,7 @@
             <v>416.28</v>
           </cell>
           <cell r="C82">
-            <v>163.357516</v>
+            <v>163.36000000000001</v>
           </cell>
           <cell r="D82">
             <v>425</v>
@@ -4385,7 +4385,7 @@
             <v>395.43</v>
           </cell>
           <cell r="G82">
-            <v>192.16939410000001</v>
+            <v>192.17</v>
           </cell>
         </row>
         <row r="83">
@@ -4396,7 +4396,7 @@
             <v>389.53</v>
           </cell>
           <cell r="C83">
-            <v>155.83822799999999</v>
+            <v>155.84</v>
           </cell>
           <cell r="D83">
             <v>442</v>
@@ -4408,7 +4408,7 @@
             <v>380.94</v>
           </cell>
           <cell r="G83">
-            <v>192.16939410000001</v>
+            <v>192.17</v>
           </cell>
         </row>
         <row r="84">
@@ -4416,10 +4416,10 @@
             <v>43070</v>
           </cell>
           <cell r="B84">
-            <v>387.15454999999997</v>
+            <v>387.15</v>
           </cell>
           <cell r="C84">
-            <v>148.98032240000001</v>
+            <v>148.97999999999999</v>
           </cell>
           <cell r="D84">
             <v>406</v>
@@ -4431,7 +4431,7 @@
             <v>383.24</v>
           </cell>
           <cell r="G84">
-            <v>184.0857867</v>
+            <v>184.09</v>
           </cell>
         </row>
         <row r="85">
@@ -4442,7 +4442,7 @@
             <v>393.85</v>
           </cell>
           <cell r="C85">
-            <v>148.7047464</v>
+            <v>148.69999999999999</v>
           </cell>
           <cell r="D85">
             <v>402</v>
@@ -4454,7 +4454,7 @@
             <v>379.01</v>
           </cell>
           <cell r="G85">
-            <v>179.67654630000001</v>
+            <v>179.68</v>
           </cell>
         </row>
         <row r="86">
@@ -4465,7 +4465,7 @@
             <v>396.52</v>
           </cell>
           <cell r="C86">
-            <v>148.62207359999999</v>
+            <v>148.62</v>
           </cell>
           <cell r="D86">
             <v>394</v>
@@ -4477,7 +4477,7 @@
             <v>376.19</v>
           </cell>
           <cell r="G86">
-            <v>175.63474260000001</v>
+            <v>175.63</v>
           </cell>
         </row>
         <row r="87">
@@ -4488,7 +4488,7 @@
             <v>393.95</v>
           </cell>
           <cell r="C87">
-            <v>147.2914352</v>
+            <v>147.29</v>
           </cell>
           <cell r="D87">
             <v>402</v>
@@ -4500,7 +4500,7 @@
             <v>382</v>
           </cell>
           <cell r="G87">
-            <v>178.5742362</v>
+            <v>178.57</v>
           </cell>
         </row>
         <row r="88">
@@ -4511,7 +4511,7 @@
             <v>392.87</v>
           </cell>
           <cell r="C88">
-            <v>148.49609599999999</v>
+            <v>148.5</v>
           </cell>
           <cell r="D88">
             <v>393</v>
@@ -4523,7 +4523,7 @@
             <v>390.37</v>
           </cell>
           <cell r="G88">
-            <v>171.22550219999999</v>
+            <v>171.23</v>
           </cell>
         </row>
         <row r="89">
@@ -4534,7 +4534,7 @@
             <v>410.23</v>
           </cell>
           <cell r="C89">
-            <v>157.511368</v>
+            <v>157.51</v>
           </cell>
           <cell r="D89">
             <v>417</v>
@@ -4546,7 +4546,7 @@
             <v>385.87</v>
           </cell>
           <cell r="G89">
-            <v>202.4576217</v>
+            <v>202.46</v>
           </cell>
         </row>
         <row r="90">
@@ -4557,7 +4557,7 @@
             <v>378.59</v>
           </cell>
           <cell r="C90">
-            <v>157.93260559999999</v>
+            <v>157.93</v>
           </cell>
           <cell r="D90">
             <v>458</v>
@@ -4569,7 +4569,7 @@
             <v>357.18</v>
           </cell>
           <cell r="G90">
-            <v>189.5973372</v>
+            <v>189.6</v>
           </cell>
         </row>
         <row r="91">
@@ -4580,7 +4580,7 @@
             <v>389.72</v>
           </cell>
           <cell r="C91">
-            <v>158.5900512</v>
+            <v>158.59</v>
           </cell>
           <cell r="D91">
             <v>421</v>
@@ -4592,7 +4592,7 @@
             <v>345</v>
           </cell>
           <cell r="G91">
-            <v>180.41141970000001</v>
+            <v>180.41</v>
           </cell>
         </row>
         <row r="92">
@@ -4603,7 +4603,7 @@
             <v>387.44</v>
           </cell>
           <cell r="C92">
-            <v>156.44055839999999</v>
+            <v>156.44</v>
           </cell>
           <cell r="D92">
             <v>380</v>
@@ -4615,7 +4615,7 @@
             <v>344.65</v>
           </cell>
           <cell r="G92">
-            <v>166.08138840000001</v>
+            <v>166.08</v>
           </cell>
         </row>
         <row r="93">
@@ -4623,10 +4623,10 @@
             <v>42795</v>
           </cell>
           <cell r="B93">
-            <v>383.68159200000002</v>
+            <v>383.68</v>
           </cell>
           <cell r="C93">
-            <v>158.96404720000001</v>
+            <v>158.96</v>
           </cell>
           <cell r="D93">
             <v>370</v>
@@ -4638,7 +4638,7 @@
             <v>343.56</v>
           </cell>
           <cell r="G93">
-            <v>154.32341400000001</v>
+            <v>154.32</v>
           </cell>
         </row>
         <row r="94">
@@ -4646,10 +4646,10 @@
             <v>42767</v>
           </cell>
           <cell r="B94">
-            <v>394.53120000000001</v>
+            <v>394.53</v>
           </cell>
           <cell r="C94">
-            <v>162.8575424</v>
+            <v>162.86000000000001</v>
           </cell>
           <cell r="D94">
             <v>367</v>
@@ -4661,7 +4661,7 @@
             <v>335.34</v>
           </cell>
           <cell r="G94">
-            <v>155.05828740000001</v>
+            <v>155.06</v>
           </cell>
         </row>
         <row r="95">
@@ -4672,7 +4672,7 @@
             <v>412</v>
           </cell>
           <cell r="C95">
-            <v>159.98761519999999</v>
+            <v>159.99</v>
           </cell>
           <cell r="D95">
             <v>377</v>
@@ -4684,7 +4684,7 @@
             <v>336.55</v>
           </cell>
           <cell r="G95">
-            <v>153.2211039</v>
+            <v>153.22</v>
           </cell>
         </row>
         <row r="96">
@@ -4695,7 +4695,7 @@
             <v>416.07</v>
           </cell>
           <cell r="C96">
-            <v>152.44864319999999</v>
+            <v>152.44999999999999</v>
           </cell>
           <cell r="D96">
             <v>373</v>
@@ -4707,7 +4707,7 @@
             <v>341</v>
           </cell>
           <cell r="G96">
-            <v>141.83056619999999</v>
+            <v>141.83000000000001</v>
           </cell>
         </row>
         <row r="97">
@@ -4718,7 +4718,7 @@
             <v>397.76</v>
           </cell>
           <cell r="C97">
-            <v>151.80300800000001</v>
+            <v>151.80000000000001</v>
           </cell>
           <cell r="D97">
             <v>365</v>
@@ -4730,7 +4730,7 @@
             <v>338</v>
           </cell>
           <cell r="G97">
-            <v>150.649047</v>
+            <v>150.65</v>
           </cell>
         </row>
         <row r="98">
@@ -4741,7 +4741,7 @@
             <v>401.87</v>
           </cell>
           <cell r="C98">
-            <v>152.25967679999999</v>
+            <v>152.26</v>
           </cell>
           <cell r="D98">
             <v>369</v>
@@ -4753,7 +4753,7 @@
             <v>336.39</v>
           </cell>
           <cell r="G98">
-            <v>151.75135710000001</v>
+            <v>151.75</v>
           </cell>
         </row>
         <row r="99">
@@ -4764,7 +4764,7 @@
             <v>403.53</v>
           </cell>
           <cell r="C99">
-            <v>148.42523360000001</v>
+            <v>148.43</v>
           </cell>
           <cell r="D99">
             <v>384</v>
@@ -4776,7 +4776,7 @@
             <v>342.73</v>
           </cell>
           <cell r="G99">
-            <v>150.649047</v>
+            <v>150.65</v>
           </cell>
         </row>
         <row r="100">
@@ -4787,7 +4787,7 @@
             <v>412.17</v>
           </cell>
           <cell r="C100">
-            <v>150.15348879999999</v>
+            <v>150.15</v>
           </cell>
           <cell r="D100">
             <v>415</v>
@@ -4799,7 +4799,7 @@
             <v>347.46</v>
           </cell>
           <cell r="G100">
-            <v>149.1793002</v>
+            <v>149.18</v>
           </cell>
         </row>
         <row r="101">
@@ -4810,7 +4810,7 @@
             <v>431.08</v>
           </cell>
           <cell r="C101">
-            <v>161.75917519999999</v>
+            <v>161.76</v>
           </cell>
           <cell r="D101">
             <v>442</v>
@@ -4822,7 +4822,7 @@
             <v>361.57</v>
           </cell>
           <cell r="G101">
-            <v>151.75135710000001</v>
+            <v>151.75</v>
           </cell>
         </row>
         <row r="102">
@@ -4833,7 +4833,7 @@
             <v>457.4</v>
           </cell>
           <cell r="C102">
-            <v>179.87239199999999</v>
+            <v>179.87</v>
           </cell>
           <cell r="D102">
             <v>441</v>
@@ -4845,7 +4845,7 @@
             <v>372.46</v>
           </cell>
           <cell r="G102">
-            <v>173.0626857</v>
+            <v>173.06</v>
           </cell>
         </row>
         <row r="103">
@@ -4856,7 +4856,7 @@
             <v>422.55</v>
           </cell>
           <cell r="C103">
-            <v>168.9556456</v>
+            <v>168.96</v>
           </cell>
           <cell r="D103">
             <v>433</v>
@@ -4868,7 +4868,7 @@
             <v>377.31</v>
           </cell>
           <cell r="G103">
-            <v>171.96037559999999</v>
+            <v>171.96</v>
           </cell>
         </row>
         <row r="104">
@@ -4879,7 +4879,7 @@
             <v>395.14</v>
           </cell>
           <cell r="C104">
-            <v>164.4125784</v>
+            <v>164.41</v>
           </cell>
           <cell r="D104">
             <v>395</v>
@@ -4891,7 +4891,7 @@
             <v>371</v>
           </cell>
           <cell r="G104">
-            <v>187.392717</v>
+            <v>187.39</v>
           </cell>
         </row>
         <row r="105">
@@ -4902,7 +4902,7 @@
             <v>380.97</v>
           </cell>
           <cell r="C105">
-            <v>159.13726639999999</v>
+            <v>159.13999999999999</v>
           </cell>
           <cell r="D105">
             <v>384</v>
@@ -4914,7 +4914,7 @@
             <v>360.2</v>
           </cell>
           <cell r="G105">
-            <v>191.06708399999999</v>
+            <v>191.07</v>
           </cell>
         </row>
         <row r="106">
@@ -4925,7 +4925,7 @@
             <v>373.75</v>
           </cell>
           <cell r="C106">
-            <v>159.67660799999999</v>
+            <v>159.68</v>
           </cell>
           <cell r="D106">
             <v>384</v>
@@ -4937,7 +4937,7 @@
             <v>360.13</v>
           </cell>
           <cell r="G106">
-            <v>187.02528029999999</v>
+            <v>187.03</v>
           </cell>
         </row>
         <row r="107">
@@ -4948,7 +4948,7 @@
             <v>373.08</v>
           </cell>
           <cell r="C107">
-            <v>161.0269304</v>
+            <v>161.03</v>
           </cell>
           <cell r="D107">
             <v>369</v>
@@ -4960,7 +4960,7 @@
             <v>364.91</v>
           </cell>
           <cell r="G107">
-            <v>193.27170419999999</v>
+            <v>193.27</v>
           </cell>
         </row>
         <row r="108">
@@ -4971,7 +4971,7 @@
             <v>368.42</v>
           </cell>
           <cell r="C108">
-            <v>163.948036</v>
+            <v>163.95</v>
           </cell>
           <cell r="D108">
             <v>363</v>
@@ -4983,7 +4983,7 @@
             <v>371</v>
           </cell>
           <cell r="G108">
-            <v>189.22990050000001</v>
+            <v>189.23</v>
           </cell>
         </row>
         <row r="109">
@@ -4994,7 +4994,7 @@
             <v>368</v>
           </cell>
           <cell r="C109">
-            <v>166.1565808</v>
+            <v>166.16</v>
           </cell>
           <cell r="D109">
             <v>368</v>
@@ -5006,7 +5006,7 @@
             <v>353.61</v>
           </cell>
           <cell r="G109">
-            <v>177.10448940000001</v>
+            <v>177.1</v>
           </cell>
         </row>
         <row r="110">
@@ -5017,7 +5017,7 @@
             <v>375.95</v>
           </cell>
           <cell r="C110">
-            <v>171.388588</v>
+            <v>171.39</v>
           </cell>
           <cell r="D110">
             <v>373</v>
@@ -5029,7 +5029,7 @@
             <v>342.4</v>
           </cell>
           <cell r="G110">
-            <v>172.709946468</v>
+            <v>172.71</v>
           </cell>
         </row>
         <row r="111">
@@ -5040,7 +5040,7 @@
             <v>367.49</v>
           </cell>
           <cell r="C111">
-            <v>165.62117599999999</v>
+            <v>165.62</v>
           </cell>
           <cell r="D111">
             <v>357</v>
@@ -5052,7 +5052,7 @@
             <v>326.43</v>
           </cell>
           <cell r="G111">
-            <v>172.69524899999999</v>
+            <v>172.7</v>
           </cell>
         </row>
         <row r="112">
@@ -5063,7 +5063,7 @@
             <v>378.78</v>
           </cell>
           <cell r="C112">
-            <v>162.5937768</v>
+            <v>162.59</v>
           </cell>
           <cell r="D112">
             <v>373</v>
@@ -5075,7 +5075,7 @@
             <v>340.13</v>
           </cell>
           <cell r="G112">
-            <v>179.67654630000001</v>
+            <v>179.68</v>
           </cell>
         </row>
         <row r="113">
@@ -5086,7 +5086,7 @@
             <v>405.87</v>
           </cell>
           <cell r="C113">
-            <v>179.59681599999999</v>
+            <v>179.6</v>
           </cell>
           <cell r="D113">
             <v>392</v>
@@ -5098,7 +5098,7 @@
             <v>345.78</v>
           </cell>
           <cell r="G113">
-            <v>197.31350789999999</v>
+            <v>197.31</v>
           </cell>
         </row>
         <row r="114">
@@ -5109,7 +5109,7 @@
             <v>391.48</v>
           </cell>
           <cell r="C114">
-            <v>166.7195432</v>
+            <v>166.72</v>
           </cell>
           <cell r="D114">
             <v>376</v>
@@ -5121,7 +5121,7 @@
             <v>349</v>
           </cell>
           <cell r="G114">
-            <v>209.80635570000001</v>
+            <v>209.81</v>
           </cell>
         </row>
         <row r="115">
@@ -5132,7 +5132,7 @@
             <v>388.2</v>
           </cell>
           <cell r="C115">
-            <v>166.2943688</v>
+            <v>166.29</v>
           </cell>
           <cell r="D115">
             <v>381</v>
@@ -5144,7 +5144,7 @@
             <v>351</v>
           </cell>
           <cell r="G115">
-            <v>215.31790620000001</v>
+            <v>215.32</v>
           </cell>
         </row>
         <row r="116">
@@ -5155,7 +5155,7 @@
             <v>394.73</v>
           </cell>
           <cell r="C116">
-            <v>172.0539072</v>
+            <v>172.05</v>
           </cell>
           <cell r="D116">
             <v>399</v>
@@ -5167,7 +5167,7 @@
             <v>354.02</v>
           </cell>
           <cell r="G116">
-            <v>223.40151359999999</v>
+            <v>223.4</v>
           </cell>
         </row>
         <row r="117">
@@ -5178,7 +5178,7 @@
             <v>409.79</v>
           </cell>
           <cell r="C117">
-            <v>174.22702079999999</v>
+            <v>174.23</v>
           </cell>
           <cell r="D117">
             <v>410</v>
@@ -5190,7 +5190,7 @@
             <v>360.74</v>
           </cell>
           <cell r="G117">
-            <v>230.75024759999999</v>
+            <v>230.75</v>
           </cell>
         </row>
         <row r="118">
@@ -5201,7 +5201,7 @@
             <v>423.55</v>
           </cell>
           <cell r="C118">
-            <v>173.6955528</v>
+            <v>173.7</v>
           </cell>
           <cell r="D118">
             <v>420</v>
@@ -5213,7 +5213,7 @@
             <v>353.5</v>
           </cell>
           <cell r="G118">
-            <v>236.99667149999999</v>
+            <v>237</v>
           </cell>
         </row>
         <row r="119">
@@ -5224,7 +5224,7 @@
             <v>433.21</v>
           </cell>
           <cell r="C119">
-            <v>174.70731040000001</v>
+            <v>174.71</v>
           </cell>
           <cell r="D119">
             <v>420</v>
@@ -5236,7 +5236,7 @@
             <v>374.42</v>
           </cell>
           <cell r="G119">
-            <v>248.3872092</v>
+            <v>248.39</v>
           </cell>
         </row>
         <row r="120">
@@ -5247,7 +5247,7 @@
             <v>448.32</v>
           </cell>
           <cell r="C120">
-            <v>178.73465680000001</v>
+            <v>178.73</v>
           </cell>
           <cell r="D120">
             <v>418</v>
@@ -5259,7 +5259,7 @@
             <v>382.39</v>
           </cell>
           <cell r="G120">
-            <v>269.6985378</v>
+            <v>269.7</v>
           </cell>
         </row>
         <row r="121">
@@ -5270,7 +5270,7 @@
             <v>449.9</v>
           </cell>
           <cell r="C121">
-            <v>178.74253039999999</v>
+            <v>178.74</v>
           </cell>
           <cell r="D121">
             <v>418</v>
@@ -5282,7 +5282,7 @@
             <v>422</v>
           </cell>
           <cell r="G121">
-            <v>258.6754368</v>
+            <v>258.68</v>
           </cell>
         </row>
         <row r="122">
@@ -5293,7 +5293,7 @@
             <v>425.81</v>
           </cell>
           <cell r="C122">
-            <v>163.121308</v>
+            <v>163.12</v>
           </cell>
           <cell r="D122">
             <v>428</v>
@@ -5305,7 +5305,7 @@
             <v>436.96</v>
           </cell>
           <cell r="G122">
-            <v>245.44771560000001</v>
+            <v>245.45</v>
           </cell>
         </row>
         <row r="123">
@@ -5316,7 +5316,7 @@
             <v>430.17</v>
           </cell>
           <cell r="C123">
-            <v>163.0583192</v>
+            <v>163.06</v>
           </cell>
           <cell r="D123">
             <v>432</v>
@@ -5328,7 +5328,7 @@
             <v>442.05</v>
           </cell>
           <cell r="G123">
-            <v>243.6105321</v>
+            <v>243.61</v>
           </cell>
         </row>
         <row r="124">
@@ -5339,7 +5339,7 @@
             <v>458.57</v>
           </cell>
           <cell r="C124">
-            <v>176.42375519999999</v>
+            <v>176.42</v>
           </cell>
           <cell r="D124">
             <v>445</v>
@@ -5351,7 +5351,7 @@
             <v>442.62</v>
           </cell>
           <cell r="G124">
-            <v>263.45211389999997</v>
+            <v>263.45</v>
           </cell>
         </row>
         <row r="125">
@@ -5362,7 +5362,7 @@
             <v>471.74</v>
           </cell>
           <cell r="C125">
-            <v>182.726572</v>
+            <v>182.73</v>
           </cell>
           <cell r="D125">
             <v>422</v>
@@ -5374,7 +5374,7 @@
             <v>420.87</v>
           </cell>
           <cell r="G125">
-            <v>280.35420210000001</v>
+            <v>280.35000000000002</v>
           </cell>
         </row>
         <row r="126">
@@ -5385,7 +5385,7 @@
             <v>511.14</v>
           </cell>
           <cell r="C126">
-            <v>202.39482480000001</v>
+            <v>202.39</v>
           </cell>
           <cell r="D126">
             <v>397</v>
@@ -5397,7 +5397,7 @@
             <v>404.5</v>
           </cell>
           <cell r="G126">
-            <v>306.44220780000001</v>
+            <v>306.44</v>
           </cell>
         </row>
         <row r="127">
@@ -5408,7 +5408,7 @@
             <v>519.41999999999996</v>
           </cell>
           <cell r="C127">
-            <v>217.29561279999999</v>
+            <v>217.3</v>
           </cell>
           <cell r="D127">
             <v>388</v>
@@ -5420,7 +5420,7 @@
             <v>390.48</v>
           </cell>
           <cell r="G127">
-            <v>334.73483370000002</v>
+            <v>334.73</v>
           </cell>
         </row>
         <row r="128">
@@ -5431,7 +5431,7 @@
             <v>516.17999999999995</v>
           </cell>
           <cell r="C128">
-            <v>222.3583376</v>
+            <v>222.36</v>
           </cell>
           <cell r="D128">
             <v>395</v>
@@ -5443,7 +5443,7 @@
             <v>370.91</v>
           </cell>
           <cell r="G128">
-            <v>324.81404279999998</v>
+            <v>324.81</v>
           </cell>
         </row>
         <row r="129">
@@ -5454,7 +5454,7 @@
             <v>530.80999999999995</v>
           </cell>
           <cell r="C129">
-            <v>222.33078</v>
+            <v>222.33</v>
           </cell>
           <cell r="D129">
             <v>422</v>
@@ -5466,7 +5466,7 @@
             <v>378.57</v>
           </cell>
           <cell r="G129">
-            <v>323.71173270000003</v>
+            <v>323.70999999999998</v>
           </cell>
         </row>
         <row r="130">
@@ -5477,7 +5477,7 @@
             <v>490.73</v>
           </cell>
           <cell r="C130">
-            <v>209.3235928</v>
+            <v>209.32</v>
           </cell>
           <cell r="D130">
             <v>459</v>
@@ -5489,7 +5489,7 @@
             <v>393.16</v>
           </cell>
           <cell r="G130">
-            <v>292.11217649999998</v>
+            <v>292.11</v>
           </cell>
         </row>
         <row r="131">
@@ -5500,7 +5500,7 @@
             <v>565.5</v>
           </cell>
           <cell r="C131">
-            <v>198.06434479999999</v>
+            <v>198.06</v>
           </cell>
           <cell r="D131">
             <v>450</v>
@@ -5512,7 +5512,7 @@
             <v>402</v>
           </cell>
           <cell r="G131">
-            <v>275.57752499999998</v>
+            <v>275.58</v>
           </cell>
         </row>
         <row r="132">
@@ -5523,19 +5523,19 @@
             <v>564.03</v>
           </cell>
           <cell r="C132">
-            <v>197.39115200000001</v>
+            <v>197.39</v>
           </cell>
           <cell r="D132">
             <v>451</v>
           </cell>
           <cell r="E132">
-            <v>400.76190476190999</v>
+            <v>400.76</v>
           </cell>
           <cell r="F132">
-            <v>419.41176470587999</v>
+            <v>419.41</v>
           </cell>
           <cell r="G132">
-            <v>291.55664720356998</v>
+            <v>291.56</v>
           </cell>
         </row>
         <row r="133">
@@ -5546,7 +5546,7 @@
             <v>551.32000000000005</v>
           </cell>
           <cell r="C133">
-            <v>199.13473999999999</v>
+            <v>199.13</v>
           </cell>
           <cell r="D133">
             <v>438</v>
@@ -5555,10 +5555,10 @@
             <v>414.3</v>
           </cell>
           <cell r="F133">
-            <v>395.88235294117999</v>
+            <v>395.88</v>
           </cell>
           <cell r="G133">
-            <v>306.75162817895</v>
+            <v>306.75</v>
           </cell>
         </row>
         <row r="134">
@@ -5569,19 +5569,19 @@
             <v>540.85</v>
           </cell>
           <cell r="C134">
-            <v>201.72521090909001</v>
+            <v>201.73</v>
           </cell>
           <cell r="D134">
             <v>439</v>
           </cell>
           <cell r="E134">
-            <v>420.4347826087</v>
+            <v>420.43</v>
           </cell>
           <cell r="F134">
-            <v>376.31578947368001</v>
+            <v>376.32</v>
           </cell>
           <cell r="G134">
-            <v>325.68670496250002</v>
+            <v>325.69</v>
           </cell>
         </row>
         <row r="135">
@@ -5592,19 +5592,19 @@
             <v>560.17999999999995</v>
           </cell>
           <cell r="C135">
-            <v>207.40538699999999</v>
+            <v>207.41</v>
           </cell>
           <cell r="D135">
             <v>444</v>
           </cell>
           <cell r="E135">
-            <v>431.47619047619003</v>
+            <v>431.48</v>
           </cell>
           <cell r="F135">
             <v>362</v>
           </cell>
           <cell r="G135">
-            <v>307.50777423</v>
+            <v>307.51</v>
           </cell>
         </row>
         <row r="136">
@@ -5615,7 +5615,7 @@
             <v>511.71</v>
           </cell>
           <cell r="C136">
-            <v>238.73560454546001</v>
+            <v>238.74</v>
           </cell>
           <cell r="D136">
             <v>478.75</v>
@@ -5624,10 +5624,10 @@
             <v>428.25</v>
           </cell>
           <cell r="F136">
-            <v>399.43913513514002</v>
+            <v>399.44</v>
           </cell>
           <cell r="G136">
-            <v>305.33989769999999</v>
+            <v>305.33999999999997</v>
           </cell>
         </row>
         <row r="137">
@@ -5638,7 +5638,7 @@
             <v>511.3</v>
           </cell>
           <cell r="C137">
-            <v>279.51280000000003</v>
+            <v>279.51</v>
           </cell>
           <cell r="D137">
             <v>509</v>
@@ -5647,10 +5647,10 @@
             <v>461.8</v>
           </cell>
           <cell r="F137">
-            <v>387.74058558559</v>
+            <v>387.74</v>
           </cell>
           <cell r="G137">
-            <v>304.60502430000003</v>
+            <v>304.61</v>
           </cell>
         </row>
         <row r="138">
@@ -5661,7 +5661,7 @@
             <v>524.66</v>
           </cell>
           <cell r="C138">
-            <v>298.40944000000002</v>
+            <v>298.41000000000003</v>
           </cell>
           <cell r="D138">
             <v>524.25</v>
@@ -5670,10 +5670,10 @@
             <v>492</v>
           </cell>
           <cell r="F138">
-            <v>385.93153153153003</v>
+            <v>385.93</v>
           </cell>
           <cell r="G138">
-            <v>313.4235051</v>
+            <v>313.42</v>
           </cell>
         </row>
         <row r="139">
@@ -5684,7 +5684,7 @@
             <v>498.01</v>
           </cell>
           <cell r="C139">
-            <v>295.5375444</v>
+            <v>295.54000000000002</v>
           </cell>
           <cell r="D139">
             <v>543.5</v>
@@ -5693,10 +5693,10 @@
             <v>510.75</v>
           </cell>
           <cell r="F139">
-            <v>386.84811891892002</v>
+            <v>386.85</v>
           </cell>
           <cell r="G139">
-            <v>319.66992900000002</v>
+            <v>319.67</v>
           </cell>
         </row>
         <row r="140">
@@ -5707,7 +5707,7 @@
             <v>563.88</v>
           </cell>
           <cell r="C140">
-            <v>279.90647999999999</v>
+            <v>279.91000000000003</v>
           </cell>
           <cell r="D140">
             <v>557</v>
@@ -5716,10 +5716,10 @@
             <v>530.6</v>
           </cell>
           <cell r="F140">
-            <v>390.75567567567998</v>
+            <v>390.76</v>
           </cell>
           <cell r="G140">
-            <v>308.27939129999999</v>
+            <v>308.27999999999997</v>
           </cell>
         </row>
         <row r="141">
@@ -5730,7 +5730,7 @@
             <v>584.70000000000005</v>
           </cell>
           <cell r="C141">
-            <v>309.03879999999998</v>
+            <v>309.04000000000002</v>
           </cell>
           <cell r="D141">
             <v>559</v>
@@ -5742,7 +5742,7 @@
             <v>401.61</v>
           </cell>
           <cell r="G141">
-            <v>309.74913809999998</v>
+            <v>309.75</v>
           </cell>
         </row>
         <row r="142">
@@ -5753,7 +5753,7 @@
             <v>610.73</v>
           </cell>
           <cell r="C142">
-            <v>302.73991999999998</v>
+            <v>302.74</v>
           </cell>
           <cell r="D142">
             <v>563</v>
@@ -5762,10 +5762,10 @@
             <v>535</v>
           </cell>
           <cell r="F142">
-            <v>401.64499999999998</v>
+            <v>401.64</v>
           </cell>
           <cell r="G142">
-            <v>318.9350556</v>
+            <v>318.94</v>
           </cell>
         </row>
         <row r="143">
@@ -5776,7 +5776,7 @@
             <v>595.29999999999995</v>
           </cell>
           <cell r="C143">
-            <v>303.1336</v>
+            <v>303.13</v>
           </cell>
           <cell r="D143">
             <v>564.20000000000005</v>
@@ -5785,10 +5785,10 @@
             <v>530</v>
           </cell>
           <cell r="F143">
-            <v>401.245</v>
+            <v>401.24</v>
           </cell>
           <cell r="G143">
-            <v>335.46970709999999</v>
+            <v>335.47</v>
           </cell>
         </row>
         <row r="144">
@@ -5799,7 +5799,7 @@
             <v>591.29</v>
           </cell>
           <cell r="C144">
-            <v>308.64512000000002</v>
+            <v>308.64999999999998</v>
           </cell>
           <cell r="D144">
             <v>557.79999999999995</v>
@@ -5811,7 +5811,7 @@
             <v>413.75</v>
           </cell>
           <cell r="G144">
-            <v>347.96255489999999</v>
+            <v>347.96</v>
           </cell>
         </row>
         <row r="145">
@@ -5822,7 +5822,7 @@
             <v>584.59</v>
           </cell>
           <cell r="C145">
-            <v>321.63655999999997</v>
+            <v>321.64</v>
           </cell>
           <cell r="D145">
             <v>559.25</v>
@@ -5831,10 +5831,10 @@
             <v>523</v>
           </cell>
           <cell r="F145">
-            <v>448.32249999999999</v>
+            <v>448.32</v>
           </cell>
           <cell r="G145">
-            <v>360.82283940000002</v>
+            <v>360.82</v>
           </cell>
         </row>
         <row r="146">
@@ -5845,7 +5845,7 @@
             <v>625.76</v>
           </cell>
           <cell r="C146">
-            <v>321.24288000000001</v>
+            <v>321.24</v>
           </cell>
           <cell r="D146">
             <v>558.25</v>
@@ -5854,10 +5854,10 @@
             <v>520.25</v>
           </cell>
           <cell r="F146">
-            <v>453.74400000000003</v>
+            <v>453.74</v>
           </cell>
           <cell r="G146">
-            <v>358.19566699500001</v>
+            <v>358.2</v>
           </cell>
         </row>
         <row r="147">
@@ -5868,7 +5868,7 @@
             <v>677.32</v>
           </cell>
           <cell r="C147">
-            <v>320.8492</v>
+            <v>320.85000000000002</v>
           </cell>
           <cell r="D147">
             <v>563.25</v>
@@ -5877,10 +5877,10 @@
             <v>512</v>
           </cell>
           <cell r="F147">
-            <v>455.17750000000001</v>
+            <v>455.18</v>
           </cell>
           <cell r="G147">
-            <v>353.42092377236997</v>
+            <v>353.42</v>
           </cell>
         </row>
         <row r="148">
@@ -5891,7 +5891,7 @@
             <v>684.02</v>
           </cell>
           <cell r="C148">
-            <v>331.99205565217</v>
+            <v>331.99</v>
           </cell>
           <cell r="D148">
             <v>567.75</v>
@@ -5900,10 +5900,10 @@
             <v>509</v>
           </cell>
           <cell r="F148">
-            <v>436.428</v>
+            <v>436.43</v>
           </cell>
           <cell r="G148">
-            <v>349.40035068261</v>
+            <v>349.4</v>
           </cell>
         </row>
         <row r="149">
@@ -5914,7 +5914,7 @@
             <v>670.19</v>
           </cell>
           <cell r="C149">
-            <v>333.05327999999997</v>
+            <v>333.05</v>
           </cell>
           <cell r="D149">
             <v>573.75</v>
@@ -5923,10 +5923,10 @@
             <v>518.75</v>
           </cell>
           <cell r="F149">
-            <v>409.28500000000003</v>
+            <v>409.28</v>
           </cell>
           <cell r="G149">
-            <v>345.68794675714003</v>
+            <v>345.69</v>
           </cell>
         </row>
         <row r="150">
@@ -5937,7 +5937,7 @@
             <v>578.01</v>
           </cell>
           <cell r="C150">
-            <v>267.30871999999999</v>
+            <v>267.31</v>
           </cell>
           <cell r="D150">
             <v>600</v>
@@ -5946,10 +5946,10 @@
             <v>541.20000000000005</v>
           </cell>
           <cell r="F150">
-            <v>411.96249999999998</v>
+            <v>411.96</v>
           </cell>
           <cell r="G150">
-            <v>276.18991949999997</v>
+            <v>276.19</v>
           </cell>
         </row>
         <row r="151">
@@ -5960,7 +5960,7 @@
             <v>577.48</v>
           </cell>
           <cell r="C151">
-            <v>269.27712000000002</v>
+            <v>269.27999999999997</v>
           </cell>
           <cell r="D151">
             <v>600.5</v>
@@ -5969,10 +5969,10 @@
             <v>561.75</v>
           </cell>
           <cell r="F151">
-            <v>433.28800000000001</v>
+            <v>433.29</v>
           </cell>
           <cell r="G151">
-            <v>264.35872401848002</v>
+            <v>264.36</v>
           </cell>
         </row>
         <row r="152">
@@ -5983,7 +5983,7 @@
             <v>583.83000000000004</v>
           </cell>
           <cell r="C152">
-            <v>274.00128000000001</v>
+            <v>274</v>
           </cell>
           <cell r="D152">
             <v>547.75</v>
@@ -5992,10 +5992,10 @@
             <v>533.25</v>
           </cell>
           <cell r="F152">
-            <v>440.71499999999997</v>
+            <v>440.72</v>
           </cell>
           <cell r="G152">
-            <v>266.32392179211001</v>
+            <v>266.32</v>
           </cell>
         </row>
         <row r="153">
@@ -6006,7 +6006,7 @@
             <v>547.46</v>
           </cell>
           <cell r="C153">
-            <v>280.69384000000002</v>
+            <v>280.69</v>
           </cell>
           <cell r="D153">
             <v>548</v>
@@ -6015,10 +6015,10 @@
             <v>526.75</v>
           </cell>
           <cell r="F153">
-            <v>428.7475</v>
+            <v>428.75</v>
           </cell>
           <cell r="G153">
-            <v>283.87825408636002</v>
+            <v>283.88</v>
           </cell>
         </row>
         <row r="154">
@@ -6029,7 +6029,7 @@
             <v>522.96</v>
           </cell>
           <cell r="C154">
-            <v>279.45866899999999</v>
+            <v>279.45999999999998</v>
           </cell>
           <cell r="D154">
             <v>537.5</v>
@@ -6041,7 +6041,7 @@
             <v>430.43</v>
           </cell>
           <cell r="G154">
-            <v>277.77295928249998</v>
+            <v>277.77</v>
           </cell>
         </row>
         <row r="155">
@@ -6052,7 +6052,7 @@
             <v>503.18</v>
           </cell>
           <cell r="C155">
-            <v>272.84484500000002</v>
+            <v>272.83999999999997</v>
           </cell>
           <cell r="D155">
             <v>542</v>
@@ -6064,7 +6064,7 @@
             <v>451.43</v>
           </cell>
           <cell r="G155">
-            <v>274.89317414624998</v>
+            <v>274.89</v>
           </cell>
         </row>
         <row r="156">
@@ -6075,7 +6075,7 @@
             <v>483.03</v>
           </cell>
           <cell r="C156">
-            <v>258.64776000000001</v>
+            <v>258.64999999999998</v>
           </cell>
           <cell r="D156">
             <v>585.75</v>
@@ -6084,10 +6084,10 @@
             <v>544</v>
           </cell>
           <cell r="F156">
-            <v>504.42599999999999</v>
+            <v>504.43</v>
           </cell>
           <cell r="G156">
-            <v>269.03000713749998</v>
+            <v>269.02999999999997</v>
           </cell>
         </row>
         <row r="157">
@@ -6098,7 +6098,7 @@
             <v>478.35</v>
           </cell>
           <cell r="C157">
-            <v>274.39496000000003</v>
+            <v>274.39</v>
           </cell>
           <cell r="D157">
             <v>615.25</v>
@@ -6107,10 +6107,10 @@
             <v>549.75</v>
           </cell>
           <cell r="F157">
-            <v>568.74749999999995</v>
+            <v>568.75</v>
           </cell>
           <cell r="G157">
-            <v>281.00640224249997</v>
+            <v>281.01</v>
           </cell>
         </row>
         <row r="158">
@@ -6121,7 +6121,7 @@
             <v>491.42</v>
           </cell>
           <cell r="C158">
-            <v>274.78863999999999</v>
+            <v>274.79000000000002</v>
           </cell>
           <cell r="D158">
             <v>599.4</v>
@@ -6130,10 +6130,10 @@
             <v>489</v>
           </cell>
           <cell r="F158">
-            <v>580.53750000000002</v>
+            <v>580.54</v>
           </cell>
           <cell r="G158">
-            <v>289.01083578214002</v>
+            <v>289.01</v>
           </cell>
         </row>
         <row r="159">
@@ -6156,7 +6156,7 @@
             <v>561.42999999999995</v>
           </cell>
           <cell r="G159">
-            <v>315.91622907613998</v>
+            <v>315.92</v>
           </cell>
         </row>
         <row r="160">
@@ -6167,7 +6167,7 @@
             <v>552.96</v>
           </cell>
           <cell r="C160">
-            <v>310.21983999999998</v>
+            <v>310.22000000000003</v>
           </cell>
           <cell r="D160">
             <v>566</v>
@@ -6176,10 +6176,10 @@
             <v>465.25</v>
           </cell>
           <cell r="F160">
-            <v>553.428</v>
+            <v>553.42999999999995</v>
           </cell>
           <cell r="G160">
-            <v>327.06658952609001</v>
+            <v>327.07</v>
           </cell>
         </row>
         <row r="161">
@@ -6190,7 +6190,7 @@
             <v>556.5</v>
           </cell>
           <cell r="C161">
-            <v>300.77152000000001</v>
+            <v>300.77</v>
           </cell>
           <cell r="D161">
             <v>538.25</v>
@@ -6199,10 +6199,10 @@
             <v>449.25</v>
           </cell>
           <cell r="F161">
-            <v>519.46500000000003</v>
+            <v>519.46</v>
           </cell>
           <cell r="G161">
-            <v>303.88392977625</v>
+            <v>303.88</v>
           </cell>
         </row>
         <row r="162">
@@ -6213,7 +6213,7 @@
             <v>556.22</v>
           </cell>
           <cell r="C162">
-            <v>310.61351999999999</v>
+            <v>310.61</v>
           </cell>
           <cell r="D162">
             <v>513.75</v>
@@ -6222,10 +6222,10 @@
             <v>427.5</v>
           </cell>
           <cell r="F162">
-            <v>475.28199999999998</v>
+            <v>475.28</v>
           </cell>
           <cell r="G162">
-            <v>326.42992919659002</v>
+            <v>326.43</v>
           </cell>
         </row>
         <row r="163">
@@ -6236,7 +6236,7 @@
             <v>556.79999999999995</v>
           </cell>
           <cell r="C163">
-            <v>307.85775999999998</v>
+            <v>307.86</v>
           </cell>
           <cell r="D163">
             <v>481.4</v>
@@ -6245,10 +6245,10 @@
             <v>421.2</v>
           </cell>
           <cell r="F163">
-            <v>479.64499999999998</v>
+            <v>479.64</v>
           </cell>
           <cell r="G163">
-            <v>355.27788556363998</v>
+            <v>355.28</v>
           </cell>
         </row>
         <row r="164">
@@ -6259,7 +6259,7 @@
             <v>556.58000000000004</v>
           </cell>
           <cell r="C164">
-            <v>319.27447999999998</v>
+            <v>319.27</v>
           </cell>
           <cell r="D164">
             <v>484.25</v>
@@ -6268,10 +6268,10 @@
             <v>409</v>
           </cell>
           <cell r="F164">
-            <v>484.28750000000002</v>
+            <v>484.29</v>
           </cell>
           <cell r="G164">
-            <v>336.12429558104998</v>
+            <v>336.12</v>
           </cell>
         </row>
         <row r="165">
@@ -6282,7 +6282,7 @@
             <v>552.75</v>
           </cell>
           <cell r="C165">
-            <v>290.53584000000001</v>
+            <v>290.54000000000002</v>
           </cell>
           <cell r="D165">
             <v>492.75</v>
@@ -6294,7 +6294,7 @@
             <v>464</v>
           </cell>
           <cell r="G165">
-            <v>316.74657066378001</v>
+            <v>316.75</v>
           </cell>
         </row>
         <row r="166">
@@ -6305,7 +6305,7 @@
             <v>566.04999999999995</v>
           </cell>
           <cell r="C166">
-            <v>292.89792</v>
+            <v>292.89999999999998</v>
           </cell>
           <cell r="D166">
             <v>524</v>
@@ -6317,7 +6317,7 @@
             <v>478.57</v>
           </cell>
           <cell r="G166">
-            <v>348.12034854950002</v>
+            <v>348.12</v>
           </cell>
         </row>
         <row r="167">
@@ -6328,7 +6328,7 @@
             <v>567.62</v>
           </cell>
           <cell r="C167">
-            <v>264.94664</v>
+            <v>264.95</v>
           </cell>
           <cell r="D167">
             <v>516.79999999999995</v>
@@ -6337,10 +6337,10 @@
             <v>405</v>
           </cell>
           <cell r="F167">
-            <v>493.858</v>
+            <v>493.86</v>
           </cell>
           <cell r="G167">
-            <v>326.55656760728999</v>
+            <v>326.56</v>
           </cell>
         </row>
         <row r="168">
@@ -6351,7 +6351,7 @@
             <v>545.75</v>
           </cell>
           <cell r="C168">
-            <v>250.38048000000001</v>
+            <v>250.38</v>
           </cell>
           <cell r="D168">
             <v>532</v>
@@ -6360,10 +6360,10 @@
             <v>413.4</v>
           </cell>
           <cell r="F168">
-            <v>528.28599999999994</v>
+            <v>528.29</v>
           </cell>
           <cell r="G168">
-            <v>306.52010438040003</v>
+            <v>306.52</v>
           </cell>
         </row>
         <row r="169">
@@ -6374,7 +6374,7 @@
             <v>514.15</v>
           </cell>
           <cell r="C169">
-            <v>238.1764</v>
+            <v>238.18</v>
           </cell>
           <cell r="D169">
             <v>514.5</v>
@@ -6386,7 +6386,7 @@
             <v>508.03</v>
           </cell>
           <cell r="G169">
-            <v>274.08076079558998</v>
+            <v>274.08</v>
           </cell>
         </row>
         <row r="170">
@@ -6397,7 +6397,7 @@
             <v>495.79</v>
           </cell>
           <cell r="C170">
-            <v>235.81432000000001</v>
+            <v>235.81</v>
           </cell>
           <cell r="D170">
             <v>486</v>
@@ -6409,7 +6409,7 @@
             <v>477.68</v>
           </cell>
           <cell r="G170">
-            <v>270.23219586429002</v>
+            <v>270.23</v>
           </cell>
         </row>
         <row r="171">
@@ -6420,7 +6420,7 @@
             <v>468.26</v>
           </cell>
           <cell r="C171">
-            <v>205.89464000000001</v>
+            <v>205.89</v>
           </cell>
           <cell r="D171">
             <v>476.5</v>
@@ -6429,10 +6429,10 @@
             <v>412</v>
           </cell>
           <cell r="F171">
-            <v>457.678</v>
+            <v>457.68</v>
           </cell>
           <cell r="G171">
-            <v>271.67359754743001</v>
+            <v>271.67</v>
           </cell>
         </row>
         <row r="172">
@@ -6443,7 +6443,7 @@
             <v>449.84</v>
           </cell>
           <cell r="C172">
-            <v>175.58127999999999</v>
+            <v>175.58</v>
           </cell>
           <cell r="D172">
             <v>452.75</v>
@@ -6452,10 +6452,10 @@
             <v>369</v>
           </cell>
           <cell r="F172">
-            <v>422.85750000000002</v>
+            <v>422.86</v>
           </cell>
           <cell r="G172">
-            <v>246.24722445585999</v>
+            <v>246.25</v>
           </cell>
         </row>
         <row r="173">
@@ -6466,7 +6466,7 @@
             <v>427.53</v>
           </cell>
           <cell r="C173">
-            <v>163.75682</v>
+            <v>163.76</v>
           </cell>
           <cell r="D173">
             <v>441.8</v>
@@ -6475,10 +6475,10 @@
             <v>349.8</v>
           </cell>
           <cell r="F173">
-            <v>357.85599999999999</v>
+            <v>357.86</v>
           </cell>
           <cell r="G173">
-            <v>195.81769059128999</v>
+            <v>195.82</v>
           </cell>
         </row>
         <row r="174">
@@ -6489,7 +6489,7 @@
             <v>401.33</v>
           </cell>
           <cell r="C174">
-            <v>152.74784</v>
+            <v>152.75</v>
           </cell>
           <cell r="D174">
             <v>440</v>
@@ -6498,10 +6498,10 @@
             <v>329.5</v>
           </cell>
           <cell r="F174">
-            <v>358.21499999999997</v>
+            <v>358.22</v>
           </cell>
           <cell r="G174">
-            <v>157.67209847046001</v>
+            <v>157.66999999999999</v>
           </cell>
         </row>
         <row r="175">
@@ -6512,19 +6512,19 @@
             <v>402.87</v>
           </cell>
           <cell r="C175">
-            <v>163.37719999999999</v>
+            <v>163.38</v>
           </cell>
           <cell r="D175">
-            <v>451.33333333333002</v>
+            <v>451.33</v>
           </cell>
           <cell r="E175">
             <v>329</v>
           </cell>
           <cell r="F175">
-            <v>368.82249999999999</v>
+            <v>368.82</v>
           </cell>
           <cell r="G175">
-            <v>181.60558897499999</v>
+            <v>181.61</v>
           </cell>
         </row>
         <row r="176">
@@ -6535,7 +6535,7 @@
             <v>402.6</v>
           </cell>
           <cell r="C176">
-            <v>157.07831999999999</v>
+            <v>157.08000000000001</v>
           </cell>
           <cell r="D176">
             <v>466</v>
@@ -6558,7 +6558,7 @@
             <v>409.36</v>
           </cell>
           <cell r="C177">
-            <v>159.04671999999999</v>
+            <v>159.05000000000001</v>
           </cell>
           <cell r="D177">
             <v>502.2</v>
@@ -6567,10 +6567,10 @@
             <v>377</v>
           </cell>
           <cell r="F177">
-            <v>392.572</v>
+            <v>392.57</v>
           </cell>
           <cell r="G177">
-            <v>191.07507175435001</v>
+            <v>191.08</v>
           </cell>
         </row>
         <row r="178">
@@ -6581,7 +6581,7 @@
             <v>411.86</v>
           </cell>
           <cell r="C178">
-            <v>161.80248</v>
+            <v>161.80000000000001</v>
           </cell>
           <cell r="D178">
             <v>535</v>
@@ -6590,7 +6590,7 @@
             <v>405</v>
           </cell>
           <cell r="F178">
-            <v>421.78500000000003</v>
+            <v>421.78</v>
           </cell>
           <cell r="G178">
             <v>194</v>
@@ -6604,7 +6604,7 @@
             <v>435.88</v>
           </cell>
           <cell r="C179">
-            <v>167.31399999999999</v>
+            <v>167.31</v>
           </cell>
           <cell r="D179">
             <v>568.79999999999995</v>
@@ -6613,10 +6613,10 @@
             <v>420.2</v>
           </cell>
           <cell r="F179">
-            <v>485.28399999999999</v>
+            <v>485.28</v>
           </cell>
           <cell r="G179">
-            <v>201.19093202368001</v>
+            <v>201.19</v>
           </cell>
         </row>
         <row r="180">
@@ -6627,7 +6627,7 @@
             <v>449.35</v>
           </cell>
           <cell r="C180">
-            <v>164.55824000000001</v>
+            <v>164.56</v>
           </cell>
           <cell r="D180">
             <v>591</v>
@@ -6636,10 +6636,10 @@
             <v>403</v>
           </cell>
           <cell r="F180">
-            <v>529.91399999999999</v>
+            <v>529.91</v>
           </cell>
           <cell r="G180">
-            <v>206.25140562749999</v>
+            <v>206.25</v>
           </cell>
         </row>
         <row r="181">
@@ -6650,7 +6650,7 @@
             <v>447.41</v>
           </cell>
           <cell r="C181">
-            <v>171.64447999999999</v>
+            <v>171.64</v>
           </cell>
           <cell r="D181">
             <v>542.75</v>
@@ -6659,10 +6659,10 @@
             <v>337</v>
           </cell>
           <cell r="F181">
-            <v>491.60500000000002</v>
+            <v>491.6</v>
           </cell>
           <cell r="G181">
-            <v>211.03834934118001</v>
+            <v>211.04</v>
           </cell>
         </row>
         <row r="182">
@@ -6673,7 +6673,7 @@
             <v>430.08</v>
           </cell>
           <cell r="C182">
-            <v>167.31399999999999</v>
+            <v>167.31</v>
           </cell>
           <cell r="D182">
             <v>493</v>
@@ -6682,10 +6682,10 @@
             <v>298.39999999999998</v>
           </cell>
           <cell r="F182">
-            <v>414.10750000000002</v>
+            <v>414.11</v>
           </cell>
           <cell r="G182">
-            <v>198.84886839642999</v>
+            <v>198.85</v>
           </cell>
         </row>
         <row r="183">
@@ -6696,7 +6696,7 @@
             <v>425.01</v>
           </cell>
           <cell r="C183">
-            <v>150.38576</v>
+            <v>150.38999999999999</v>
           </cell>
           <cell r="D183">
             <v>518.75</v>
@@ -6705,10 +6705,10 @@
             <v>303.25</v>
           </cell>
           <cell r="F183">
-            <v>392.858</v>
+            <v>392.86</v>
           </cell>
           <cell r="G183">
-            <v>191.09332947857001</v>
+            <v>191.09</v>
           </cell>
         </row>
         <row r="184">
@@ -6719,7 +6719,7 @@
             <v>497.53</v>
           </cell>
           <cell r="C184">
-            <v>151.96047999999999</v>
+            <v>151.96</v>
           </cell>
           <cell r="D184">
             <v>526.25</v>
@@ -6728,10 +6728,10 @@
             <v>305.5</v>
           </cell>
           <cell r="F184">
-            <v>395.71749999999997</v>
+            <v>395.72</v>
           </cell>
           <cell r="G184">
-            <v>210.37290809743001</v>
+            <v>210.37</v>
           </cell>
         </row>
         <row r="185">
@@ -6742,7 +6742,7 @@
             <v>430.61</v>
           </cell>
           <cell r="C185">
-            <v>151.5668</v>
+            <v>151.57</v>
           </cell>
           <cell r="D185">
             <v>572</v>
@@ -6751,10 +6751,10 @@
             <v>320.25</v>
           </cell>
           <cell r="F185">
-            <v>410.22800000000001</v>
+            <v>410.23</v>
           </cell>
           <cell r="G185">
-            <v>224.85038331477</v>
+            <v>224.85</v>
           </cell>
         </row>
         <row r="186">
@@ -6765,7 +6765,7 @@
             <v>442.09</v>
           </cell>
           <cell r="C186">
-            <v>179.51808</v>
+            <v>179.52</v>
           </cell>
           <cell r="D186">
             <v>574.5</v>
@@ -6774,10 +6774,10 @@
             <v>320.75</v>
           </cell>
           <cell r="F186">
-            <v>404.28500000000003</v>
+            <v>404.28</v>
           </cell>
           <cell r="G186">
-            <v>256.64493149079999</v>
+            <v>256.64</v>
           </cell>
         </row>
         <row r="187">
@@ -6788,7 +6788,7 @@
             <v>425.72</v>
           </cell>
           <cell r="C187">
-            <v>179.91175999999999</v>
+            <v>179.91</v>
           </cell>
           <cell r="D187">
             <v>533</v>
@@ -6797,10 +6797,10 @@
             <v>322.39999999999998</v>
           </cell>
           <cell r="F187">
-            <v>405.17750000000001</v>
+            <v>405.18</v>
           </cell>
           <cell r="G187">
-            <v>261.48173459625002</v>
+            <v>261.48</v>
           </cell>
         </row>
         <row r="188">
@@ -6811,19 +6811,19 @@
             <v>387.55</v>
           </cell>
           <cell r="C188">
-            <v>168.49503999999999</v>
+            <v>168.5</v>
           </cell>
           <cell r="D188">
-            <v>549.66666666667004</v>
+            <v>549.66999999999996</v>
           </cell>
           <cell r="E188">
-            <v>335.66666666666998</v>
+            <v>335.67</v>
           </cell>
           <cell r="F188">
             <v>430</v>
           </cell>
           <cell r="G188">
-            <v>233.47312851685999</v>
+            <v>233.47</v>
           </cell>
         </row>
         <row r="189">
@@ -6834,7 +6834,7 @@
             <v>372.75</v>
           </cell>
           <cell r="C189">
-            <v>164.55824000000001</v>
+            <v>164.56</v>
           </cell>
           <cell r="D189">
             <v>588.25</v>
@@ -6846,7 +6846,7 @@
             <v>0</v>
           </cell>
           <cell r="G189">
-            <v>230.98173272099999</v>
+            <v>230.98</v>
           </cell>
         </row>
         <row r="190">
@@ -6857,7 +6857,7 @@
             <v>374.45</v>
           </cell>
           <cell r="C190">
-            <v>163.37719999999999</v>
+            <v>163.38</v>
           </cell>
           <cell r="D190">
             <v>590.75</v>
@@ -6866,10 +6866,10 @@
             <v>319.5</v>
           </cell>
           <cell r="F190">
-            <v>418.09333333333001</v>
+            <v>418.09</v>
           </cell>
           <cell r="G190">
-            <v>224.68754204999999</v>
+            <v>224.69</v>
           </cell>
         </row>
         <row r="191">
@@ -6880,7 +6880,7 @@
             <v>400.92</v>
           </cell>
           <cell r="C191">
-            <v>172.82552000000001</v>
+            <v>172.83</v>
           </cell>
           <cell r="D191">
             <v>580</v>
@@ -6892,7 +6892,7 @@
             <v>386.79</v>
           </cell>
           <cell r="G191">
-            <v>239.11426721842</v>
+            <v>239.11</v>
           </cell>
         </row>
         <row r="192">
@@ -6903,7 +6903,7 @@
             <v>359.35</v>
           </cell>
           <cell r="C192">
-            <v>158.25935999999999</v>
+            <v>158.26</v>
           </cell>
           <cell r="D192">
             <v>531.79999999999995</v>
@@ -6915,7 +6915,7 @@
             <v>413</v>
           </cell>
           <cell r="G192">
-            <v>220.1354096</v>
+            <v>220.14</v>
           </cell>
         </row>
         <row r="193">
@@ -6926,7 +6926,7 @@
             <v>371.76</v>
           </cell>
           <cell r="C193">
-            <v>163.77088000000001</v>
+            <v>163.77000000000001</v>
           </cell>
           <cell r="D193">
             <v>552</v>
@@ -6938,7 +6938,7 @@
             <v>431.07</v>
           </cell>
           <cell r="G193">
-            <v>226.8462326625</v>
+            <v>226.85</v>
           </cell>
         </row>
         <row r="194">
@@ -6949,7 +6949,7 @@
             <v>399.87</v>
           </cell>
           <cell r="C194">
-            <v>183.06120000000001</v>
+            <v>183.06</v>
           </cell>
           <cell r="D194">
             <v>609.25</v>
@@ -6958,10 +6958,10 @@
             <v>348.25</v>
           </cell>
           <cell r="F194">
-            <v>478.572</v>
+            <v>478.57</v>
           </cell>
           <cell r="G194">
-            <v>237.38407758586999</v>
+            <v>237.38</v>
           </cell>
         </row>
         <row r="195">
@@ -6972,7 +6972,7 @@
             <v>525.48</v>
           </cell>
           <cell r="C195">
-            <v>233.84592000000001</v>
+            <v>233.85</v>
           </cell>
           <cell r="D195">
             <v>683.8</v>
@@ -6981,10 +6981,10 @@
             <v>420.4</v>
           </cell>
           <cell r="F195">
-            <v>561.78499999999997</v>
+            <v>561.78</v>
           </cell>
           <cell r="G195">
-            <v>295.55033419286002</v>
+            <v>295.55</v>
           </cell>
         </row>
         <row r="196">
@@ -6995,7 +6995,7 @@
             <v>557.28</v>
           </cell>
           <cell r="C196">
-            <v>235.02696</v>
+            <v>235.03</v>
           </cell>
           <cell r="D196">
             <v>693.5</v>
@@ -7007,7 +7007,7 @@
             <v>607.5</v>
           </cell>
           <cell r="G196">
-            <v>329.34415053552999</v>
+            <v>329.34</v>
           </cell>
         </row>
         <row r="197">
@@ -7018,7 +7018,7 @@
             <v>637.25</v>
           </cell>
           <cell r="C197">
-            <v>265.34032000000002</v>
+            <v>265.33999999999997</v>
           </cell>
           <cell r="D197">
             <v>731.75</v>
@@ -7030,7 +7030,7 @@
             <v>698</v>
           </cell>
           <cell r="G197">
-            <v>328.18360435568002</v>
+            <v>328.18</v>
           </cell>
         </row>
         <row r="198">
@@ -7041,7 +7041,7 @@
             <v>634.85</v>
           </cell>
           <cell r="C198">
-            <v>287.11082399999998</v>
+            <v>287.11</v>
           </cell>
           <cell r="D198">
             <v>757</v>
@@ -7053,7 +7053,7 @@
             <v>780</v>
           </cell>
           <cell r="G198">
-            <v>348.55307816786001</v>
+            <v>348.55</v>
           </cell>
         </row>
         <row r="199">
@@ -7064,7 +7064,7 @@
             <v>566.12</v>
           </cell>
           <cell r="C199">
-            <v>243.45564880000001</v>
+            <v>243.46</v>
           </cell>
           <cell r="D199">
             <v>901.8</v>
@@ -7076,7 +7076,7 @@
             <v>0</v>
           </cell>
           <cell r="G199">
-            <v>328.76171271686002</v>
+            <v>328.76</v>
           </cell>
         </row>
         <row r="200">
@@ -7087,19 +7087,19 @@
             <v>549.11</v>
           </cell>
           <cell r="C200">
-            <v>246.44368</v>
+            <v>246.44</v>
           </cell>
           <cell r="D200">
             <v>907</v>
           </cell>
           <cell r="E200">
-            <v>762.66666666667004</v>
+            <v>762.67</v>
           </cell>
           <cell r="F200">
             <v>0</v>
           </cell>
           <cell r="G200">
-            <v>362.22924711170998</v>
+            <v>362.23</v>
           </cell>
         </row>
         <row r="201">
@@ -7110,7 +7110,7 @@
             <v>558.86</v>
           </cell>
           <cell r="C201">
-            <v>234.35770400000001</v>
+            <v>234.36</v>
           </cell>
           <cell r="D201">
             <v>594</v>
@@ -7122,7 +7122,7 @@
             <v>0</v>
           </cell>
           <cell r="G201">
-            <v>439.71609184875001</v>
+            <v>439.72</v>
           </cell>
         </row>
         <row r="202">
@@ -7133,7 +7133,7 @@
             <v>574.01</v>
           </cell>
           <cell r="C202">
-            <v>220.06711999999999</v>
+            <v>220.07</v>
           </cell>
           <cell r="D202">
             <v>464.75</v>
@@ -7145,7 +7145,7 @@
             <v>0</v>
           </cell>
           <cell r="G202">
-            <v>424.99565905499998</v>
+            <v>425</v>
           </cell>
         </row>
         <row r="203">
@@ -7156,7 +7156,7 @@
             <v>528.5</v>
           </cell>
           <cell r="C203">
-            <v>206.662316</v>
+            <v>206.66</v>
           </cell>
           <cell r="D203">
             <v>375.6</v>
@@ -7168,7 +7168,7 @@
             <v>0</v>
           </cell>
           <cell r="G203">
-            <v>370.6609570425</v>
+            <v>370.66</v>
           </cell>
         </row>
         <row r="204">
@@ -7179,19 +7179,19 @@
             <v>503.99</v>
           </cell>
           <cell r="C204">
-            <v>180.25426160000001</v>
+            <v>180.25</v>
           </cell>
           <cell r="D204">
-            <v>360.66666666666998</v>
+            <v>360.67</v>
           </cell>
           <cell r="E204">
-            <v>331.66666666666998</v>
+            <v>331.67</v>
           </cell>
           <cell r="F204">
             <v>0</v>
           </cell>
           <cell r="G204">
-            <v>368.62006231324</v>
+            <v>368.62</v>
           </cell>
         </row>
         <row r="205">
@@ -7202,7 +7202,7 @@
             <v>489</v>
           </cell>
           <cell r="C205">
-            <v>171.2508</v>
+            <v>171.25</v>
           </cell>
           <cell r="D205">
             <v>342</v>
@@ -7214,7 +7214,7 @@
             <v>320</v>
           </cell>
           <cell r="G205">
-            <v>321.81330974999997</v>
+            <v>321.81</v>
           </cell>
         </row>
         <row r="206">
@@ -7225,7 +7225,7 @@
             <v>450</v>
           </cell>
           <cell r="C206">
-            <v>164.16455999999999</v>
+            <v>164.16</v>
           </cell>
           <cell r="D206">
             <v>329.2</v>
@@ -7237,7 +7237,7 @@
             <v>323</v>
           </cell>
           <cell r="G206">
-            <v>335.14620304891002</v>
+            <v>335.15</v>
           </cell>
         </row>
         <row r="207">
@@ -7248,7 +7248,7 @@
             <v>426</v>
           </cell>
           <cell r="C207">
-            <v>159.44040000000001</v>
+            <v>159.44</v>
           </cell>
           <cell r="D207">
             <v>325</v>
@@ -7260,7 +7260,7 @@
             <v>315.25</v>
           </cell>
           <cell r="G207">
-            <v>326.54486304474</v>
+            <v>326.54000000000002</v>
           </cell>
         </row>
         <row r="208">
@@ -7271,7 +7271,7 @@
             <v>385</v>
           </cell>
           <cell r="C208">
-            <v>151.17312000000001</v>
+            <v>151.16999999999999</v>
           </cell>
           <cell r="D208">
             <v>327.5</v>
@@ -7283,7 +7283,7 @@
             <v>310</v>
           </cell>
           <cell r="G208">
-            <v>259.72730786209002</v>
+            <v>259.73</v>
           </cell>
         </row>
         <row r="209">
@@ -7294,7 +7294,7 @@
             <v>375.5</v>
           </cell>
           <cell r="C209">
-            <v>146.84263999999999</v>
+            <v>146.84</v>
           </cell>
           <cell r="D209">
             <v>328.8</v>
@@ -7303,10 +7303,10 @@
             <v>260.39999999999998</v>
           </cell>
           <cell r="F209">
-            <v>302.71249999999998</v>
+            <v>302.70999999999998</v>
           </cell>
           <cell r="G209">
-            <v>238.40670983625</v>
+            <v>238.41</v>
           </cell>
         </row>
         <row r="210">
@@ -7317,7 +7317,7 @@
             <v>361</v>
           </cell>
           <cell r="C210">
-            <v>165.24717999999999</v>
+            <v>165.25</v>
           </cell>
           <cell r="D210">
             <v>323.25</v>
@@ -7326,10 +7326,10 @@
             <v>257</v>
           </cell>
           <cell r="F210">
-            <v>302.48599999999999</v>
+            <v>302.49</v>
           </cell>
           <cell r="G210">
-            <v>223.03918018749999</v>
+            <v>223.04</v>
           </cell>
         </row>
         <row r="211">
@@ -7340,7 +7340,7 @@
             <v>334</v>
           </cell>
           <cell r="C211">
-            <v>160.22775999999999</v>
+            <v>160.22999999999999</v>
           </cell>
           <cell r="D211">
             <v>317.60000000000002</v>
@@ -7349,10 +7349,10 @@
             <v>255.4</v>
           </cell>
           <cell r="F211">
-            <v>300.35500000000002</v>
+            <v>300.36</v>
           </cell>
           <cell r="G211">
-            <v>195.72128219999999</v>
+            <v>195.72</v>
           </cell>
         </row>
         <row r="212">
@@ -7363,7 +7363,7 @@
             <v>319.75</v>
           </cell>
           <cell r="C212">
-            <v>152.74784</v>
+            <v>152.75</v>
           </cell>
           <cell r="D212">
             <v>316.5</v>
@@ -7375,7 +7375,7 @@
             <v>302.25</v>
           </cell>
           <cell r="G212">
-            <v>198.30779161020001</v>
+            <v>198.31</v>
           </cell>
         </row>
         <row r="213">
@@ -7386,19 +7386,19 @@
             <v>322</v>
           </cell>
           <cell r="C213">
-            <v>170.50674480000001</v>
+            <v>170.51</v>
           </cell>
           <cell r="D213">
-            <v>318.66666666666998</v>
+            <v>318.67</v>
           </cell>
           <cell r="E213">
-            <v>262.33333333333002</v>
+            <v>262.33</v>
           </cell>
           <cell r="F213">
             <v>304.93</v>
           </cell>
           <cell r="G213">
-            <v>199.09820044285999</v>
+            <v>199.1</v>
           </cell>
         </row>
         <row r="214">
@@ -7409,7 +7409,7 @@
             <v>325</v>
           </cell>
           <cell r="C214">
-            <v>177.3489032</v>
+            <v>177.35</v>
           </cell>
           <cell r="D214">
             <v>315</v>
@@ -7421,7 +7421,7 @@
             <v>303</v>
           </cell>
           <cell r="G214">
-            <v>199.98225866842</v>
+            <v>199.98</v>
           </cell>
         </row>
         <row r="215">
@@ -7432,7 +7432,7 @@
             <v>306</v>
           </cell>
           <cell r="C215">
-            <v>164.774764</v>
+            <v>164.77</v>
           </cell>
           <cell r="D215">
             <v>313</v>
@@ -7444,7 +7444,7 @@
             <v>0</v>
           </cell>
           <cell r="G215">
-            <v>196.06615699737</v>
+            <v>196.07</v>
           </cell>
         </row>
         <row r="216">
@@ -7455,7 +7455,7 @@
             <v>297</v>
           </cell>
           <cell r="C216">
-            <v>160.37539000000001</v>
+            <v>160.38</v>
           </cell>
           <cell r="D216">
             <v>305</v>
@@ -7467,7 +7467,7 @@
             <v>0</v>
           </cell>
           <cell r="G216">
-            <v>204.30628759688</v>
+            <v>204.31</v>
           </cell>
         </row>
         <row r="217">
@@ -7478,7 +7478,7 @@
             <v>300</v>
           </cell>
           <cell r="C217">
-            <v>164.538556</v>
+            <v>164.54</v>
           </cell>
           <cell r="D217">
             <v>296.25</v>
@@ -7490,7 +7490,7 @@
             <v>0</v>
           </cell>
           <cell r="G217">
-            <v>209.68065367105001</v>
+            <v>209.68</v>
           </cell>
         </row>
         <row r="218">
@@ -7501,7 +7501,7 @@
             <v>273</v>
           </cell>
           <cell r="C218">
-            <v>142.16768999999999</v>
+            <v>142.16999999999999</v>
           </cell>
           <cell r="D218">
             <v>301</v>
@@ -7510,10 +7510,10 @@
             <v>223.5</v>
           </cell>
           <cell r="F218">
-            <v>283.21249999999998</v>
+            <v>283.20999999999998</v>
           </cell>
           <cell r="G218">
-            <v>212.09408658213999</v>
+            <v>212.09</v>
           </cell>
         </row>
         <row r="219">
@@ -7524,7 +7524,7 @@
             <v>258</v>
           </cell>
           <cell r="C219">
-            <v>121.74554000000001</v>
+            <v>121.75</v>
           </cell>
           <cell r="D219">
             <v>309.2</v>
@@ -7536,7 +7536,7 @@
             <v>267.70999999999998</v>
           </cell>
           <cell r="G219">
-            <v>195.9815498625</v>
+            <v>195.98</v>
           </cell>
         </row>
         <row r="220">
@@ -7547,19 +7547,19 @@
             <v>262</v>
           </cell>
           <cell r="C220">
-            <v>116.58833199999999</v>
+            <v>116.59</v>
           </cell>
           <cell r="D220">
-            <v>312.66666666666998</v>
+            <v>312.67</v>
           </cell>
           <cell r="E220">
             <v>220</v>
           </cell>
           <cell r="F220">
-            <v>263.62799999999999</v>
+            <v>263.63</v>
           </cell>
           <cell r="G220">
-            <v>189.91466889546001</v>
+            <v>189.91</v>
           </cell>
         </row>
         <row r="221">
@@ -7570,7 +7570,7 @@
             <v>271.75</v>
           </cell>
           <cell r="C221">
-            <v>113.99108</v>
+            <v>113.99</v>
           </cell>
           <cell r="D221">
             <v>315.39999999999998</v>
@@ -7582,7 +7582,7 @@
             <v>257.43</v>
           </cell>
           <cell r="G221">
-            <v>202.42861353947001</v>
+            <v>202.43</v>
           </cell>
         </row>
         <row r="222">
@@ -7593,7 +7593,7 @@
             <v>267</v>
           </cell>
           <cell r="C222">
-            <v>109.403672</v>
+            <v>109.4</v>
           </cell>
           <cell r="D222">
             <v>312.5</v>
@@ -7602,10 +7602,10 @@
             <v>216.5</v>
           </cell>
           <cell r="F222">
-            <v>259.42750000000001</v>
+            <v>259.43</v>
           </cell>
           <cell r="G222">
-            <v>195.164003205</v>
+            <v>195.16</v>
           </cell>
         </row>
         <row r="223">
@@ -7616,7 +7616,7 @@
             <v>266</v>
           </cell>
           <cell r="C223">
-            <v>110.648685</v>
+            <v>110.65</v>
           </cell>
           <cell r="D223">
             <v>308</v>
@@ -7625,10 +7625,10 @@
             <v>219.4</v>
           </cell>
           <cell r="F223">
-            <v>256.22800000000001</v>
+            <v>256.23</v>
           </cell>
           <cell r="G223">
-            <v>193.16672228570999</v>
+            <v>193.17</v>
           </cell>
         </row>
         <row r="224">
@@ -7639,7 +7639,7 @@
             <v>258</v>
           </cell>
           <cell r="C224">
-            <v>107.72069</v>
+            <v>107.72</v>
           </cell>
           <cell r="D224">
             <v>302.25</v>
@@ -7651,7 +7651,7 @@
             <v>244.25</v>
           </cell>
           <cell r="G224">
-            <v>180.34605464494999</v>
+            <v>180.35</v>
           </cell>
         </row>
         <row r="225">
@@ -7662,7 +7662,7 @@
             <v>257</v>
           </cell>
           <cell r="C225">
-            <v>105.250348</v>
+            <v>105.25</v>
           </cell>
           <cell r="D225">
             <v>303.5</v>
@@ -7671,10 +7671,10 @@
             <v>216.5</v>
           </cell>
           <cell r="F225">
-            <v>244.85599999999999</v>
+            <v>244.86</v>
           </cell>
           <cell r="G225">
-            <v>174.43598036624999</v>
+            <v>174.44</v>
           </cell>
         </row>
         <row r="226">
@@ -7685,7 +7685,7 @@
             <v>257</v>
           </cell>
           <cell r="C226">
-            <v>107.13017000000001</v>
+            <v>107.13</v>
           </cell>
           <cell r="D226">
             <v>301.5</v>
@@ -7694,10 +7694,10 @@
             <v>216.75</v>
           </cell>
           <cell r="F226">
-            <v>264.28750000000002</v>
+            <v>264.29000000000002</v>
           </cell>
           <cell r="G226">
-            <v>179.84092587632</v>
+            <v>179.84</v>
           </cell>
         </row>
         <row r="227">
@@ -7708,7 +7708,7 @@
             <v>257</v>
           </cell>
           <cell r="C227">
-            <v>102.65206000000001</v>
+            <v>102.65</v>
           </cell>
           <cell r="D227">
             <v>291.25</v>
@@ -7717,10 +7717,10 @@
             <v>211</v>
           </cell>
           <cell r="F227">
-            <v>263.85666666666998</v>
+            <v>263.86</v>
           </cell>
           <cell r="G227">
-            <v>167.16073370625</v>
+            <v>167.16</v>
           </cell>
         </row>
         <row r="228">
@@ -7731,7 +7731,7 @@
             <v>264</v>
           </cell>
           <cell r="C228">
-            <v>102.140276</v>
+            <v>102.14</v>
           </cell>
           <cell r="D228">
             <v>280.5</v>
@@ -7743,7 +7743,7 @@
             <v>0</v>
           </cell>
           <cell r="G228">
-            <v>164.44104598928999</v>
+            <v>164.44</v>
           </cell>
         </row>
         <row r="229">
@@ -7754,7 +7754,7 @@
             <v>255.75</v>
           </cell>
           <cell r="C229">
-            <v>95.368979999999993</v>
+            <v>95.37</v>
           </cell>
           <cell r="D229">
             <v>277.75</v>
@@ -7766,7 +7766,7 @@
             <v>272</v>
           </cell>
           <cell r="G229">
-            <v>161.11635164431999</v>
+            <v>161.12</v>
           </cell>
         </row>
         <row r="230">
@@ -7777,7 +7777,7 @@
             <v>257</v>
           </cell>
           <cell r="C230">
-            <v>101.938515</v>
+            <v>101.94</v>
           </cell>
           <cell r="D230">
             <v>286.39999999999998</v>
@@ -7786,10 +7786,10 @@
             <v>217.4</v>
           </cell>
           <cell r="F230">
-            <v>269.35750000000002</v>
+            <v>269.36</v>
           </cell>
           <cell r="G230">
-            <v>167.82671272499999</v>
+            <v>167.83</v>
           </cell>
         </row>
         <row r="231">
@@ -7800,7 +7800,7 @@
             <v>263</v>
           </cell>
           <cell r="C231">
-            <v>96.353179999999995</v>
+            <v>96.35</v>
           </cell>
           <cell r="D231">
             <v>285.25</v>
@@ -7809,10 +7809,10 @@
             <v>215.5</v>
           </cell>
           <cell r="F231">
-            <v>256.9975</v>
+            <v>257</v>
           </cell>
           <cell r="G231">
-            <v>159.70865813437999</v>
+            <v>159.71</v>
           </cell>
         </row>
         <row r="232">
@@ -7823,7 +7823,7 @@
             <v>274</v>
           </cell>
           <cell r="C232">
-            <v>101.66786</v>
+            <v>101.67</v>
           </cell>
           <cell r="D232">
             <v>282.8</v>
@@ -7832,10 +7832,10 @@
             <v>212.8</v>
           </cell>
           <cell r="F232">
-            <v>255.654</v>
+            <v>255.65</v>
           </cell>
           <cell r="G232">
-            <v>149.35902467283</v>
+            <v>149.36000000000001</v>
           </cell>
         </row>
         <row r="233">
@@ -7846,7 +7846,7 @@
             <v>298</v>
           </cell>
           <cell r="C233">
-            <v>107.52385</v>
+            <v>107.52</v>
           </cell>
           <cell r="D233">
             <v>276.75</v>
@@ -7855,10 +7855,10 @@
             <v>207.25</v>
           </cell>
           <cell r="F233">
-            <v>237.285</v>
+            <v>237.28</v>
           </cell>
           <cell r="G233">
-            <v>143.869839885</v>
+            <v>143.87</v>
           </cell>
         </row>
         <row r="234">
@@ -7869,7 +7869,7 @@
             <v>306</v>
           </cell>
           <cell r="C234">
-            <v>97.101172000000005</v>
+            <v>97.1</v>
           </cell>
           <cell r="D234">
             <v>285</v>
@@ -7878,10 +7878,10 @@
             <v>210.75</v>
           </cell>
           <cell r="F234">
-            <v>241.488</v>
+            <v>241.49</v>
           </cell>
           <cell r="G234">
-            <v>141.93077620909</v>
+            <v>141.93</v>
           </cell>
         </row>
         <row r="235">
@@ -7892,7 +7892,7 @@
             <v>283</v>
           </cell>
           <cell r="C235">
-            <v>95.418189999999996</v>
+            <v>95.42</v>
           </cell>
           <cell r="D235">
             <v>293.8</v>
@@ -7901,10 +7901,10 @@
             <v>220.4</v>
           </cell>
           <cell r="F235">
-            <v>256.14499999999998</v>
+            <v>256.14</v>
           </cell>
           <cell r="G235">
-            <v>143.33005787571</v>
+            <v>143.33000000000001</v>
           </cell>
         </row>
         <row r="236">
@@ -7915,7 +7915,7 @@
             <v>283</v>
           </cell>
           <cell r="C236">
-            <v>96.279364999999999</v>
+            <v>96.28</v>
           </cell>
           <cell r="D236">
             <v>297.25</v>
@@ -7924,10 +7924,10 @@
             <v>225.5</v>
           </cell>
           <cell r="F236">
-            <v>259.92500000000001</v>
+            <v>259.92</v>
           </cell>
           <cell r="G236">
-            <v>140.87698047857</v>
+            <v>140.88</v>
           </cell>
         </row>
         <row r="237">
@@ -7938,7 +7938,7 @@
             <v>290</v>
           </cell>
           <cell r="C237">
-            <v>99.876615999999999</v>
+            <v>99.88</v>
           </cell>
           <cell r="D237">
             <v>292.75</v>
@@ -7947,10 +7947,10 @@
             <v>230</v>
           </cell>
           <cell r="F237">
-            <v>262.916</v>
+            <v>262.92</v>
           </cell>
           <cell r="G237">
-            <v>150.985863975</v>
+            <v>150.99</v>
           </cell>
         </row>
         <row r="238">
@@ -7961,7 +7961,7 @@
             <v>261</v>
           </cell>
           <cell r="C238">
-            <v>94.138729999999995</v>
+            <v>94.14</v>
           </cell>
           <cell r="D238">
             <v>290</v>
@@ -7970,10 +7970,10 @@
             <v>231.75</v>
           </cell>
           <cell r="F238">
-            <v>265.64249999999998</v>
+            <v>265.64</v>
           </cell>
           <cell r="G238">
-            <v>151.16867984890001</v>
+            <v>151.16999999999999</v>
           </cell>
         </row>
         <row r="239">
@@ -7984,7 +7984,7 @@
             <v>261.5</v>
           </cell>
           <cell r="C239">
-            <v>96.254760000000005</v>
+            <v>96.25</v>
           </cell>
           <cell r="D239">
             <v>287</v>
@@ -7993,10 +7993,10 @@
             <v>226.2</v>
           </cell>
           <cell r="F239">
-            <v>255.32249999999999</v>
+            <v>255.32</v>
           </cell>
           <cell r="G239">
-            <v>153.59313355875</v>
+            <v>153.59</v>
           </cell>
         </row>
         <row r="240">
@@ -8007,7 +8007,7 @@
             <v>265</v>
           </cell>
           <cell r="C240">
-            <v>95.388664000000006</v>
+            <v>95.39</v>
           </cell>
           <cell r="D240">
             <v>278.25</v>
@@ -8016,10 +8016,10 @@
             <v>219.75</v>
           </cell>
           <cell r="F240">
-            <v>238.512</v>
+            <v>238.51</v>
           </cell>
           <cell r="G240">
-            <v>153.87432469999999</v>
+            <v>153.87</v>
           </cell>
         </row>
         <row r="241">
@@ -8030,7 +8030,7 @@
             <v>260</v>
           </cell>
           <cell r="C241">
-            <v>93.745050000000006</v>
+            <v>93.75</v>
           </cell>
           <cell r="D241">
             <v>259.2</v>
@@ -8042,7 +8042,7 @@
             <v>233.07</v>
           </cell>
           <cell r="G241">
-            <v>156.56866837624</v>
+            <v>156.57</v>
           </cell>
         </row>
         <row r="242">
@@ -8053,7 +8053,7 @@
             <v>249</v>
           </cell>
           <cell r="C242">
-            <v>93.794259999999994</v>
+            <v>93.79</v>
           </cell>
           <cell r="D242">
             <v>244</v>
@@ -8062,10 +8062,10 @@
             <v>201.25</v>
           </cell>
           <cell r="F242">
-            <v>222.14500000000001</v>
+            <v>222.14</v>
           </cell>
           <cell r="G242">
-            <v>150.14600866071001</v>
+            <v>150.15</v>
           </cell>
         </row>
         <row r="243">
@@ -8076,7 +8076,7 @@
             <v>260</v>
           </cell>
           <cell r="C243">
-            <v>97.868848</v>
+            <v>97.87</v>
           </cell>
           <cell r="D243">
             <v>235.25</v>
@@ -8085,10 +8085,10 @@
             <v>206.25</v>
           </cell>
           <cell r="F243">
-            <v>224.172</v>
+            <v>224.17</v>
           </cell>
           <cell r="G243">
-            <v>151.03485553499999</v>
+            <v>151.03</v>
           </cell>
         </row>
         <row r="244">
@@ -8099,7 +8099,7 @@
             <v>265</v>
           </cell>
           <cell r="C244">
-            <v>104.054545</v>
+            <v>104.05</v>
           </cell>
           <cell r="D244">
             <v>239</v>
@@ -8108,10 +8108,10 @@
             <v>212.4</v>
           </cell>
           <cell r="F244">
-            <v>232.715</v>
+            <v>232.72</v>
           </cell>
           <cell r="G244">
-            <v>141.29480849743001</v>
+            <v>141.29</v>
           </cell>
         </row>
         <row r="245">
@@ -8122,7 +8122,7 @@
             <v>279</v>
           </cell>
           <cell r="C245">
-            <v>104.84682599999999</v>
+            <v>104.85</v>
           </cell>
           <cell r="D245">
             <v>230.75</v>
@@ -8131,10 +8131,10 @@
             <v>210</v>
           </cell>
           <cell r="F245">
-            <v>228.96250000000001</v>
+            <v>228.96</v>
           </cell>
           <cell r="G245">
-            <v>150.60093028929001</v>
+            <v>150.6</v>
           </cell>
         </row>
         <row r="246">
@@ -8145,7 +8145,7 @@
             <v>295</v>
           </cell>
           <cell r="C246">
-            <v>123.32026</v>
+            <v>123.32</v>
           </cell>
           <cell r="D246">
             <v>229</v>
@@ -8154,10 +8154,10 @@
             <v>212.5</v>
           </cell>
           <cell r="F246">
-            <v>230.74199999999999</v>
+            <v>230.74</v>
           </cell>
           <cell r="G246">
-            <v>154.74334165714001</v>
+            <v>154.74</v>
           </cell>
         </row>
         <row r="247">
@@ -8168,7 +8168,7 @@
             <v>316</v>
           </cell>
           <cell r="C247">
-            <v>128.216655</v>
+            <v>128.22</v>
           </cell>
           <cell r="D247">
             <v>232</v>
@@ -8177,10 +8177,10 @@
             <v>212.8</v>
           </cell>
           <cell r="F247">
-            <v>236.14250000000001</v>
+            <v>236.14</v>
           </cell>
           <cell r="G247">
-            <v>163.73438647875</v>
+            <v>163.72999999999999</v>
           </cell>
         </row>
         <row r="248">
@@ -8191,7 +8191,7 @@
             <v>358</v>
           </cell>
           <cell r="C248">
-            <v>133.49688800000001</v>
+            <v>133.5</v>
           </cell>
           <cell r="D248">
             <v>240.75</v>
@@ -8203,7 +8203,7 @@
             <v>240.71</v>
           </cell>
           <cell r="G248">
-            <v>166.58442673929</v>
+            <v>166.58</v>
           </cell>
         </row>
         <row r="249">
@@ -8214,7 +8214,7 @@
             <v>413</v>
           </cell>
           <cell r="C249">
-            <v>127.84757999999999</v>
+            <v>127.85</v>
           </cell>
           <cell r="D249">
             <v>237.8</v>
@@ -8223,10 +8223,10 @@
             <v>207.4</v>
           </cell>
           <cell r="F249">
-            <v>225.80199999999999</v>
+            <v>225.8</v>
           </cell>
           <cell r="G249">
-            <v>166.27980421800001</v>
+            <v>166.28</v>
           </cell>
         </row>
         <row r="250">
@@ -8237,7 +8237,7 @@
             <v>368</v>
           </cell>
           <cell r="C250">
-            <v>123.54170499999999</v>
+            <v>123.54</v>
           </cell>
           <cell r="D250">
             <v>213.25</v>
@@ -8249,7 +8249,7 @@
             <v>204.07</v>
           </cell>
           <cell r="G250">
-            <v>161.39146718750001</v>
+            <v>161.38999999999999</v>
           </cell>
         </row>
         <row r="251">
@@ -8260,7 +8260,7 @@
             <v>350</v>
           </cell>
           <cell r="C251">
-            <v>115.520475</v>
+            <v>115.52</v>
           </cell>
           <cell r="D251">
             <v>212.75</v>
@@ -8269,10 +8269,10 @@
             <v>171</v>
           </cell>
           <cell r="F251">
-            <v>198.8175</v>
+            <v>198.82</v>
           </cell>
           <cell r="G251">
-            <v>166.32713871052999</v>
+            <v>166.33</v>
           </cell>
         </row>
         <row r="252">
@@ -8283,7 +8283,7 @@
             <v>332</v>
           </cell>
           <cell r="C252">
-            <v>111.1555</v>
+            <v>111.16</v>
           </cell>
           <cell r="D252">
             <v>198.25</v>
@@ -8295,7 +8295,7 @@
             <v>197</v>
           </cell>
           <cell r="G252">
-            <v>165.5735</v>
+            <v>165.57</v>
           </cell>
         </row>
         <row r="253">
@@ -8306,7 +8306,7 @@
             <v>327</v>
           </cell>
           <cell r="C253">
-            <v>108.4834</v>
+            <v>108.48</v>
           </cell>
           <cell r="D253">
             <v>193.4</v>
@@ -8318,7 +8318,7 @@
             <v>0</v>
           </cell>
           <cell r="G253">
-            <v>160.5453</v>
+            <v>160.55000000000001</v>
           </cell>
         </row>
         <row r="254">
@@ -8329,7 +8329,7 @@
             <v>310</v>
           </cell>
           <cell r="C254">
-            <v>105.38809999999999</v>
+            <v>105.39</v>
           </cell>
           <cell r="D254">
             <v>195.75</v>
@@ -8341,7 +8341,7 @@
             <v>0</v>
           </cell>
           <cell r="G254">
-            <v>147.45580000000001</v>
+            <v>147.46</v>
           </cell>
         </row>
         <row r="255">
@@ -8352,7 +8352,7 @@
             <v>264</v>
           </cell>
           <cell r="C255">
-            <v>104.0791</v>
+            <v>104.08</v>
           </cell>
           <cell r="D255">
             <v>197.6</v>
@@ -8364,7 +8364,7 @@
             <v>0</v>
           </cell>
           <cell r="G255">
-            <v>145.62299999999999</v>
+            <v>145.62</v>
           </cell>
         </row>
         <row r="256">
@@ -8375,7 +8375,7 @@
             <v>237</v>
           </cell>
           <cell r="C256">
-            <v>100.6591</v>
+            <v>100.66</v>
           </cell>
           <cell r="D256">
             <v>195</v>
@@ -8387,7 +8387,7 @@
             <v>0</v>
           </cell>
           <cell r="G256">
-            <v>148.71719999999999</v>
+            <v>148.72</v>
           </cell>
         </row>
         <row r="257">
@@ -8398,7 +8398,7 @@
             <v>230</v>
           </cell>
           <cell r="C257">
-            <v>96.805909999999997</v>
+            <v>96.81</v>
           </cell>
           <cell r="D257">
             <v>198.5</v>
@@ -8410,7 +8410,7 @@
             <v>0</v>
           </cell>
           <cell r="G257">
-            <v>131.6174</v>
+            <v>131.62</v>
           </cell>
         </row>
         <row r="258">
@@ -8421,7 +8421,7 @@
             <v>239</v>
           </cell>
           <cell r="C258">
-            <v>107.327</v>
+            <v>107.33</v>
           </cell>
           <cell r="D258">
             <v>203.4</v>
@@ -8433,7 +8433,7 @@
             <v>0</v>
           </cell>
           <cell r="G258">
-            <v>131.3528</v>
+            <v>131.35</v>
           </cell>
         </row>
         <row r="259">
@@ -8444,7 +8444,7 @@
             <v>250</v>
           </cell>
           <cell r="C259">
-            <v>107.4943</v>
+            <v>107.49</v>
           </cell>
           <cell r="D259">
             <v>198</v>
@@ -8456,7 +8456,7 @@
             <v>0</v>
           </cell>
           <cell r="G259">
-            <v>141.96180000000001</v>
+            <v>141.96</v>
           </cell>
         </row>
         <row r="260">
@@ -8467,7 +8467,7 @@
             <v>251</v>
           </cell>
           <cell r="C260">
-            <v>105.45699999999999</v>
+            <v>105.46</v>
           </cell>
           <cell r="D260">
             <v>195</v>
@@ -8479,7 +8479,7 @@
             <v>0</v>
           </cell>
           <cell r="G260">
-            <v>138.6155</v>
+            <v>138.62</v>
           </cell>
         </row>
         <row r="261">
@@ -8490,7 +8490,7 @@
             <v>241</v>
           </cell>
           <cell r="C261">
-            <v>105.60469999999999</v>
+            <v>105.6</v>
           </cell>
           <cell r="D261">
             <v>197</v>
@@ -8502,7 +8502,7 @@
             <v>0</v>
           </cell>
           <cell r="G261">
-            <v>141.80869999999999</v>
+            <v>141.81</v>
           </cell>
         </row>
         <row r="262">
@@ -8513,7 +8513,7 @@
             <v>243</v>
           </cell>
           <cell r="C262">
-            <v>105.8507</v>
+            <v>105.85</v>
           </cell>
           <cell r="D262">
             <v>198.75</v>
@@ -8525,7 +8525,7 @@
             <v>0</v>
           </cell>
           <cell r="G262">
-            <v>150.8382</v>
+            <v>150.84</v>
           </cell>
         </row>
         <row r="263">
@@ -8536,7 +8536,7 @@
             <v>244</v>
           </cell>
           <cell r="C263">
-            <v>106.1361</v>
+            <v>106.14</v>
           </cell>
           <cell r="D263">
             <v>200.75</v>
@@ -8548,7 +8548,7 @@
             <v>0</v>
           </cell>
           <cell r="G263">
-            <v>149.608</v>
+            <v>149.61000000000001</v>
           </cell>
         </row>
         <row r="264">
@@ -8657,7 +8657,7 @@
             <v>190.33</v>
           </cell>
           <cell r="E268">
-            <v>148.33333333332999</v>
+            <v>148.33000000000001</v>
           </cell>
           <cell r="F268">
             <v>0</v>
@@ -8841,7 +8841,7 @@
             <v>179.33</v>
           </cell>
           <cell r="E276">
-            <v>134.33333333332999</v>
+            <v>134.33000000000001</v>
           </cell>
           <cell r="F276">
             <v>0</v>
@@ -8910,7 +8910,7 @@
             <v>173</v>
           </cell>
           <cell r="E279">
-            <v>148.33333333332999</v>
+            <v>148.33000000000001</v>
           </cell>
           <cell r="F279">
             <v>0</v>
@@ -9186,7 +9186,7 @@
             <v>179</v>
           </cell>
           <cell r="E291">
-            <v>143.66666666667001</v>
+            <v>143.66999999999999</v>
           </cell>
           <cell r="F291">
             <v>0</v>
@@ -9347,7 +9347,7 @@
             <v>241</v>
           </cell>
           <cell r="E298">
-            <v>156.66666666667001</v>
+            <v>156.66999999999999</v>
           </cell>
           <cell r="F298">
             <v>0</v>
@@ -9945,7 +9945,7 @@
             <v>269.67</v>
           </cell>
           <cell r="E324">
-            <v>195.66666666667001</v>
+            <v>195.67</v>
           </cell>
           <cell r="F324">
             <v>0</v>
@@ -9968,7 +9968,7 @@
             <v>252.5</v>
           </cell>
           <cell r="E325">
-            <v>180.66666666667001</v>
+            <v>180.67</v>
           </cell>
           <cell r="F325">
             <v>0</v>
@@ -20755,7 +20755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05D54DB-0505-44DD-8584-891E38E37C20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85E51FAA-41B3-4B24-B6F6-B2D8999119BD}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G2000"/>
   <sheetViews>
@@ -20796,7 +20796,7 @@
         <v>442.1</v>
       </c>
       <c r="C2" s="2">
-        <v>190.33572173913001</v>
+        <v>190.34</v>
       </c>
       <c r="D2" s="2">
         <v>515</v>
@@ -20819,7 +20819,7 @@
         <v>391.31</v>
       </c>
       <c r="C3" s="2">
-        <v>184.96715420690001</v>
+        <v>184.97</v>
       </c>
       <c r="D3" s="2">
         <v>580</v>
@@ -20842,7 +20842,7 @@
         <v>400.13</v>
       </c>
       <c r="C4" s="2">
-        <v>170.32475727273001</v>
+        <v>170.32</v>
       </c>
       <c r="D4" s="2">
         <v>589</v>
@@ -20865,7 +20865,7 @@
         <v>469.63</v>
       </c>
       <c r="C5" s="2">
-        <v>177.42921392</v>
+        <v>177.43</v>
       </c>
       <c r="D5" s="2">
         <v>590</v>
@@ -20888,7 +20888,7 @@
         <v>479.72</v>
       </c>
       <c r="C6" s="2">
-        <v>192.506708</v>
+        <v>192.51</v>
       </c>
       <c r="D6" s="2">
         <v>632</v>
@@ -20911,7 +20911,7 @@
         <v>490.22</v>
       </c>
       <c r="C7" s="2">
-        <v>197.79344374999999</v>
+        <v>197.79</v>
       </c>
       <c r="D7" s="2">
         <v>628</v>
@@ -20934,7 +20934,7 @@
         <v>477.3</v>
       </c>
       <c r="C8" s="2">
-        <v>191.65107888889</v>
+        <v>191.65</v>
       </c>
       <c r="D8" s="2">
         <v>592</v>
@@ -20957,7 +20957,7 @@
         <v>487.49</v>
       </c>
       <c r="C9" s="2">
-        <v>190.56700445999999</v>
+        <v>190.57</v>
       </c>
       <c r="D9" s="2">
         <v>613</v>
@@ -20980,7 +20980,7 @@
         <v>519.75</v>
       </c>
       <c r="C10" s="2">
-        <v>189.128793</v>
+        <v>189.13</v>
       </c>
       <c r="D10" s="2">
         <v>624</v>
@@ -21003,7 +21003,7 @@
         <v>547.38</v>
       </c>
       <c r="C11" s="2">
-        <v>198.62480884614999</v>
+        <v>198.62</v>
       </c>
       <c r="D11" s="2">
         <v>660</v>
@@ -21026,7 +21026,7 @@
         <v>547.42999999999995</v>
       </c>
       <c r="C12" s="2">
-        <v>206.54803944445001</v>
+        <v>206.55</v>
       </c>
       <c r="D12" s="2">
         <v>644</v>
@@ -21049,7 +21049,7 @@
         <v>553.04999999999995</v>
       </c>
       <c r="C13" s="2">
-        <v>211.26049839999999</v>
+        <v>211.26</v>
       </c>
       <c r="D13" s="2">
         <v>598</v>
@@ -21072,7 +21072,7 @@
         <v>529.57000000000005</v>
       </c>
       <c r="C14" s="2">
-        <v>230.69648000000001</v>
+        <v>230.7</v>
       </c>
       <c r="D14" s="2">
         <v>590</v>
@@ -21095,7 +21095,7 @@
         <v>619.04</v>
       </c>
       <c r="C15" s="2">
-        <v>223.80708000000001</v>
+        <v>223.81</v>
       </c>
       <c r="D15" s="2">
         <v>620</v>
@@ -21118,7 +21118,7 @@
         <v>583.92999999999995</v>
       </c>
       <c r="C16" s="2">
-        <v>207.607148</v>
+        <v>207.61</v>
       </c>
       <c r="D16" s="2">
         <v>635</v>
@@ -21141,7 +21141,7 @@
         <v>633.85</v>
       </c>
       <c r="C17" s="2">
-        <v>242.38483919999999</v>
+        <v>242.38</v>
       </c>
       <c r="D17" s="2">
         <v>547</v>
@@ -21164,7 +21164,7 @@
         <v>591.89</v>
       </c>
       <c r="C18" s="2">
-        <v>266.86779840000003</v>
+        <v>266.87</v>
       </c>
       <c r="D18" s="2">
         <v>514</v>
@@ -21187,7 +21187,7 @@
         <v>595</v>
       </c>
       <c r="C19" s="2">
-        <v>268.135448</v>
+        <v>268.14</v>
       </c>
       <c r="D19" s="2">
         <v>510</v>
@@ -21210,7 +21210,7 @@
         <v>614.92999999999995</v>
       </c>
       <c r="C20" s="2">
-        <v>291.11454959999998</v>
+        <v>291.11</v>
       </c>
       <c r="D20" s="2">
         <v>501</v>
@@ -21233,7 +21233,7 @@
         <v>628.38</v>
       </c>
       <c r="C21" s="2">
-        <v>282.48902079999999</v>
+        <v>282.49</v>
       </c>
       <c r="D21" s="2">
         <v>476</v>
@@ -21256,7 +21256,7 @@
         <v>651.12</v>
       </c>
       <c r="C22" s="2">
-        <v>298.1771688</v>
+        <v>298.18</v>
       </c>
       <c r="D22" s="2">
         <v>492</v>
@@ -21279,7 +21279,7 @@
         <v>626.59</v>
       </c>
       <c r="C23" s="2">
-        <v>302.77535119999999</v>
+        <v>302.77999999999997</v>
       </c>
       <c r="D23" s="2">
         <v>517</v>
@@ -21302,7 +21302,7 @@
         <v>645.66999999999996</v>
       </c>
       <c r="C24" s="2">
-        <v>302.24781999999999</v>
+        <v>302.25</v>
       </c>
       <c r="D24" s="2">
         <v>467</v>
@@ -21325,7 +21325,7 @@
         <v>648.91999999999996</v>
       </c>
       <c r="C25" s="2">
-        <v>320.92006240000001</v>
+        <v>320.92</v>
       </c>
       <c r="D25" s="2">
         <v>440</v>
@@ -21348,7 +21348,7 @@
         <v>626</v>
       </c>
       <c r="C26" s="2">
-        <v>343.55666239999999</v>
+        <v>343.56</v>
       </c>
       <c r="D26" s="2">
         <v>431</v>
@@ -21371,7 +21371,7 @@
         <v>664.45</v>
       </c>
       <c r="C27" s="2">
-        <v>312.6567192</v>
+        <v>312.66000000000003</v>
       </c>
       <c r="D27" s="2">
         <v>439</v>
@@ -21394,7 +21394,7 @@
         <v>671.11</v>
       </c>
       <c r="C28" s="2">
-        <v>289.8350896</v>
+        <v>289.83999999999997</v>
       </c>
       <c r="D28" s="2">
         <v>431</v>
@@ -21417,7 +21417,7 @@
         <v>678.2</v>
       </c>
       <c r="C29" s="2">
-        <v>322.96719839999997</v>
+        <v>322.97000000000003</v>
       </c>
       <c r="D29" s="2">
         <v>418</v>
@@ -21440,7 +21440,7 @@
         <v>737.06</v>
       </c>
       <c r="C30" s="2">
-        <v>335.71455680000003</v>
+        <v>335.71</v>
       </c>
       <c r="D30" s="2">
         <v>444</v>
@@ -21463,7 +21463,7 @@
         <v>724.09</v>
       </c>
       <c r="C31" s="2">
-        <v>344.84005919999998</v>
+        <v>344.84</v>
       </c>
       <c r="D31" s="2">
         <v>464</v>
@@ -21486,7 +21486,7 @@
         <v>720.79</v>
       </c>
       <c r="C32" s="2">
-        <v>348.16665519999998</v>
+        <v>348.17</v>
       </c>
       <c r="D32" s="2">
         <v>431</v>
@@ -21509,7 +21509,7 @@
         <v>720.6</v>
       </c>
       <c r="C33" s="2">
-        <v>335.52952720000002</v>
+        <v>335.53</v>
       </c>
       <c r="D33" s="2">
         <v>422</v>
@@ -21532,7 +21532,7 @@
         <v>661.63</v>
       </c>
       <c r="C34" s="2">
-        <v>292.622344</v>
+        <v>292.62</v>
       </c>
       <c r="D34" s="2">
         <v>427</v>
@@ -21555,7 +21555,7 @@
         <v>606.22</v>
       </c>
       <c r="C35" s="2">
-        <v>276.62318879999998</v>
+        <v>276.62</v>
       </c>
       <c r="D35" s="2">
         <v>427</v>
@@ -21578,7 +21578,7 @@
         <v>554.14</v>
       </c>
       <c r="C36" s="2">
-        <v>264.53721280000002</v>
+        <v>264.54000000000002</v>
       </c>
       <c r="D36" s="2">
         <v>400</v>
@@ -21601,7 +21601,7 @@
         <v>551.04</v>
       </c>
       <c r="C37" s="2">
-        <v>248.71915039999999</v>
+        <v>248.72</v>
       </c>
       <c r="D37" s="2">
         <v>400</v>
@@ -21624,7 +21624,7 @@
         <v>551.95000000000005</v>
       </c>
       <c r="C38" s="2">
-        <v>239.64876319999999</v>
+        <v>239.65</v>
       </c>
       <c r="D38" s="2">
         <v>401</v>
@@ -21647,7 +21647,7 @@
         <v>557.54999999999995</v>
       </c>
       <c r="C39" s="2">
-        <v>235.61748</v>
+        <v>235.62</v>
       </c>
       <c r="D39" s="2">
         <v>400</v>
@@ -21670,7 +21670,7 @@
         <v>585.79999999999995</v>
       </c>
       <c r="C40" s="2">
-        <v>256.61243439999998</v>
+        <v>256.61</v>
       </c>
       <c r="D40" s="2">
         <v>403</v>
@@ -21693,7 +21693,7 @@
         <v>600.44000000000005</v>
       </c>
       <c r="C41" s="2">
-        <v>278.43411680000003</v>
+        <v>278.43</v>
       </c>
       <c r="D41" s="2">
         <v>414</v>
@@ -21716,7 +21716,7 @@
         <v>614.67999999999995</v>
       </c>
       <c r="C42" s="2">
-        <v>292.55935520000003</v>
+        <v>292.56</v>
       </c>
       <c r="D42" s="2">
         <v>466</v>
@@ -21739,7 +21739,7 @@
         <v>646.79999999999995</v>
       </c>
       <c r="C43" s="2">
-        <v>305.31065039999999</v>
+        <v>305.31</v>
       </c>
       <c r="D43" s="2">
         <v>493</v>
@@ -21762,7 +21762,7 @@
         <v>597.13</v>
       </c>
       <c r="C44" s="2">
-        <v>268.23386799999997</v>
+        <v>268.23</v>
       </c>
       <c r="D44" s="2">
         <v>495</v>
@@ -21785,7 +21785,7 @@
         <v>585.71</v>
       </c>
       <c r="C45" s="2">
-        <v>245.17209360000001</v>
+        <v>245.17</v>
       </c>
       <c r="D45" s="2">
         <v>525</v>
@@ -21808,7 +21808,7 @@
         <v>578.26</v>
       </c>
       <c r="C46" s="2">
-        <v>245.23508240000001</v>
+        <v>245.24</v>
       </c>
       <c r="D46" s="2">
         <v>557</v>
@@ -21831,7 +21831,7 @@
         <v>576.37</v>
       </c>
       <c r="C47" s="2">
-        <v>234.46795014720001</v>
+        <v>234.47</v>
       </c>
       <c r="D47" s="2">
         <v>545</v>
@@ -21851,10 +21851,10 @@
         <v>53</v>
       </c>
       <c r="B48" s="2">
-        <v>510.93573705179</v>
+        <v>510.94</v>
       </c>
       <c r="C48" s="2">
-        <v>198.76903200000001</v>
+        <v>198.77</v>
       </c>
       <c r="D48" s="2">
         <v>520</v>
@@ -21877,7 +21877,7 @@
         <v>499.98</v>
       </c>
       <c r="C49" s="2">
-        <v>190.37577440000001</v>
+        <v>190.38</v>
       </c>
       <c r="D49" s="2">
         <v>489</v>
@@ -21900,7 +21900,7 @@
         <v>454.25</v>
       </c>
       <c r="C50" s="2">
-        <v>186.74604479999999</v>
+        <v>186.75</v>
       </c>
       <c r="D50" s="2">
         <v>471</v>
@@ -21923,7 +21923,7 @@
         <v>423.41</v>
       </c>
       <c r="C51" s="2">
-        <v>166.0817816</v>
+        <v>166.08</v>
       </c>
       <c r="D51" s="2">
         <v>507</v>
@@ -21943,10 +21943,10 @@
         <v>57</v>
       </c>
       <c r="B52" s="2">
-        <v>384.55236292427998</v>
+        <v>384.55</v>
       </c>
       <c r="C52" s="2">
-        <v>149.34250800000001</v>
+        <v>149.34</v>
       </c>
       <c r="D52" s="2">
         <v>505</v>
@@ -21969,7 +21969,7 @@
         <v>381.07</v>
       </c>
       <c r="C53" s="2">
-        <v>152.55493680000001</v>
+        <v>152.55000000000001</v>
       </c>
       <c r="D53" s="2">
         <v>480</v>
@@ -21992,7 +21992,7 @@
         <v>369.58</v>
       </c>
       <c r="C54" s="2">
-        <v>147.98824880000001</v>
+        <v>147.99</v>
       </c>
       <c r="D54" s="2">
         <v>520</v>
@@ -22004,7 +22004,7 @@
         <v>449.46</v>
       </c>
       <c r="G54" s="2">
-        <v>198.415818</v>
+        <v>198.42</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -22015,7 +22015,7 @@
         <v>359.17</v>
       </c>
       <c r="C55" s="2">
-        <v>143.90578719999999</v>
+        <v>143.91</v>
       </c>
       <c r="D55" s="2">
         <v>510</v>
@@ -22027,7 +22027,7 @@
         <v>438.42</v>
       </c>
       <c r="G55" s="2">
-        <v>205.76455200000001</v>
+        <v>205.76</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -22038,7 +22038,7 @@
         <v>361.26</v>
       </c>
       <c r="C56" s="2">
-        <v>146.90956560000001</v>
+        <v>146.91</v>
       </c>
       <c r="D56" s="2">
         <v>564</v>
@@ -22050,7 +22050,7 @@
         <v>407.14</v>
       </c>
       <c r="G56" s="2">
-        <v>218.9922732</v>
+        <v>218.99</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -22061,7 +22061,7 @@
         <v>372.61</v>
       </c>
       <c r="C57" s="2">
-        <v>162.4205576</v>
+        <v>162.41999999999999</v>
       </c>
       <c r="D57" s="2">
         <v>494</v>
@@ -22073,7 +22073,7 @@
         <v>372.58</v>
       </c>
       <c r="G57" s="2">
-        <v>209.07148230000001</v>
+        <v>209.07</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -22084,7 +22084,7 @@
         <v>375.63</v>
       </c>
       <c r="C58" s="2">
-        <v>168.71156400000001</v>
+        <v>168.71</v>
       </c>
       <c r="D58" s="2">
         <v>450</v>
@@ -22096,7 +22096,7 @@
         <v>357.42</v>
       </c>
       <c r="G58" s="2">
-        <v>215.31790620000001</v>
+        <v>215.32</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -22107,7 +22107,7 @@
         <v>387.23</v>
       </c>
       <c r="C59" s="2">
-        <v>171.78620480000001</v>
+        <v>171.79</v>
       </c>
       <c r="D59" s="2">
         <v>451</v>
@@ -22119,7 +22119,7 @@
         <v>348.68</v>
       </c>
       <c r="G59" s="2">
-        <v>224.5038237</v>
+        <v>224.5</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -22130,7 +22130,7 @@
         <v>383.2</v>
       </c>
       <c r="C60" s="2">
-        <v>166.95575120000001</v>
+        <v>166.96</v>
       </c>
       <c r="D60" s="2">
         <v>432</v>
@@ -22142,7 +22142,7 @@
         <v>337.43</v>
       </c>
       <c r="G60" s="2">
-        <v>210.90866579999999</v>
+        <v>210.91</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -22153,7 +22153,7 @@
         <v>375.51</v>
       </c>
       <c r="C61" s="2">
-        <v>166.3337368</v>
+        <v>166.33</v>
       </c>
       <c r="D61" s="2">
         <v>421</v>
@@ -22165,7 +22165,7 @@
         <v>328.24</v>
       </c>
       <c r="G61" s="2">
-        <v>203.1924951</v>
+        <v>203.19</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -22176,7 +22176,7 @@
         <v>381.65</v>
       </c>
       <c r="C62" s="2">
-        <v>167.1486544</v>
+        <v>167.15</v>
       </c>
       <c r="D62" s="2">
         <v>424</v>
@@ -22188,7 +22188,7 @@
         <v>325.79000000000002</v>
       </c>
       <c r="G62" s="2">
-        <v>199.51812810000001</v>
+        <v>199.52</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -22199,7 +22199,7 @@
         <v>366.07</v>
       </c>
       <c r="C63" s="2">
-        <v>157.25941280000001</v>
+        <v>157.26</v>
       </c>
       <c r="D63" s="2">
         <v>427</v>
@@ -22211,7 +22211,7 @@
         <v>350.85</v>
       </c>
       <c r="G63" s="2">
-        <v>189.5973372</v>
+        <v>189.6</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -22222,7 +22222,7 @@
         <v>360.93</v>
       </c>
       <c r="C64" s="2">
-        <v>163.5858504</v>
+        <v>163.59</v>
       </c>
       <c r="D64" s="2">
         <v>430</v>
@@ -22234,7 +22234,7 @@
         <v>362.39</v>
       </c>
       <c r="G64" s="2">
-        <v>181.14629310000001</v>
+        <v>181.15</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -22245,7 +22245,7 @@
         <v>369.58</v>
       </c>
       <c r="C65" s="2">
-        <v>189.41913199999999</v>
+        <v>189.42</v>
       </c>
       <c r="D65" s="2">
         <v>416</v>
@@ -22257,7 +22257,7 @@
         <v>360.16</v>
       </c>
       <c r="G65" s="2">
-        <v>196.21119780000001</v>
+        <v>196.21</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -22268,7 +22268,7 @@
         <v>358.95</v>
       </c>
       <c r="C66" s="2">
-        <v>195.08025040000001</v>
+        <v>195.08</v>
       </c>
       <c r="D66" s="2">
         <v>420</v>
@@ -22280,7 +22280,7 @@
         <v>358.82</v>
       </c>
       <c r="G66" s="2">
-        <v>206.13198869999999</v>
+        <v>206.13</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -22291,7 +22291,7 @@
         <v>339.81</v>
       </c>
       <c r="C67" s="2">
-        <v>171.08151760000001</v>
+        <v>171.08</v>
       </c>
       <c r="D67" s="2">
         <v>409</v>
@@ -22303,7 +22303,7 @@
         <v>350.94</v>
       </c>
       <c r="G67" s="2">
-        <v>199.51812810000001</v>
+        <v>199.52</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -22314,7 +22314,7 @@
         <v>359.84</v>
       </c>
       <c r="C68" s="2">
-        <v>161.48753600000001</v>
+        <v>161.49</v>
       </c>
       <c r="D68" s="2">
         <v>413</v>
@@ -22326,7 +22326,7 @@
         <v>341.11</v>
       </c>
       <c r="G68" s="2">
-        <v>199.51812810000001</v>
+        <v>199.52</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -22337,7 +22337,7 @@
         <v>369.53</v>
       </c>
       <c r="C69" s="2">
-        <v>166.22350639999999</v>
+        <v>166.22</v>
       </c>
       <c r="D69" s="2">
         <v>406</v>
@@ -22349,7 +22349,7 @@
         <v>342.62</v>
       </c>
       <c r="G69" s="2">
-        <v>205.76455200000001</v>
+        <v>205.76</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -22360,7 +22360,7 @@
         <v>380.33</v>
       </c>
       <c r="C70" s="2">
-        <v>169.52254479999999</v>
+        <v>169.52</v>
       </c>
       <c r="D70" s="2">
         <v>408</v>
@@ -22372,7 +22372,7 @@
         <v>367.95</v>
       </c>
       <c r="G70" s="2">
-        <v>218.9922732</v>
+        <v>218.99</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -22383,7 +22383,7 @@
         <v>381.96</v>
       </c>
       <c r="C71" s="2">
-        <v>166.74316400000001</v>
+        <v>166.74</v>
       </c>
       <c r="D71" s="2">
         <v>410</v>
@@ -22395,7 +22395,7 @@
         <v>396.31</v>
       </c>
       <c r="G71" s="2">
-        <v>209.80635570000001</v>
+        <v>209.81</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -22406,7 +22406,7 @@
         <v>380.53</v>
       </c>
       <c r="C72" s="2">
-        <v>167.43997759999999</v>
+        <v>167.44</v>
       </c>
       <c r="D72" s="2">
         <v>404</v>
@@ -22418,7 +22418,7 @@
         <v>399.52</v>
       </c>
       <c r="G72" s="2">
-        <v>211.27610250000001</v>
+        <v>211.28</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -22429,7 +22429,7 @@
         <v>374.04</v>
       </c>
       <c r="C73" s="2">
-        <v>160.6883656</v>
+        <v>160.69</v>
       </c>
       <c r="D73" s="2">
         <v>401</v>
@@ -22441,7 +22441,7 @@
         <v>395.73</v>
       </c>
       <c r="G73" s="2">
-        <v>203.55993179999999</v>
+        <v>203.56</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -22452,7 +22452,7 @@
         <v>367.96</v>
       </c>
       <c r="C74" s="2">
-        <v>160.25531760000001</v>
+        <v>160.26</v>
       </c>
       <c r="D74" s="2">
         <v>409</v>
@@ -22464,7 +22464,7 @@
         <v>389.8</v>
       </c>
       <c r="G74" s="2">
-        <v>213.4807227</v>
+        <v>213.48</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -22475,7 +22475,7 @@
         <v>356.87</v>
       </c>
       <c r="C75" s="2">
-        <v>154.8028496</v>
+        <v>154.80000000000001</v>
       </c>
       <c r="D75" s="2">
         <v>405</v>
@@ -22487,7 +22487,7 @@
         <v>384.65</v>
       </c>
       <c r="G75" s="2">
-        <v>212.37841259999999</v>
+        <v>212.38</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -22498,7 +22498,7 @@
         <v>376.77</v>
       </c>
       <c r="C76" s="2">
-        <v>162.37331599999999</v>
+        <v>162.37</v>
       </c>
       <c r="D76" s="2">
         <v>405</v>
@@ -22510,7 +22510,7 @@
         <v>401.56</v>
       </c>
       <c r="G76" s="2">
-        <v>236.62923480000001</v>
+        <v>236.63</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -22521,7 +22521,7 @@
         <v>377.17</v>
       </c>
       <c r="C77" s="2">
-        <v>156.4602424</v>
+        <v>156.46</v>
       </c>
       <c r="D77" s="2">
         <v>398</v>
@@ -22533,7 +22533,7 @@
         <v>440.65</v>
       </c>
       <c r="G77" s="2">
-        <v>218.2573998</v>
+        <v>218.26</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -22544,7 +22544,7 @@
         <v>394.44</v>
       </c>
       <c r="C78" s="2">
-        <v>165.07002399999999</v>
+        <v>165.07</v>
       </c>
       <c r="D78" s="2">
         <v>427</v>
@@ -22556,7 +22556,7 @@
         <v>443.1</v>
       </c>
       <c r="G78" s="2">
-        <v>219.35970990000001</v>
+        <v>219.36</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -22567,7 +22567,7 @@
         <v>430.32</v>
       </c>
       <c r="C79" s="2">
-        <v>179.08503200000001</v>
+        <v>179.09</v>
       </c>
       <c r="D79" s="2">
         <v>451</v>
@@ -22579,7 +22579,7 @@
         <v>419</v>
       </c>
       <c r="G79" s="2">
-        <v>213.84815939999999</v>
+        <v>213.85</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -22590,7 +22590,7 @@
         <v>439.07</v>
       </c>
       <c r="C80" s="2">
-        <v>175.6049008</v>
+        <v>175.6</v>
       </c>
       <c r="D80" s="2">
         <v>451</v>
@@ -22602,7 +22602,7 @@
         <v>413.43</v>
       </c>
       <c r="G80" s="2">
-        <v>213.84815939999999</v>
+        <v>213.85</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -22613,7 +22613,7 @@
         <v>430.11</v>
       </c>
       <c r="C81" s="2">
-        <v>171.99879200000001</v>
+        <v>172</v>
       </c>
       <c r="D81" s="2">
         <v>430</v>
@@ -22625,7 +22625,7 @@
         <v>409.92</v>
       </c>
       <c r="G81" s="2">
-        <v>192.16939410000001</v>
+        <v>192.17</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -22636,7 +22636,7 @@
         <v>416.28</v>
       </c>
       <c r="C82" s="2">
-        <v>163.357516</v>
+        <v>163.36000000000001</v>
       </c>
       <c r="D82" s="2">
         <v>425</v>
@@ -22648,7 +22648,7 @@
         <v>395.43</v>
       </c>
       <c r="G82" s="2">
-        <v>192.16939410000001</v>
+        <v>192.17</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -22659,7 +22659,7 @@
         <v>389.53</v>
       </c>
       <c r="C83" s="2">
-        <v>155.83822799999999</v>
+        <v>155.84</v>
       </c>
       <c r="D83" s="2">
         <v>442</v>
@@ -22671,7 +22671,7 @@
         <v>380.94</v>
       </c>
       <c r="G83" s="2">
-        <v>192.16939410000001</v>
+        <v>192.17</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -22679,10 +22679,10 @@
         <v>89</v>
       </c>
       <c r="B84" s="2">
-        <v>387.15454999999997</v>
+        <v>387.15</v>
       </c>
       <c r="C84" s="2">
-        <v>148.98032240000001</v>
+        <v>148.97999999999999</v>
       </c>
       <c r="D84" s="2">
         <v>406</v>
@@ -22694,7 +22694,7 @@
         <v>383.24</v>
       </c>
       <c r="G84" s="2">
-        <v>184.0857867</v>
+        <v>184.09</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -22705,7 +22705,7 @@
         <v>393.85</v>
       </c>
       <c r="C85" s="2">
-        <v>148.7047464</v>
+        <v>148.69999999999999</v>
       </c>
       <c r="D85" s="2">
         <v>402</v>
@@ -22717,7 +22717,7 @@
         <v>379.01</v>
       </c>
       <c r="G85" s="2">
-        <v>179.67654630000001</v>
+        <v>179.68</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -22728,7 +22728,7 @@
         <v>396.52</v>
       </c>
       <c r="C86" s="2">
-        <v>148.62207359999999</v>
+        <v>148.62</v>
       </c>
       <c r="D86" s="2">
         <v>394</v>
@@ -22740,7 +22740,7 @@
         <v>376.19</v>
       </c>
       <c r="G86" s="2">
-        <v>175.63474260000001</v>
+        <v>175.63</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -22751,7 +22751,7 @@
         <v>393.95</v>
       </c>
       <c r="C87" s="2">
-        <v>147.2914352</v>
+        <v>147.29</v>
       </c>
       <c r="D87" s="2">
         <v>402</v>
@@ -22763,7 +22763,7 @@
         <v>382</v>
       </c>
       <c r="G87" s="2">
-        <v>178.5742362</v>
+        <v>178.57</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -22774,7 +22774,7 @@
         <v>392.87</v>
       </c>
       <c r="C88" s="2">
-        <v>148.49609599999999</v>
+        <v>148.5</v>
       </c>
       <c r="D88" s="2">
         <v>393</v>
@@ -22786,7 +22786,7 @@
         <v>390.37</v>
       </c>
       <c r="G88" s="2">
-        <v>171.22550219999999</v>
+        <v>171.23</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -22797,7 +22797,7 @@
         <v>410.23</v>
       </c>
       <c r="C89" s="2">
-        <v>157.511368</v>
+        <v>157.51</v>
       </c>
       <c r="D89" s="2">
         <v>417</v>
@@ -22809,7 +22809,7 @@
         <v>385.87</v>
       </c>
       <c r="G89" s="2">
-        <v>202.4576217</v>
+        <v>202.46</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -22820,7 +22820,7 @@
         <v>378.59</v>
       </c>
       <c r="C90" s="2">
-        <v>157.93260559999999</v>
+        <v>157.93</v>
       </c>
       <c r="D90" s="2">
         <v>458</v>
@@ -22832,7 +22832,7 @@
         <v>357.18</v>
       </c>
       <c r="G90" s="2">
-        <v>189.5973372</v>
+        <v>189.6</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -22843,7 +22843,7 @@
         <v>389.72</v>
       </c>
       <c r="C91" s="2">
-        <v>158.5900512</v>
+        <v>158.59</v>
       </c>
       <c r="D91" s="2">
         <v>421</v>
@@ -22855,7 +22855,7 @@
         <v>345</v>
       </c>
       <c r="G91" s="2">
-        <v>180.41141970000001</v>
+        <v>180.41</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -22866,7 +22866,7 @@
         <v>387.44</v>
       </c>
       <c r="C92" s="2">
-        <v>156.44055839999999</v>
+        <v>156.44</v>
       </c>
       <c r="D92" s="2">
         <v>380</v>
@@ -22878,7 +22878,7 @@
         <v>344.65</v>
       </c>
       <c r="G92" s="2">
-        <v>166.08138840000001</v>
+        <v>166.08</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -22886,10 +22886,10 @@
         <v>98</v>
       </c>
       <c r="B93" s="2">
-        <v>383.68159200000002</v>
+        <v>383.68</v>
       </c>
       <c r="C93" s="2">
-        <v>158.96404720000001</v>
+        <v>158.96</v>
       </c>
       <c r="D93" s="2">
         <v>370</v>
@@ -22901,7 +22901,7 @@
         <v>343.56</v>
       </c>
       <c r="G93" s="2">
-        <v>154.32341400000001</v>
+        <v>154.32</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -22909,10 +22909,10 @@
         <v>99</v>
       </c>
       <c r="B94" s="2">
-        <v>394.53120000000001</v>
+        <v>394.53</v>
       </c>
       <c r="C94" s="2">
-        <v>162.8575424</v>
+        <v>162.86000000000001</v>
       </c>
       <c r="D94" s="2">
         <v>367</v>
@@ -22924,7 +22924,7 @@
         <v>335.34</v>
       </c>
       <c r="G94" s="2">
-        <v>155.05828740000001</v>
+        <v>155.06</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -22935,7 +22935,7 @@
         <v>412</v>
       </c>
       <c r="C95" s="2">
-        <v>159.98761519999999</v>
+        <v>159.99</v>
       </c>
       <c r="D95" s="2">
         <v>377</v>
@@ -22947,7 +22947,7 @@
         <v>336.55</v>
       </c>
       <c r="G95" s="2">
-        <v>153.2211039</v>
+        <v>153.22</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -22958,7 +22958,7 @@
         <v>416.07</v>
       </c>
       <c r="C96" s="2">
-        <v>152.44864319999999</v>
+        <v>152.44999999999999</v>
       </c>
       <c r="D96" s="2">
         <v>373</v>
@@ -22970,7 +22970,7 @@
         <v>341</v>
       </c>
       <c r="G96" s="2">
-        <v>141.83056619999999</v>
+        <v>141.83000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -22981,7 +22981,7 @@
         <v>397.76</v>
       </c>
       <c r="C97" s="2">
-        <v>151.80300800000001</v>
+        <v>151.80000000000001</v>
       </c>
       <c r="D97" s="2">
         <v>365</v>
@@ -22993,7 +22993,7 @@
         <v>338</v>
       </c>
       <c r="G97" s="2">
-        <v>150.649047</v>
+        <v>150.65</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -23004,7 +23004,7 @@
         <v>401.87</v>
       </c>
       <c r="C98" s="2">
-        <v>152.25967679999999</v>
+        <v>152.26</v>
       </c>
       <c r="D98" s="2">
         <v>369</v>
@@ -23016,7 +23016,7 @@
         <v>336.39</v>
       </c>
       <c r="G98" s="2">
-        <v>151.75135710000001</v>
+        <v>151.75</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -23027,7 +23027,7 @@
         <v>403.53</v>
       </c>
       <c r="C99" s="2">
-        <v>148.42523360000001</v>
+        <v>148.43</v>
       </c>
       <c r="D99" s="2">
         <v>384</v>
@@ -23039,7 +23039,7 @@
         <v>342.73</v>
       </c>
       <c r="G99" s="2">
-        <v>150.649047</v>
+        <v>150.65</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -23050,7 +23050,7 @@
         <v>412.17</v>
       </c>
       <c r="C100" s="2">
-        <v>150.15348879999999</v>
+        <v>150.15</v>
       </c>
       <c r="D100" s="2">
         <v>415</v>
@@ -23062,7 +23062,7 @@
         <v>347.46</v>
       </c>
       <c r="G100" s="2">
-        <v>149.1793002</v>
+        <v>149.18</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -23073,7 +23073,7 @@
         <v>431.08</v>
       </c>
       <c r="C101" s="2">
-        <v>161.75917519999999</v>
+        <v>161.76</v>
       </c>
       <c r="D101" s="2">
         <v>442</v>
@@ -23085,7 +23085,7 @@
         <v>361.57</v>
       </c>
       <c r="G101" s="2">
-        <v>151.75135710000001</v>
+        <v>151.75</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -23096,7 +23096,7 @@
         <v>457.4</v>
       </c>
       <c r="C102" s="2">
-        <v>179.87239199999999</v>
+        <v>179.87</v>
       </c>
       <c r="D102" s="2">
         <v>441</v>
@@ -23108,7 +23108,7 @@
         <v>372.46</v>
       </c>
       <c r="G102" s="2">
-        <v>173.0626857</v>
+        <v>173.06</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -23119,7 +23119,7 @@
         <v>422.55</v>
       </c>
       <c r="C103" s="2">
-        <v>168.9556456</v>
+        <v>168.96</v>
       </c>
       <c r="D103" s="2">
         <v>433</v>
@@ -23131,7 +23131,7 @@
         <v>377.31</v>
       </c>
       <c r="G103" s="2">
-        <v>171.96037559999999</v>
+        <v>171.96</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -23142,7 +23142,7 @@
         <v>395.14</v>
       </c>
       <c r="C104" s="2">
-        <v>164.4125784</v>
+        <v>164.41</v>
       </c>
       <c r="D104" s="2">
         <v>395</v>
@@ -23154,7 +23154,7 @@
         <v>371</v>
       </c>
       <c r="G104" s="2">
-        <v>187.392717</v>
+        <v>187.39</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -23165,7 +23165,7 @@
         <v>380.97</v>
       </c>
       <c r="C105" s="2">
-        <v>159.13726639999999</v>
+        <v>159.13999999999999</v>
       </c>
       <c r="D105" s="2">
         <v>384</v>
@@ -23177,7 +23177,7 @@
         <v>360.2</v>
       </c>
       <c r="G105" s="2">
-        <v>191.06708399999999</v>
+        <v>191.07</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -23188,7 +23188,7 @@
         <v>373.75</v>
       </c>
       <c r="C106" s="2">
-        <v>159.67660799999999</v>
+        <v>159.68</v>
       </c>
       <c r="D106" s="2">
         <v>384</v>
@@ -23200,7 +23200,7 @@
         <v>360.13</v>
       </c>
       <c r="G106" s="2">
-        <v>187.02528029999999</v>
+        <v>187.03</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -23211,7 +23211,7 @@
         <v>373.08</v>
       </c>
       <c r="C107" s="2">
-        <v>161.0269304</v>
+        <v>161.03</v>
       </c>
       <c r="D107" s="2">
         <v>369</v>
@@ -23223,7 +23223,7 @@
         <v>364.91</v>
       </c>
       <c r="G107" s="2">
-        <v>193.27170419999999</v>
+        <v>193.27</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -23234,7 +23234,7 @@
         <v>368.42</v>
       </c>
       <c r="C108" s="2">
-        <v>163.948036</v>
+        <v>163.95</v>
       </c>
       <c r="D108" s="2">
         <v>363</v>
@@ -23246,7 +23246,7 @@
         <v>371</v>
       </c>
       <c r="G108" s="2">
-        <v>189.22990050000001</v>
+        <v>189.23</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -23257,7 +23257,7 @@
         <v>368</v>
       </c>
       <c r="C109" s="2">
-        <v>166.1565808</v>
+        <v>166.16</v>
       </c>
       <c r="D109" s="2">
         <v>368</v>
@@ -23269,7 +23269,7 @@
         <v>353.61</v>
       </c>
       <c r="G109" s="2">
-        <v>177.10448940000001</v>
+        <v>177.1</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -23280,7 +23280,7 @@
         <v>375.95</v>
       </c>
       <c r="C110" s="2">
-        <v>171.388588</v>
+        <v>171.39</v>
       </c>
       <c r="D110" s="2">
         <v>373</v>
@@ -23292,7 +23292,7 @@
         <v>342.4</v>
       </c>
       <c r="G110" s="2">
-        <v>172.709946468</v>
+        <v>172.71</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -23303,7 +23303,7 @@
         <v>367.49</v>
       </c>
       <c r="C111" s="2">
-        <v>165.62117599999999</v>
+        <v>165.62</v>
       </c>
       <c r="D111" s="2">
         <v>357</v>
@@ -23315,7 +23315,7 @@
         <v>326.43</v>
       </c>
       <c r="G111" s="2">
-        <v>172.69524899999999</v>
+        <v>172.7</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -23326,7 +23326,7 @@
         <v>378.78</v>
       </c>
       <c r="C112" s="2">
-        <v>162.5937768</v>
+        <v>162.59</v>
       </c>
       <c r="D112" s="2">
         <v>373</v>
@@ -23338,7 +23338,7 @@
         <v>340.13</v>
       </c>
       <c r="G112" s="2">
-        <v>179.67654630000001</v>
+        <v>179.68</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -23349,7 +23349,7 @@
         <v>405.87</v>
       </c>
       <c r="C113" s="2">
-        <v>179.59681599999999</v>
+        <v>179.6</v>
       </c>
       <c r="D113" s="2">
         <v>392</v>
@@ -23361,7 +23361,7 @@
         <v>345.78</v>
       </c>
       <c r="G113" s="2">
-        <v>197.31350789999999</v>
+        <v>197.31</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -23372,7 +23372,7 @@
         <v>391.48</v>
       </c>
       <c r="C114" s="2">
-        <v>166.7195432</v>
+        <v>166.72</v>
       </c>
       <c r="D114" s="2">
         <v>376</v>
@@ -23384,7 +23384,7 @@
         <v>349</v>
       </c>
       <c r="G114" s="2">
-        <v>209.80635570000001</v>
+        <v>209.81</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -23395,7 +23395,7 @@
         <v>388.2</v>
       </c>
       <c r="C115" s="2">
-        <v>166.2943688</v>
+        <v>166.29</v>
       </c>
       <c r="D115" s="2">
         <v>381</v>
@@ -23407,7 +23407,7 @@
         <v>351</v>
       </c>
       <c r="G115" s="2">
-        <v>215.31790620000001</v>
+        <v>215.32</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -23418,7 +23418,7 @@
         <v>394.73</v>
       </c>
       <c r="C116" s="2">
-        <v>172.0539072</v>
+        <v>172.05</v>
       </c>
       <c r="D116" s="2">
         <v>399</v>
@@ -23430,7 +23430,7 @@
         <v>354.02</v>
       </c>
       <c r="G116" s="2">
-        <v>223.40151359999999</v>
+        <v>223.4</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -23441,7 +23441,7 @@
         <v>409.79</v>
       </c>
       <c r="C117" s="2">
-        <v>174.22702079999999</v>
+        <v>174.23</v>
       </c>
       <c r="D117" s="2">
         <v>410</v>
@@ -23453,7 +23453,7 @@
         <v>360.74</v>
       </c>
       <c r="G117" s="2">
-        <v>230.75024759999999</v>
+        <v>230.75</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -23464,7 +23464,7 @@
         <v>423.55</v>
       </c>
       <c r="C118" s="2">
-        <v>173.6955528</v>
+        <v>173.7</v>
       </c>
       <c r="D118" s="2">
         <v>420</v>
@@ -23476,7 +23476,7 @@
         <v>353.5</v>
       </c>
       <c r="G118" s="2">
-        <v>236.99667149999999</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -23487,7 +23487,7 @@
         <v>433.21</v>
       </c>
       <c r="C119" s="2">
-        <v>174.70731040000001</v>
+        <v>174.71</v>
       </c>
       <c r="D119" s="2">
         <v>420</v>
@@ -23499,7 +23499,7 @@
         <v>374.42</v>
       </c>
       <c r="G119" s="2">
-        <v>248.3872092</v>
+        <v>248.39</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -23510,7 +23510,7 @@
         <v>448.32</v>
       </c>
       <c r="C120" s="2">
-        <v>178.73465680000001</v>
+        <v>178.73</v>
       </c>
       <c r="D120" s="2">
         <v>418</v>
@@ -23522,7 +23522,7 @@
         <v>382.39</v>
       </c>
       <c r="G120" s="2">
-        <v>269.6985378</v>
+        <v>269.7</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -23533,7 +23533,7 @@
         <v>449.9</v>
       </c>
       <c r="C121" s="2">
-        <v>178.74253039999999</v>
+        <v>178.74</v>
       </c>
       <c r="D121" s="2">
         <v>418</v>
@@ -23545,7 +23545,7 @@
         <v>422</v>
       </c>
       <c r="G121" s="2">
-        <v>258.6754368</v>
+        <v>258.68</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -23556,7 +23556,7 @@
         <v>425.81</v>
       </c>
       <c r="C122" s="2">
-        <v>163.121308</v>
+        <v>163.12</v>
       </c>
       <c r="D122" s="2">
         <v>428</v>
@@ -23568,7 +23568,7 @@
         <v>436.96</v>
       </c>
       <c r="G122" s="2">
-        <v>245.44771560000001</v>
+        <v>245.45</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -23579,7 +23579,7 @@
         <v>430.17</v>
       </c>
       <c r="C123" s="2">
-        <v>163.0583192</v>
+        <v>163.06</v>
       </c>
       <c r="D123" s="2">
         <v>432</v>
@@ -23591,7 +23591,7 @@
         <v>442.05</v>
       </c>
       <c r="G123" s="2">
-        <v>243.6105321</v>
+        <v>243.61</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -23602,7 +23602,7 @@
         <v>458.57</v>
       </c>
       <c r="C124" s="2">
-        <v>176.42375519999999</v>
+        <v>176.42</v>
       </c>
       <c r="D124" s="2">
         <v>445</v>
@@ -23614,7 +23614,7 @@
         <v>442.62</v>
       </c>
       <c r="G124" s="2">
-        <v>263.45211389999997</v>
+        <v>263.45</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -23625,7 +23625,7 @@
         <v>471.74</v>
       </c>
       <c r="C125" s="2">
-        <v>182.726572</v>
+        <v>182.73</v>
       </c>
       <c r="D125" s="2">
         <v>422</v>
@@ -23637,7 +23637,7 @@
         <v>420.87</v>
       </c>
       <c r="G125" s="2">
-        <v>280.35420210000001</v>
+        <v>280.35000000000002</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -23648,7 +23648,7 @@
         <v>511.14</v>
       </c>
       <c r="C126" s="2">
-        <v>202.39482480000001</v>
+        <v>202.39</v>
       </c>
       <c r="D126" s="2">
         <v>397</v>
@@ -23660,7 +23660,7 @@
         <v>404.5</v>
       </c>
       <c r="G126" s="2">
-        <v>306.44220780000001</v>
+        <v>306.44</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -23671,7 +23671,7 @@
         <v>519.41999999999996</v>
       </c>
       <c r="C127" s="2">
-        <v>217.29561279999999</v>
+        <v>217.3</v>
       </c>
       <c r="D127" s="2">
         <v>388</v>
@@ -23683,7 +23683,7 @@
         <v>390.48</v>
       </c>
       <c r="G127" s="2">
-        <v>334.73483370000002</v>
+        <v>334.73</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -23694,7 +23694,7 @@
         <v>516.17999999999995</v>
       </c>
       <c r="C128" s="2">
-        <v>222.3583376</v>
+        <v>222.36</v>
       </c>
       <c r="D128" s="2">
         <v>395</v>
@@ -23706,7 +23706,7 @@
         <v>370.91</v>
       </c>
       <c r="G128" s="2">
-        <v>324.81404279999998</v>
+        <v>324.81</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -23717,7 +23717,7 @@
         <v>530.80999999999995</v>
       </c>
       <c r="C129" s="2">
-        <v>222.33078</v>
+        <v>222.33</v>
       </c>
       <c r="D129" s="2">
         <v>422</v>
@@ -23729,7 +23729,7 @@
         <v>378.57</v>
       </c>
       <c r="G129" s="2">
-        <v>323.71173270000003</v>
+        <v>323.70999999999998</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -23740,7 +23740,7 @@
         <v>490.73</v>
       </c>
       <c r="C130" s="2">
-        <v>209.3235928</v>
+        <v>209.32</v>
       </c>
       <c r="D130" s="2">
         <v>459</v>
@@ -23752,7 +23752,7 @@
         <v>393.16</v>
       </c>
       <c r="G130" s="2">
-        <v>292.11217649999998</v>
+        <v>292.11</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -23763,7 +23763,7 @@
         <v>565.5</v>
       </c>
       <c r="C131" s="2">
-        <v>198.06434479999999</v>
+        <v>198.06</v>
       </c>
       <c r="D131" s="2">
         <v>450</v>
@@ -23775,7 +23775,7 @@
         <v>402</v>
       </c>
       <c r="G131" s="2">
-        <v>275.57752499999998</v>
+        <v>275.58</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -23786,19 +23786,19 @@
         <v>564.03</v>
       </c>
       <c r="C132" s="2">
-        <v>197.39115200000001</v>
+        <v>197.39</v>
       </c>
       <c r="D132" s="2">
         <v>451</v>
       </c>
       <c r="E132" s="2">
-        <v>400.76190476190999</v>
+        <v>400.76</v>
       </c>
       <c r="F132" s="2">
-        <v>419.41176470587999</v>
+        <v>419.41</v>
       </c>
       <c r="G132" s="2">
-        <v>291.55664720356998</v>
+        <v>291.56</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -23809,7 +23809,7 @@
         <v>551.32000000000005</v>
       </c>
       <c r="C133" s="2">
-        <v>199.13473999999999</v>
+        <v>199.13</v>
       </c>
       <c r="D133" s="2">
         <v>438</v>
@@ -23818,10 +23818,10 @@
         <v>414.3</v>
       </c>
       <c r="F133" s="2">
-        <v>395.88235294117999</v>
+        <v>395.88</v>
       </c>
       <c r="G133" s="2">
-        <v>306.75162817895</v>
+        <v>306.75</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -23832,19 +23832,19 @@
         <v>540.85</v>
       </c>
       <c r="C134" s="2">
-        <v>201.72521090909001</v>
+        <v>201.73</v>
       </c>
       <c r="D134" s="2">
         <v>439</v>
       </c>
       <c r="E134" s="2">
-        <v>420.4347826087</v>
+        <v>420.43</v>
       </c>
       <c r="F134" s="2">
-        <v>376.31578947368001</v>
+        <v>376.32</v>
       </c>
       <c r="G134" s="2">
-        <v>325.68670496250002</v>
+        <v>325.69</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -23855,19 +23855,19 @@
         <v>560.17999999999995</v>
       </c>
       <c r="C135" s="2">
-        <v>207.40538699999999</v>
+        <v>207.41</v>
       </c>
       <c r="D135" s="2">
         <v>444</v>
       </c>
       <c r="E135" s="2">
-        <v>431.47619047619003</v>
+        <v>431.48</v>
       </c>
       <c r="F135" s="2">
         <v>362</v>
       </c>
       <c r="G135" s="2">
-        <v>307.50777423</v>
+        <v>307.51</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -23878,7 +23878,7 @@
         <v>511.71</v>
       </c>
       <c r="C136" s="2">
-        <v>238.73560454546001</v>
+        <v>238.74</v>
       </c>
       <c r="D136" s="2">
         <v>478.75</v>
@@ -23887,10 +23887,10 @@
         <v>428.25</v>
       </c>
       <c r="F136" s="2">
-        <v>399.43913513514002</v>
+        <v>399.44</v>
       </c>
       <c r="G136" s="2">
-        <v>305.33989769999999</v>
+        <v>305.33999999999997</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -23901,7 +23901,7 @@
         <v>511.3</v>
       </c>
       <c r="C137" s="2">
-        <v>279.51280000000003</v>
+        <v>279.51</v>
       </c>
       <c r="D137" s="2">
         <v>509</v>
@@ -23910,10 +23910,10 @@
         <v>461.8</v>
       </c>
       <c r="F137" s="2">
-        <v>387.74058558559</v>
+        <v>387.74</v>
       </c>
       <c r="G137" s="2">
-        <v>304.60502430000003</v>
+        <v>304.61</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -23924,7 +23924,7 @@
         <v>524.66</v>
       </c>
       <c r="C138" s="2">
-        <v>298.40944000000002</v>
+        <v>298.41000000000003</v>
       </c>
       <c r="D138" s="2">
         <v>524.25</v>
@@ -23933,10 +23933,10 @@
         <v>492</v>
       </c>
       <c r="F138" s="2">
-        <v>385.93153153153003</v>
+        <v>385.93</v>
       </c>
       <c r="G138" s="2">
-        <v>313.4235051</v>
+        <v>313.42</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -23947,7 +23947,7 @@
         <v>498.01</v>
       </c>
       <c r="C139" s="2">
-        <v>295.5375444</v>
+        <v>295.54000000000002</v>
       </c>
       <c r="D139" s="2">
         <v>543.5</v>
@@ -23956,10 +23956,10 @@
         <v>510.75</v>
       </c>
       <c r="F139" s="2">
-        <v>386.84811891892002</v>
+        <v>386.85</v>
       </c>
       <c r="G139" s="2">
-        <v>319.66992900000002</v>
+        <v>319.67</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -23970,7 +23970,7 @@
         <v>563.88</v>
       </c>
       <c r="C140" s="2">
-        <v>279.90647999999999</v>
+        <v>279.91000000000003</v>
       </c>
       <c r="D140" s="2">
         <v>557</v>
@@ -23979,10 +23979,10 @@
         <v>530.6</v>
       </c>
       <c r="F140" s="2">
-        <v>390.75567567567998</v>
+        <v>390.76</v>
       </c>
       <c r="G140" s="2">
-        <v>308.27939129999999</v>
+        <v>308.27999999999997</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -23993,7 +23993,7 @@
         <v>584.70000000000005</v>
       </c>
       <c r="C141" s="2">
-        <v>309.03879999999998</v>
+        <v>309.04000000000002</v>
       </c>
       <c r="D141" s="2">
         <v>559</v>
@@ -24005,7 +24005,7 @@
         <v>401.61</v>
       </c>
       <c r="G141" s="2">
-        <v>309.74913809999998</v>
+        <v>309.75</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -24016,7 +24016,7 @@
         <v>610.73</v>
       </c>
       <c r="C142" s="2">
-        <v>302.73991999999998</v>
+        <v>302.74</v>
       </c>
       <c r="D142" s="2">
         <v>563</v>
@@ -24025,10 +24025,10 @@
         <v>535</v>
       </c>
       <c r="F142" s="2">
-        <v>401.64499999999998</v>
+        <v>401.64</v>
       </c>
       <c r="G142" s="2">
-        <v>318.9350556</v>
+        <v>318.94</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -24039,7 +24039,7 @@
         <v>595.29999999999995</v>
       </c>
       <c r="C143" s="2">
-        <v>303.1336</v>
+        <v>303.13</v>
       </c>
       <c r="D143" s="2">
         <v>564.20000000000005</v>
@@ -24048,10 +24048,10 @@
         <v>530</v>
       </c>
       <c r="F143" s="2">
-        <v>401.245</v>
+        <v>401.24</v>
       </c>
       <c r="G143" s="2">
-        <v>335.46970709999999</v>
+        <v>335.47</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -24062,7 +24062,7 @@
         <v>591.29</v>
       </c>
       <c r="C144" s="2">
-        <v>308.64512000000002</v>
+        <v>308.64999999999998</v>
       </c>
       <c r="D144" s="2">
         <v>557.79999999999995</v>
@@ -24074,7 +24074,7 @@
         <v>413.75</v>
       </c>
       <c r="G144" s="2">
-        <v>347.96255489999999</v>
+        <v>347.96</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -24085,7 +24085,7 @@
         <v>584.59</v>
       </c>
       <c r="C145" s="2">
-        <v>321.63655999999997</v>
+        <v>321.64</v>
       </c>
       <c r="D145" s="2">
         <v>559.25</v>
@@ -24094,10 +24094,10 @@
         <v>523</v>
       </c>
       <c r="F145" s="2">
-        <v>448.32249999999999</v>
+        <v>448.32</v>
       </c>
       <c r="G145" s="2">
-        <v>360.82283940000002</v>
+        <v>360.82</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -24108,7 +24108,7 @@
         <v>625.76</v>
       </c>
       <c r="C146" s="2">
-        <v>321.24288000000001</v>
+        <v>321.24</v>
       </c>
       <c r="D146" s="2">
         <v>558.25</v>
@@ -24117,10 +24117,10 @@
         <v>520.25</v>
       </c>
       <c r="F146" s="2">
-        <v>453.74400000000003</v>
+        <v>453.74</v>
       </c>
       <c r="G146" s="2">
-        <v>358.19566699500001</v>
+        <v>358.2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -24131,7 +24131,7 @@
         <v>677.32</v>
       </c>
       <c r="C147" s="2">
-        <v>320.8492</v>
+        <v>320.85000000000002</v>
       </c>
       <c r="D147" s="2">
         <v>563.25</v>
@@ -24140,10 +24140,10 @@
         <v>512</v>
       </c>
       <c r="F147" s="2">
-        <v>455.17750000000001</v>
+        <v>455.18</v>
       </c>
       <c r="G147" s="2">
-        <v>353.42092377236997</v>
+        <v>353.42</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -24154,7 +24154,7 @@
         <v>684.02</v>
       </c>
       <c r="C148" s="2">
-        <v>331.99205565217</v>
+        <v>331.99</v>
       </c>
       <c r="D148" s="2">
         <v>567.75</v>
@@ -24163,10 +24163,10 @@
         <v>509</v>
       </c>
       <c r="F148" s="2">
-        <v>436.428</v>
+        <v>436.43</v>
       </c>
       <c r="G148" s="2">
-        <v>349.40035068261</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -24177,7 +24177,7 @@
         <v>670.19</v>
       </c>
       <c r="C149" s="2">
-        <v>333.05327999999997</v>
+        <v>333.05</v>
       </c>
       <c r="D149" s="2">
         <v>573.75</v>
@@ -24186,10 +24186,10 @@
         <v>518.75</v>
       </c>
       <c r="F149" s="2">
-        <v>409.28500000000003</v>
+        <v>409.28</v>
       </c>
       <c r="G149" s="2">
-        <v>345.68794675714003</v>
+        <v>345.69</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -24200,7 +24200,7 @@
         <v>578.01</v>
       </c>
       <c r="C150" s="2">
-        <v>267.30871999999999</v>
+        <v>267.31</v>
       </c>
       <c r="D150" s="2">
         <v>600</v>
@@ -24209,10 +24209,10 @@
         <v>541.20000000000005</v>
       </c>
       <c r="F150" s="2">
-        <v>411.96249999999998</v>
+        <v>411.96</v>
       </c>
       <c r="G150" s="2">
-        <v>276.18991949999997</v>
+        <v>276.19</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -24223,7 +24223,7 @@
         <v>577.48</v>
       </c>
       <c r="C151" s="2">
-        <v>269.27712000000002</v>
+        <v>269.27999999999997</v>
       </c>
       <c r="D151" s="2">
         <v>600.5</v>
@@ -24232,10 +24232,10 @@
         <v>561.75</v>
       </c>
       <c r="F151" s="2">
-        <v>433.28800000000001</v>
+        <v>433.29</v>
       </c>
       <c r="G151" s="2">
-        <v>264.35872401848002</v>
+        <v>264.36</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -24246,7 +24246,7 @@
         <v>583.83000000000004</v>
       </c>
       <c r="C152" s="2">
-        <v>274.00128000000001</v>
+        <v>274</v>
       </c>
       <c r="D152" s="2">
         <v>547.75</v>
@@ -24255,10 +24255,10 @@
         <v>533.25</v>
       </c>
       <c r="F152" s="2">
-        <v>440.71499999999997</v>
+        <v>440.72</v>
       </c>
       <c r="G152" s="2">
-        <v>266.32392179211001</v>
+        <v>266.32</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -24269,7 +24269,7 @@
         <v>547.46</v>
       </c>
       <c r="C153" s="2">
-        <v>280.69384000000002</v>
+        <v>280.69</v>
       </c>
       <c r="D153" s="2">
         <v>548</v>
@@ -24278,10 +24278,10 @@
         <v>526.75</v>
       </c>
       <c r="F153" s="2">
-        <v>428.7475</v>
+        <v>428.75</v>
       </c>
       <c r="G153" s="2">
-        <v>283.87825408636002</v>
+        <v>283.88</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -24292,7 +24292,7 @@
         <v>522.96</v>
       </c>
       <c r="C154" s="2">
-        <v>279.45866899999999</v>
+        <v>279.45999999999998</v>
       </c>
       <c r="D154" s="2">
         <v>537.5</v>
@@ -24304,7 +24304,7 @@
         <v>430.43</v>
       </c>
       <c r="G154" s="2">
-        <v>277.77295928249998</v>
+        <v>277.77</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
@@ -24315,7 +24315,7 @@
         <v>503.18</v>
       </c>
       <c r="C155" s="2">
-        <v>272.84484500000002</v>
+        <v>272.83999999999997</v>
       </c>
       <c r="D155" s="2">
         <v>542</v>
@@ -24327,7 +24327,7 @@
         <v>451.43</v>
       </c>
       <c r="G155" s="2">
-        <v>274.89317414624998</v>
+        <v>274.89</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -24338,7 +24338,7 @@
         <v>483.03</v>
       </c>
       <c r="C156" s="2">
-        <v>258.64776000000001</v>
+        <v>258.64999999999998</v>
       </c>
       <c r="D156" s="2">
         <v>585.75</v>
@@ -24347,10 +24347,10 @@
         <v>544</v>
       </c>
       <c r="F156" s="2">
-        <v>504.42599999999999</v>
+        <v>504.43</v>
       </c>
       <c r="G156" s="2">
-        <v>269.03000713749998</v>
+        <v>269.02999999999997</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -24361,7 +24361,7 @@
         <v>478.35</v>
       </c>
       <c r="C157" s="2">
-        <v>274.39496000000003</v>
+        <v>274.39</v>
       </c>
       <c r="D157" s="2">
         <v>615.25</v>
@@ -24370,10 +24370,10 @@
         <v>549.75</v>
       </c>
       <c r="F157" s="2">
-        <v>568.74749999999995</v>
+        <v>568.75</v>
       </c>
       <c r="G157" s="2">
-        <v>281.00640224249997</v>
+        <v>281.01</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -24384,7 +24384,7 @@
         <v>491.42</v>
       </c>
       <c r="C158" s="2">
-        <v>274.78863999999999</v>
+        <v>274.79000000000002</v>
       </c>
       <c r="D158" s="2">
         <v>599.4</v>
@@ -24393,10 +24393,10 @@
         <v>489</v>
       </c>
       <c r="F158" s="2">
-        <v>580.53750000000002</v>
+        <v>580.54</v>
       </c>
       <c r="G158" s="2">
-        <v>289.01083578214002</v>
+        <v>289.01</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -24419,7 +24419,7 @@
         <v>561.42999999999995</v>
       </c>
       <c r="G159" s="2">
-        <v>315.91622907613998</v>
+        <v>315.92</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -24430,7 +24430,7 @@
         <v>552.96</v>
       </c>
       <c r="C160" s="2">
-        <v>310.21983999999998</v>
+        <v>310.22000000000003</v>
       </c>
       <c r="D160" s="2">
         <v>566</v>
@@ -24439,10 +24439,10 @@
         <v>465.25</v>
       </c>
       <c r="F160" s="2">
-        <v>553.428</v>
+        <v>553.42999999999995</v>
       </c>
       <c r="G160" s="2">
-        <v>327.06658952609001</v>
+        <v>327.07</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -24453,7 +24453,7 @@
         <v>556.5</v>
       </c>
       <c r="C161" s="2">
-        <v>300.77152000000001</v>
+        <v>300.77</v>
       </c>
       <c r="D161" s="2">
         <v>538.25</v>
@@ -24462,10 +24462,10 @@
         <v>449.25</v>
       </c>
       <c r="F161" s="2">
-        <v>519.46500000000003</v>
+        <v>519.46</v>
       </c>
       <c r="G161" s="2">
-        <v>303.88392977625</v>
+        <v>303.88</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -24476,7 +24476,7 @@
         <v>556.22</v>
       </c>
       <c r="C162" s="2">
-        <v>310.61351999999999</v>
+        <v>310.61</v>
       </c>
       <c r="D162" s="2">
         <v>513.75</v>
@@ -24485,10 +24485,10 @@
         <v>427.5</v>
       </c>
       <c r="F162" s="2">
-        <v>475.28199999999998</v>
+        <v>475.28</v>
       </c>
       <c r="G162" s="2">
-        <v>326.42992919659002</v>
+        <v>326.43</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -24499,7 +24499,7 @@
         <v>556.79999999999995</v>
       </c>
       <c r="C163" s="2">
-        <v>307.85775999999998</v>
+        <v>307.86</v>
       </c>
       <c r="D163" s="2">
         <v>481.4</v>
@@ -24508,10 +24508,10 @@
         <v>421.2</v>
       </c>
       <c r="F163" s="2">
-        <v>479.64499999999998</v>
+        <v>479.64</v>
       </c>
       <c r="G163" s="2">
-        <v>355.27788556363998</v>
+        <v>355.28</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -24522,7 +24522,7 @@
         <v>556.58000000000004</v>
       </c>
       <c r="C164" s="2">
-        <v>319.27447999999998</v>
+        <v>319.27</v>
       </c>
       <c r="D164" s="2">
         <v>484.25</v>
@@ -24531,10 +24531,10 @@
         <v>409</v>
       </c>
       <c r="F164" s="2">
-        <v>484.28750000000002</v>
+        <v>484.29</v>
       </c>
       <c r="G164" s="2">
-        <v>336.12429558104998</v>
+        <v>336.12</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -24545,7 +24545,7 @@
         <v>552.75</v>
       </c>
       <c r="C165" s="2">
-        <v>290.53584000000001</v>
+        <v>290.54000000000002</v>
       </c>
       <c r="D165" s="2">
         <v>492.75</v>
@@ -24557,7 +24557,7 @@
         <v>464</v>
       </c>
       <c r="G165" s="2">
-        <v>316.74657066378001</v>
+        <v>316.75</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -24568,7 +24568,7 @@
         <v>566.04999999999995</v>
       </c>
       <c r="C166" s="2">
-        <v>292.89792</v>
+        <v>292.89999999999998</v>
       </c>
       <c r="D166" s="2">
         <v>524</v>
@@ -24580,7 +24580,7 @@
         <v>478.57</v>
       </c>
       <c r="G166" s="2">
-        <v>348.12034854950002</v>
+        <v>348.12</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -24591,7 +24591,7 @@
         <v>567.62</v>
       </c>
       <c r="C167" s="2">
-        <v>264.94664</v>
+        <v>264.95</v>
       </c>
       <c r="D167" s="2">
         <v>516.79999999999995</v>
@@ -24600,10 +24600,10 @@
         <v>405</v>
       </c>
       <c r="F167" s="2">
-        <v>493.858</v>
+        <v>493.86</v>
       </c>
       <c r="G167" s="2">
-        <v>326.55656760728999</v>
+        <v>326.56</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -24614,7 +24614,7 @@
         <v>545.75</v>
       </c>
       <c r="C168" s="2">
-        <v>250.38048000000001</v>
+        <v>250.38</v>
       </c>
       <c r="D168" s="2">
         <v>532</v>
@@ -24623,10 +24623,10 @@
         <v>413.4</v>
       </c>
       <c r="F168" s="2">
-        <v>528.28599999999994</v>
+        <v>528.29</v>
       </c>
       <c r="G168" s="2">
-        <v>306.52010438040003</v>
+        <v>306.52</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -24637,7 +24637,7 @@
         <v>514.15</v>
       </c>
       <c r="C169" s="2">
-        <v>238.1764</v>
+        <v>238.18</v>
       </c>
       <c r="D169" s="2">
         <v>514.5</v>
@@ -24649,7 +24649,7 @@
         <v>508.03</v>
       </c>
       <c r="G169" s="2">
-        <v>274.08076079558998</v>
+        <v>274.08</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -24660,7 +24660,7 @@
         <v>495.79</v>
       </c>
       <c r="C170" s="2">
-        <v>235.81432000000001</v>
+        <v>235.81</v>
       </c>
       <c r="D170" s="2">
         <v>486</v>
@@ -24672,7 +24672,7 @@
         <v>477.68</v>
       </c>
       <c r="G170" s="2">
-        <v>270.23219586429002</v>
+        <v>270.23</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -24683,7 +24683,7 @@
         <v>468.26</v>
       </c>
       <c r="C171" s="2">
-        <v>205.89464000000001</v>
+        <v>205.89</v>
       </c>
       <c r="D171" s="2">
         <v>476.5</v>
@@ -24692,10 +24692,10 @@
         <v>412</v>
       </c>
       <c r="F171" s="2">
-        <v>457.678</v>
+        <v>457.68</v>
       </c>
       <c r="G171" s="2">
-        <v>271.67359754743001</v>
+        <v>271.67</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -24706,7 +24706,7 @@
         <v>449.84</v>
       </c>
       <c r="C172" s="2">
-        <v>175.58127999999999</v>
+        <v>175.58</v>
       </c>
       <c r="D172" s="2">
         <v>452.75</v>
@@ -24715,10 +24715,10 @@
         <v>369</v>
       </c>
       <c r="F172" s="2">
-        <v>422.85750000000002</v>
+        <v>422.86</v>
       </c>
       <c r="G172" s="2">
-        <v>246.24722445585999</v>
+        <v>246.25</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -24729,7 +24729,7 @@
         <v>427.53</v>
       </c>
       <c r="C173" s="2">
-        <v>163.75682</v>
+        <v>163.76</v>
       </c>
       <c r="D173" s="2">
         <v>441.8</v>
@@ -24738,10 +24738,10 @@
         <v>349.8</v>
       </c>
       <c r="F173" s="2">
-        <v>357.85599999999999</v>
+        <v>357.86</v>
       </c>
       <c r="G173" s="2">
-        <v>195.81769059128999</v>
+        <v>195.82</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -24752,7 +24752,7 @@
         <v>401.33</v>
       </c>
       <c r="C174" s="2">
-        <v>152.74784</v>
+        <v>152.75</v>
       </c>
       <c r="D174" s="2">
         <v>440</v>
@@ -24761,10 +24761,10 @@
         <v>329.5</v>
       </c>
       <c r="F174" s="2">
-        <v>358.21499999999997</v>
+        <v>358.22</v>
       </c>
       <c r="G174" s="2">
-        <v>157.67209847046001</v>
+        <v>157.66999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -24775,19 +24775,19 @@
         <v>402.87</v>
       </c>
       <c r="C175" s="2">
-        <v>163.37719999999999</v>
+        <v>163.38</v>
       </c>
       <c r="D175" s="2">
-        <v>451.33333333333002</v>
+        <v>451.33</v>
       </c>
       <c r="E175" s="2">
         <v>329</v>
       </c>
       <c r="F175" s="2">
-        <v>368.82249999999999</v>
+        <v>368.82</v>
       </c>
       <c r="G175" s="2">
-        <v>181.60558897499999</v>
+        <v>181.61</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -24798,7 +24798,7 @@
         <v>402.6</v>
       </c>
       <c r="C176" s="2">
-        <v>157.07831999999999</v>
+        <v>157.08000000000001</v>
       </c>
       <c r="D176" s="2">
         <v>466</v>
@@ -24821,7 +24821,7 @@
         <v>409.36</v>
       </c>
       <c r="C177" s="2">
-        <v>159.04671999999999</v>
+        <v>159.05000000000001</v>
       </c>
       <c r="D177" s="2">
         <v>502.2</v>
@@ -24830,10 +24830,10 @@
         <v>377</v>
       </c>
       <c r="F177" s="2">
-        <v>392.572</v>
+        <v>392.57</v>
       </c>
       <c r="G177" s="2">
-        <v>191.07507175435001</v>
+        <v>191.08</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -24844,7 +24844,7 @@
         <v>411.86</v>
       </c>
       <c r="C178" s="2">
-        <v>161.80248</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="D178" s="2">
         <v>535</v>
@@ -24853,7 +24853,7 @@
         <v>405</v>
       </c>
       <c r="F178" s="2">
-        <v>421.78500000000003</v>
+        <v>421.78</v>
       </c>
       <c r="G178" s="2">
         <v>194</v>
@@ -24867,7 +24867,7 @@
         <v>435.88</v>
       </c>
       <c r="C179" s="2">
-        <v>167.31399999999999</v>
+        <v>167.31</v>
       </c>
       <c r="D179" s="2">
         <v>568.79999999999995</v>
@@ -24876,10 +24876,10 @@
         <v>420.2</v>
       </c>
       <c r="F179" s="2">
-        <v>485.28399999999999</v>
+        <v>485.28</v>
       </c>
       <c r="G179" s="2">
-        <v>201.19093202368001</v>
+        <v>201.19</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -24890,7 +24890,7 @@
         <v>449.35</v>
       </c>
       <c r="C180" s="2">
-        <v>164.55824000000001</v>
+        <v>164.56</v>
       </c>
       <c r="D180" s="2">
         <v>591</v>
@@ -24899,10 +24899,10 @@
         <v>403</v>
       </c>
       <c r="F180" s="2">
-        <v>529.91399999999999</v>
+        <v>529.91</v>
       </c>
       <c r="G180" s="2">
-        <v>206.25140562749999</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -24913,7 +24913,7 @@
         <v>447.41</v>
       </c>
       <c r="C181" s="2">
-        <v>171.64447999999999</v>
+        <v>171.64</v>
       </c>
       <c r="D181" s="2">
         <v>542.75</v>
@@ -24922,10 +24922,10 @@
         <v>337</v>
       </c>
       <c r="F181" s="2">
-        <v>491.60500000000002</v>
+        <v>491.6</v>
       </c>
       <c r="G181" s="2">
-        <v>211.03834934118001</v>
+        <v>211.04</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -24936,7 +24936,7 @@
         <v>430.08</v>
       </c>
       <c r="C182" s="2">
-        <v>167.31399999999999</v>
+        <v>167.31</v>
       </c>
       <c r="D182" s="2">
         <v>493</v>
@@ -24945,10 +24945,10 @@
         <v>298.39999999999998</v>
       </c>
       <c r="F182" s="2">
-        <v>414.10750000000002</v>
+        <v>414.11</v>
       </c>
       <c r="G182" s="2">
-        <v>198.84886839642999</v>
+        <v>198.85</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -24959,7 +24959,7 @@
         <v>425.01</v>
       </c>
       <c r="C183" s="2">
-        <v>150.38576</v>
+        <v>150.38999999999999</v>
       </c>
       <c r="D183" s="2">
         <v>518.75</v>
@@ -24968,10 +24968,10 @@
         <v>303.25</v>
       </c>
       <c r="F183" s="2">
-        <v>392.858</v>
+        <v>392.86</v>
       </c>
       <c r="G183" s="2">
-        <v>191.09332947857001</v>
+        <v>191.09</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -24982,7 +24982,7 @@
         <v>497.53</v>
       </c>
       <c r="C184" s="2">
-        <v>151.96047999999999</v>
+        <v>151.96</v>
       </c>
       <c r="D184" s="2">
         <v>526.25</v>
@@ -24991,10 +24991,10 @@
         <v>305.5</v>
       </c>
       <c r="F184" s="2">
-        <v>395.71749999999997</v>
+        <v>395.72</v>
       </c>
       <c r="G184" s="2">
-        <v>210.37290809743001</v>
+        <v>210.37</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -25005,7 +25005,7 @@
         <v>430.61</v>
       </c>
       <c r="C185" s="2">
-        <v>151.5668</v>
+        <v>151.57</v>
       </c>
       <c r="D185" s="2">
         <v>572</v>
@@ -25014,10 +25014,10 @@
         <v>320.25</v>
       </c>
       <c r="F185" s="2">
-        <v>410.22800000000001</v>
+        <v>410.23</v>
       </c>
       <c r="G185" s="2">
-        <v>224.85038331477</v>
+        <v>224.85</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -25028,7 +25028,7 @@
         <v>442.09</v>
       </c>
       <c r="C186" s="2">
-        <v>179.51808</v>
+        <v>179.52</v>
       </c>
       <c r="D186" s="2">
         <v>574.5</v>
@@ -25037,10 +25037,10 @@
         <v>320.75</v>
       </c>
       <c r="F186" s="2">
-        <v>404.28500000000003</v>
+        <v>404.28</v>
       </c>
       <c r="G186" s="2">
-        <v>256.64493149079999</v>
+        <v>256.64</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -25051,7 +25051,7 @@
         <v>425.72</v>
       </c>
       <c r="C187" s="2">
-        <v>179.91175999999999</v>
+        <v>179.91</v>
       </c>
       <c r="D187" s="2">
         <v>533</v>
@@ -25060,10 +25060,10 @@
         <v>322.39999999999998</v>
       </c>
       <c r="F187" s="2">
-        <v>405.17750000000001</v>
+        <v>405.18</v>
       </c>
       <c r="G187" s="2">
-        <v>261.48173459625002</v>
+        <v>261.48</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -25074,19 +25074,19 @@
         <v>387.55</v>
       </c>
       <c r="C188" s="2">
-        <v>168.49503999999999</v>
+        <v>168.5</v>
       </c>
       <c r="D188" s="2">
-        <v>549.66666666667004</v>
+        <v>549.66999999999996</v>
       </c>
       <c r="E188" s="2">
-        <v>335.66666666666998</v>
+        <v>335.67</v>
       </c>
       <c r="F188" s="2">
         <v>430</v>
       </c>
       <c r="G188" s="2">
-        <v>233.47312851685999</v>
+        <v>233.47</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -25097,7 +25097,7 @@
         <v>372.75</v>
       </c>
       <c r="C189" s="2">
-        <v>164.55824000000001</v>
+        <v>164.56</v>
       </c>
       <c r="D189" s="2">
         <v>588.25</v>
@@ -25109,7 +25109,7 @@
         <v>0</v>
       </c>
       <c r="G189" s="2">
-        <v>230.98173272099999</v>
+        <v>230.98</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -25120,7 +25120,7 @@
         <v>374.45</v>
       </c>
       <c r="C190" s="2">
-        <v>163.37719999999999</v>
+        <v>163.38</v>
       </c>
       <c r="D190" s="2">
         <v>590.75</v>
@@ -25129,10 +25129,10 @@
         <v>319.5</v>
       </c>
       <c r="F190" s="2">
-        <v>418.09333333333001</v>
+        <v>418.09</v>
       </c>
       <c r="G190" s="2">
-        <v>224.68754204999999</v>
+        <v>224.69</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -25143,7 +25143,7 @@
         <v>400.92</v>
       </c>
       <c r="C191" s="2">
-        <v>172.82552000000001</v>
+        <v>172.83</v>
       </c>
       <c r="D191" s="2">
         <v>580</v>
@@ -25155,7 +25155,7 @@
         <v>386.79</v>
       </c>
       <c r="G191" s="2">
-        <v>239.11426721842</v>
+        <v>239.11</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -25166,7 +25166,7 @@
         <v>359.35</v>
       </c>
       <c r="C192" s="2">
-        <v>158.25935999999999</v>
+        <v>158.26</v>
       </c>
       <c r="D192" s="2">
         <v>531.79999999999995</v>
@@ -25178,7 +25178,7 @@
         <v>413</v>
       </c>
       <c r="G192" s="2">
-        <v>220.1354096</v>
+        <v>220.14</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -25189,7 +25189,7 @@
         <v>371.76</v>
       </c>
       <c r="C193" s="2">
-        <v>163.77088000000001</v>
+        <v>163.77000000000001</v>
       </c>
       <c r="D193" s="2">
         <v>552</v>
@@ -25201,7 +25201,7 @@
         <v>431.07</v>
       </c>
       <c r="G193" s="2">
-        <v>226.8462326625</v>
+        <v>226.85</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -25212,7 +25212,7 @@
         <v>399.87</v>
       </c>
       <c r="C194" s="2">
-        <v>183.06120000000001</v>
+        <v>183.06</v>
       </c>
       <c r="D194" s="2">
         <v>609.25</v>
@@ -25221,10 +25221,10 @@
         <v>348.25</v>
       </c>
       <c r="F194" s="2">
-        <v>478.572</v>
+        <v>478.57</v>
       </c>
       <c r="G194" s="2">
-        <v>237.38407758586999</v>
+        <v>237.38</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -25235,7 +25235,7 @@
         <v>525.48</v>
       </c>
       <c r="C195" s="2">
-        <v>233.84592000000001</v>
+        <v>233.85</v>
       </c>
       <c r="D195" s="2">
         <v>683.8</v>
@@ -25244,10 +25244,10 @@
         <v>420.4</v>
       </c>
       <c r="F195" s="2">
-        <v>561.78499999999997</v>
+        <v>561.78</v>
       </c>
       <c r="G195" s="2">
-        <v>295.55033419286002</v>
+        <v>295.55</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -25258,7 +25258,7 @@
         <v>557.28</v>
       </c>
       <c r="C196" s="2">
-        <v>235.02696</v>
+        <v>235.03</v>
       </c>
       <c r="D196" s="2">
         <v>693.5</v>
@@ -25270,7 +25270,7 @@
         <v>607.5</v>
       </c>
       <c r="G196" s="2">
-        <v>329.34415053552999</v>
+        <v>329.34</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -25281,7 +25281,7 @@
         <v>637.25</v>
       </c>
       <c r="C197" s="2">
-        <v>265.34032000000002</v>
+        <v>265.33999999999997</v>
       </c>
       <c r="D197" s="2">
         <v>731.75</v>
@@ -25293,7 +25293,7 @@
         <v>698</v>
       </c>
       <c r="G197" s="2">
-        <v>328.18360435568002</v>
+        <v>328.18</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -25304,7 +25304,7 @@
         <v>634.85</v>
       </c>
       <c r="C198" s="2">
-        <v>287.11082399999998</v>
+        <v>287.11</v>
       </c>
       <c r="D198" s="2">
         <v>757</v>
@@ -25316,7 +25316,7 @@
         <v>780</v>
       </c>
       <c r="G198" s="2">
-        <v>348.55307816786001</v>
+        <v>348.55</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -25327,7 +25327,7 @@
         <v>566.12</v>
       </c>
       <c r="C199" s="2">
-        <v>243.45564880000001</v>
+        <v>243.46</v>
       </c>
       <c r="D199" s="2">
         <v>901.8</v>
@@ -25339,7 +25339,7 @@
         <v>0</v>
       </c>
       <c r="G199" s="2">
-        <v>328.76171271686002</v>
+        <v>328.76</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -25350,19 +25350,19 @@
         <v>549.11</v>
       </c>
       <c r="C200" s="2">
-        <v>246.44368</v>
+        <v>246.44</v>
       </c>
       <c r="D200" s="2">
         <v>907</v>
       </c>
       <c r="E200" s="2">
-        <v>762.66666666667004</v>
+        <v>762.67</v>
       </c>
       <c r="F200" s="2">
         <v>0</v>
       </c>
       <c r="G200" s="2">
-        <v>362.22924711170998</v>
+        <v>362.23</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -25373,7 +25373,7 @@
         <v>558.86</v>
       </c>
       <c r="C201" s="2">
-        <v>234.35770400000001</v>
+        <v>234.36</v>
       </c>
       <c r="D201" s="2">
         <v>594</v>
@@ -25385,7 +25385,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="2">
-        <v>439.71609184875001</v>
+        <v>439.72</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -25396,7 +25396,7 @@
         <v>574.01</v>
       </c>
       <c r="C202" s="2">
-        <v>220.06711999999999</v>
+        <v>220.07</v>
       </c>
       <c r="D202" s="2">
         <v>464.75</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="2">
-        <v>424.99565905499998</v>
+        <v>425</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -25419,7 +25419,7 @@
         <v>528.5</v>
       </c>
       <c r="C203" s="2">
-        <v>206.662316</v>
+        <v>206.66</v>
       </c>
       <c r="D203" s="2">
         <v>375.6</v>
@@ -25431,7 +25431,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="2">
-        <v>370.6609570425</v>
+        <v>370.66</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -25442,19 +25442,19 @@
         <v>503.99</v>
       </c>
       <c r="C204" s="2">
-        <v>180.25426160000001</v>
+        <v>180.25</v>
       </c>
       <c r="D204" s="2">
-        <v>360.66666666666998</v>
+        <v>360.67</v>
       </c>
       <c r="E204" s="2">
-        <v>331.66666666666998</v>
+        <v>331.67</v>
       </c>
       <c r="F204" s="2">
         <v>0</v>
       </c>
       <c r="G204" s="2">
-        <v>368.62006231324</v>
+        <v>368.62</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -25465,7 +25465,7 @@
         <v>489</v>
       </c>
       <c r="C205" s="2">
-        <v>171.2508</v>
+        <v>171.25</v>
       </c>
       <c r="D205" s="2">
         <v>342</v>
@@ -25477,7 +25477,7 @@
         <v>320</v>
       </c>
       <c r="G205" s="2">
-        <v>321.81330974999997</v>
+        <v>321.81</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -25488,7 +25488,7 @@
         <v>450</v>
       </c>
       <c r="C206" s="2">
-        <v>164.16455999999999</v>
+        <v>164.16</v>
       </c>
       <c r="D206" s="2">
         <v>329.2</v>
@@ -25500,7 +25500,7 @@
         <v>323</v>
       </c>
       <c r="G206" s="2">
-        <v>335.14620304891002</v>
+        <v>335.15</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -25511,7 +25511,7 @@
         <v>426</v>
       </c>
       <c r="C207" s="2">
-        <v>159.44040000000001</v>
+        <v>159.44</v>
       </c>
       <c r="D207" s="2">
         <v>325</v>
@@ -25523,7 +25523,7 @@
         <v>315.25</v>
       </c>
       <c r="G207" s="2">
-        <v>326.54486304474</v>
+        <v>326.54000000000002</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -25534,7 +25534,7 @@
         <v>385</v>
       </c>
       <c r="C208" s="2">
-        <v>151.17312000000001</v>
+        <v>151.16999999999999</v>
       </c>
       <c r="D208" s="2">
         <v>327.5</v>
@@ -25546,7 +25546,7 @@
         <v>310</v>
       </c>
       <c r="G208" s="2">
-        <v>259.72730786209002</v>
+        <v>259.73</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -25557,7 +25557,7 @@
         <v>375.5</v>
       </c>
       <c r="C209" s="2">
-        <v>146.84263999999999</v>
+        <v>146.84</v>
       </c>
       <c r="D209" s="2">
         <v>328.8</v>
@@ -25566,10 +25566,10 @@
         <v>260.39999999999998</v>
       </c>
       <c r="F209" s="2">
-        <v>302.71249999999998</v>
+        <v>302.70999999999998</v>
       </c>
       <c r="G209" s="2">
-        <v>238.40670983625</v>
+        <v>238.41</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -25580,7 +25580,7 @@
         <v>361</v>
       </c>
       <c r="C210" s="2">
-        <v>165.24717999999999</v>
+        <v>165.25</v>
       </c>
       <c r="D210" s="2">
         <v>323.25</v>
@@ -25589,10 +25589,10 @@
         <v>257</v>
       </c>
       <c r="F210" s="2">
-        <v>302.48599999999999</v>
+        <v>302.49</v>
       </c>
       <c r="G210" s="2">
-        <v>223.03918018749999</v>
+        <v>223.04</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -25603,7 +25603,7 @@
         <v>334</v>
       </c>
       <c r="C211" s="2">
-        <v>160.22775999999999</v>
+        <v>160.22999999999999</v>
       </c>
       <c r="D211" s="2">
         <v>317.60000000000002</v>
@@ -25612,10 +25612,10 @@
         <v>255.4</v>
       </c>
       <c r="F211" s="2">
-        <v>300.35500000000002</v>
+        <v>300.36</v>
       </c>
       <c r="G211" s="2">
-        <v>195.72128219999999</v>
+        <v>195.72</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -25626,7 +25626,7 @@
         <v>319.75</v>
       </c>
       <c r="C212" s="2">
-        <v>152.74784</v>
+        <v>152.75</v>
       </c>
       <c r="D212" s="2">
         <v>316.5</v>
@@ -25638,7 +25638,7 @@
         <v>302.25</v>
       </c>
       <c r="G212" s="2">
-        <v>198.30779161020001</v>
+        <v>198.31</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -25649,19 +25649,19 @@
         <v>322</v>
       </c>
       <c r="C213" s="2">
-        <v>170.50674480000001</v>
+        <v>170.51</v>
       </c>
       <c r="D213" s="2">
-        <v>318.66666666666998</v>
+        <v>318.67</v>
       </c>
       <c r="E213" s="2">
-        <v>262.33333333333002</v>
+        <v>262.33</v>
       </c>
       <c r="F213" s="2">
         <v>304.93</v>
       </c>
       <c r="G213" s="2">
-        <v>199.09820044285999</v>
+        <v>199.1</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -25672,7 +25672,7 @@
         <v>325</v>
       </c>
       <c r="C214" s="2">
-        <v>177.3489032</v>
+        <v>177.35</v>
       </c>
       <c r="D214" s="2">
         <v>315</v>
@@ -25684,7 +25684,7 @@
         <v>303</v>
       </c>
       <c r="G214" s="2">
-        <v>199.98225866842</v>
+        <v>199.98</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -25695,7 +25695,7 @@
         <v>306</v>
       </c>
       <c r="C215" s="2">
-        <v>164.774764</v>
+        <v>164.77</v>
       </c>
       <c r="D215" s="2">
         <v>313</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="G215" s="2">
-        <v>196.06615699737</v>
+        <v>196.07</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -25718,7 +25718,7 @@
         <v>297</v>
       </c>
       <c r="C216" s="2">
-        <v>160.37539000000001</v>
+        <v>160.38</v>
       </c>
       <c r="D216" s="2">
         <v>305</v>
@@ -25730,7 +25730,7 @@
         <v>0</v>
       </c>
       <c r="G216" s="2">
-        <v>204.30628759688</v>
+        <v>204.31</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -25741,7 +25741,7 @@
         <v>300</v>
       </c>
       <c r="C217" s="2">
-        <v>164.538556</v>
+        <v>164.54</v>
       </c>
       <c r="D217" s="2">
         <v>296.25</v>
@@ -25753,7 +25753,7 @@
         <v>0</v>
       </c>
       <c r="G217" s="2">
-        <v>209.68065367105001</v>
+        <v>209.68</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -25764,7 +25764,7 @@
         <v>273</v>
       </c>
       <c r="C218" s="2">
-        <v>142.16768999999999</v>
+        <v>142.16999999999999</v>
       </c>
       <c r="D218" s="2">
         <v>301</v>
@@ -25773,10 +25773,10 @@
         <v>223.5</v>
       </c>
       <c r="F218" s="2">
-        <v>283.21249999999998</v>
+        <v>283.20999999999998</v>
       </c>
       <c r="G218" s="2">
-        <v>212.09408658213999</v>
+        <v>212.09</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -25787,7 +25787,7 @@
         <v>258</v>
       </c>
       <c r="C219" s="2">
-        <v>121.74554000000001</v>
+        <v>121.75</v>
       </c>
       <c r="D219" s="2">
         <v>309.2</v>
@@ -25799,7 +25799,7 @@
         <v>267.70999999999998</v>
       </c>
       <c r="G219" s="2">
-        <v>195.9815498625</v>
+        <v>195.98</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
@@ -25810,19 +25810,19 @@
         <v>262</v>
       </c>
       <c r="C220" s="2">
-        <v>116.58833199999999</v>
+        <v>116.59</v>
       </c>
       <c r="D220" s="2">
-        <v>312.66666666666998</v>
+        <v>312.67</v>
       </c>
       <c r="E220" s="2">
         <v>220</v>
       </c>
       <c r="F220" s="2">
-        <v>263.62799999999999</v>
+        <v>263.63</v>
       </c>
       <c r="G220" s="2">
-        <v>189.91466889546001</v>
+        <v>189.91</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
@@ -25833,7 +25833,7 @@
         <v>271.75</v>
       </c>
       <c r="C221" s="2">
-        <v>113.99108</v>
+        <v>113.99</v>
       </c>
       <c r="D221" s="2">
         <v>315.39999999999998</v>
@@ -25845,7 +25845,7 @@
         <v>257.43</v>
       </c>
       <c r="G221" s="2">
-        <v>202.42861353947001</v>
+        <v>202.43</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
@@ -25856,7 +25856,7 @@
         <v>267</v>
       </c>
       <c r="C222" s="2">
-        <v>109.403672</v>
+        <v>109.4</v>
       </c>
       <c r="D222" s="2">
         <v>312.5</v>
@@ -25865,10 +25865,10 @@
         <v>216.5</v>
       </c>
       <c r="F222" s="2">
-        <v>259.42750000000001</v>
+        <v>259.43</v>
       </c>
       <c r="G222" s="2">
-        <v>195.164003205</v>
+        <v>195.16</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
@@ -25879,7 +25879,7 @@
         <v>266</v>
       </c>
       <c r="C223" s="2">
-        <v>110.648685</v>
+        <v>110.65</v>
       </c>
       <c r="D223" s="2">
         <v>308</v>
@@ -25888,10 +25888,10 @@
         <v>219.4</v>
       </c>
       <c r="F223" s="2">
-        <v>256.22800000000001</v>
+        <v>256.23</v>
       </c>
       <c r="G223" s="2">
-        <v>193.16672228570999</v>
+        <v>193.17</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
@@ -25902,7 +25902,7 @@
         <v>258</v>
       </c>
       <c r="C224" s="2">
-        <v>107.72069</v>
+        <v>107.72</v>
       </c>
       <c r="D224" s="2">
         <v>302.25</v>
@@ -25914,7 +25914,7 @@
         <v>244.25</v>
       </c>
       <c r="G224" s="2">
-        <v>180.34605464494999</v>
+        <v>180.35</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
@@ -25925,7 +25925,7 @@
         <v>257</v>
       </c>
       <c r="C225" s="2">
-        <v>105.250348</v>
+        <v>105.25</v>
       </c>
       <c r="D225" s="2">
         <v>303.5</v>
@@ -25934,10 +25934,10 @@
         <v>216.5</v>
       </c>
       <c r="F225" s="2">
-        <v>244.85599999999999</v>
+        <v>244.86</v>
       </c>
       <c r="G225" s="2">
-        <v>174.43598036624999</v>
+        <v>174.44</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
@@ -25948,7 +25948,7 @@
         <v>257</v>
       </c>
       <c r="C226" s="2">
-        <v>107.13017000000001</v>
+        <v>107.13</v>
       </c>
       <c r="D226" s="2">
         <v>301.5</v>
@@ -25957,10 +25957,10 @@
         <v>216.75</v>
       </c>
       <c r="F226" s="2">
-        <v>264.28750000000002</v>
+        <v>264.29000000000002</v>
       </c>
       <c r="G226" s="2">
-        <v>179.84092587632</v>
+        <v>179.84</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
@@ -25971,7 +25971,7 @@
         <v>257</v>
       </c>
       <c r="C227" s="2">
-        <v>102.65206000000001</v>
+        <v>102.65</v>
       </c>
       <c r="D227" s="2">
         <v>291.25</v>
@@ -25980,10 +25980,10 @@
         <v>211</v>
       </c>
       <c r="F227" s="2">
-        <v>263.85666666666998</v>
+        <v>263.86</v>
       </c>
       <c r="G227" s="2">
-        <v>167.16073370625</v>
+        <v>167.16</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
@@ -25994,7 +25994,7 @@
         <v>264</v>
       </c>
       <c r="C228" s="2">
-        <v>102.140276</v>
+        <v>102.14</v>
       </c>
       <c r="D228" s="2">
         <v>280.5</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="G228" s="2">
-        <v>164.44104598928999</v>
+        <v>164.44</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
@@ -26017,7 +26017,7 @@
         <v>255.75</v>
       </c>
       <c r="C229" s="2">
-        <v>95.368979999999993</v>
+        <v>95.37</v>
       </c>
       <c r="D229" s="2">
         <v>277.75</v>
@@ -26029,7 +26029,7 @@
         <v>272</v>
       </c>
       <c r="G229" s="2">
-        <v>161.11635164431999</v>
+        <v>161.12</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
@@ -26040,7 +26040,7 @@
         <v>257</v>
       </c>
       <c r="C230" s="2">
-        <v>101.938515</v>
+        <v>101.94</v>
       </c>
       <c r="D230" s="2">
         <v>286.39999999999998</v>
@@ -26049,10 +26049,10 @@
         <v>217.4</v>
       </c>
       <c r="F230" s="2">
-        <v>269.35750000000002</v>
+        <v>269.36</v>
       </c>
       <c r="G230" s="2">
-        <v>167.82671272499999</v>
+        <v>167.83</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
@@ -26063,7 +26063,7 @@
         <v>263</v>
       </c>
       <c r="C231" s="2">
-        <v>96.353179999999995</v>
+        <v>96.35</v>
       </c>
       <c r="D231" s="2">
         <v>285.25</v>
@@ -26072,10 +26072,10 @@
         <v>215.5</v>
       </c>
       <c r="F231" s="2">
-        <v>256.9975</v>
+        <v>257</v>
       </c>
       <c r="G231" s="2">
-        <v>159.70865813437999</v>
+        <v>159.71</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
@@ -26086,7 +26086,7 @@
         <v>274</v>
       </c>
       <c r="C232" s="2">
-        <v>101.66786</v>
+        <v>101.67</v>
       </c>
       <c r="D232" s="2">
         <v>282.8</v>
@@ -26095,10 +26095,10 @@
         <v>212.8</v>
       </c>
       <c r="F232" s="2">
-        <v>255.654</v>
+        <v>255.65</v>
       </c>
       <c r="G232" s="2">
-        <v>149.35902467283</v>
+        <v>149.36000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
@@ -26109,7 +26109,7 @@
         <v>298</v>
       </c>
       <c r="C233" s="2">
-        <v>107.52385</v>
+        <v>107.52</v>
       </c>
       <c r="D233" s="2">
         <v>276.75</v>
@@ -26118,10 +26118,10 @@
         <v>207.25</v>
       </c>
       <c r="F233" s="2">
-        <v>237.285</v>
+        <v>237.28</v>
       </c>
       <c r="G233" s="2">
-        <v>143.869839885</v>
+        <v>143.87</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
@@ -26132,7 +26132,7 @@
         <v>306</v>
       </c>
       <c r="C234" s="2">
-        <v>97.101172000000005</v>
+        <v>97.1</v>
       </c>
       <c r="D234" s="2">
         <v>285</v>
@@ -26141,10 +26141,10 @@
         <v>210.75</v>
       </c>
       <c r="F234" s="2">
-        <v>241.488</v>
+        <v>241.49</v>
       </c>
       <c r="G234" s="2">
-        <v>141.93077620909</v>
+        <v>141.93</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
@@ -26155,7 +26155,7 @@
         <v>283</v>
       </c>
       <c r="C235" s="2">
-        <v>95.418189999999996</v>
+        <v>95.42</v>
       </c>
       <c r="D235" s="2">
         <v>293.8</v>
@@ -26164,10 +26164,10 @@
         <v>220.4</v>
       </c>
       <c r="F235" s="2">
-        <v>256.14499999999998</v>
+        <v>256.14</v>
       </c>
       <c r="G235" s="2">
-        <v>143.33005787571</v>
+        <v>143.33000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
@@ -26178,7 +26178,7 @@
         <v>283</v>
       </c>
       <c r="C236" s="2">
-        <v>96.279364999999999</v>
+        <v>96.28</v>
       </c>
       <c r="D236" s="2">
         <v>297.25</v>
@@ -26187,10 +26187,10 @@
         <v>225.5</v>
       </c>
       <c r="F236" s="2">
-        <v>259.92500000000001</v>
+        <v>259.92</v>
       </c>
       <c r="G236" s="2">
-        <v>140.87698047857</v>
+        <v>140.88</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
@@ -26201,7 +26201,7 @@
         <v>290</v>
       </c>
       <c r="C237" s="2">
-        <v>99.876615999999999</v>
+        <v>99.88</v>
       </c>
       <c r="D237" s="2">
         <v>292.75</v>
@@ -26210,10 +26210,10 @@
         <v>230</v>
       </c>
       <c r="F237" s="2">
-        <v>262.916</v>
+        <v>262.92</v>
       </c>
       <c r="G237" s="2">
-        <v>150.985863975</v>
+        <v>150.99</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
@@ -26224,7 +26224,7 @@
         <v>261</v>
       </c>
       <c r="C238" s="2">
-        <v>94.138729999999995</v>
+        <v>94.14</v>
       </c>
       <c r="D238" s="2">
         <v>290</v>
@@ -26233,10 +26233,10 @@
         <v>231.75</v>
       </c>
       <c r="F238" s="2">
-        <v>265.64249999999998</v>
+        <v>265.64</v>
       </c>
       <c r="G238" s="2">
-        <v>151.16867984890001</v>
+        <v>151.16999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -26247,7 +26247,7 @@
         <v>261.5</v>
       </c>
       <c r="C239" s="2">
-        <v>96.254760000000005</v>
+        <v>96.25</v>
       </c>
       <c r="D239" s="2">
         <v>287</v>
@@ -26256,10 +26256,10 @@
         <v>226.2</v>
       </c>
       <c r="F239" s="2">
-        <v>255.32249999999999</v>
+        <v>255.32</v>
       </c>
       <c r="G239" s="2">
-        <v>153.59313355875</v>
+        <v>153.59</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
@@ -26270,7 +26270,7 @@
         <v>265</v>
       </c>
       <c r="C240" s="2">
-        <v>95.388664000000006</v>
+        <v>95.39</v>
       </c>
       <c r="D240" s="2">
         <v>278.25</v>
@@ -26279,10 +26279,10 @@
         <v>219.75</v>
       </c>
       <c r="F240" s="2">
-        <v>238.512</v>
+        <v>238.51</v>
       </c>
       <c r="G240" s="2">
-        <v>153.87432469999999</v>
+        <v>153.87</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
@@ -26293,7 +26293,7 @@
         <v>260</v>
       </c>
       <c r="C241" s="2">
-        <v>93.745050000000006</v>
+        <v>93.75</v>
       </c>
       <c r="D241" s="2">
         <v>259.2</v>
@@ -26305,7 +26305,7 @@
         <v>233.07</v>
       </c>
       <c r="G241" s="2">
-        <v>156.56866837624</v>
+        <v>156.57</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
@@ -26316,7 +26316,7 @@
         <v>249</v>
       </c>
       <c r="C242" s="2">
-        <v>93.794259999999994</v>
+        <v>93.79</v>
       </c>
       <c r="D242" s="2">
         <v>244</v>
@@ -26325,10 +26325,10 @@
         <v>201.25</v>
       </c>
       <c r="F242" s="2">
-        <v>222.14500000000001</v>
+        <v>222.14</v>
       </c>
       <c r="G242" s="2">
-        <v>150.14600866071001</v>
+        <v>150.15</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
@@ -26339,7 +26339,7 @@
         <v>260</v>
       </c>
       <c r="C243" s="2">
-        <v>97.868848</v>
+        <v>97.87</v>
       </c>
       <c r="D243" s="2">
         <v>235.25</v>
@@ -26348,10 +26348,10 @@
         <v>206.25</v>
       </c>
       <c r="F243" s="2">
-        <v>224.172</v>
+        <v>224.17</v>
       </c>
       <c r="G243" s="2">
-        <v>151.03485553499999</v>
+        <v>151.03</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
@@ -26362,7 +26362,7 @@
         <v>265</v>
       </c>
       <c r="C244" s="2">
-        <v>104.054545</v>
+        <v>104.05</v>
       </c>
       <c r="D244" s="2">
         <v>239</v>
@@ -26371,10 +26371,10 @@
         <v>212.4</v>
       </c>
       <c r="F244" s="2">
-        <v>232.715</v>
+        <v>232.72</v>
       </c>
       <c r="G244" s="2">
-        <v>141.29480849743001</v>
+        <v>141.29</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -26385,7 +26385,7 @@
         <v>279</v>
       </c>
       <c r="C245" s="2">
-        <v>104.84682599999999</v>
+        <v>104.85</v>
       </c>
       <c r="D245" s="2">
         <v>230.75</v>
@@ -26394,10 +26394,10 @@
         <v>210</v>
       </c>
       <c r="F245" s="2">
-        <v>228.96250000000001</v>
+        <v>228.96</v>
       </c>
       <c r="G245" s="2">
-        <v>150.60093028929001</v>
+        <v>150.6</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
@@ -26408,7 +26408,7 @@
         <v>295</v>
       </c>
       <c r="C246" s="2">
-        <v>123.32026</v>
+        <v>123.32</v>
       </c>
       <c r="D246" s="2">
         <v>229</v>
@@ -26417,10 +26417,10 @@
         <v>212.5</v>
       </c>
       <c r="F246" s="2">
-        <v>230.74199999999999</v>
+        <v>230.74</v>
       </c>
       <c r="G246" s="2">
-        <v>154.74334165714001</v>
+        <v>154.74</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
@@ -26431,7 +26431,7 @@
         <v>316</v>
       </c>
       <c r="C247" s="2">
-        <v>128.216655</v>
+        <v>128.22</v>
       </c>
       <c r="D247" s="2">
         <v>232</v>
@@ -26440,10 +26440,10 @@
         <v>212.8</v>
       </c>
       <c r="F247" s="2">
-        <v>236.14250000000001</v>
+        <v>236.14</v>
       </c>
       <c r="G247" s="2">
-        <v>163.73438647875</v>
+        <v>163.72999999999999</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
@@ -26454,7 +26454,7 @@
         <v>358</v>
       </c>
       <c r="C248" s="2">
-        <v>133.49688800000001</v>
+        <v>133.5</v>
       </c>
       <c r="D248" s="2">
         <v>240.75</v>
@@ -26466,7 +26466,7 @@
         <v>240.71</v>
       </c>
       <c r="G248" s="2">
-        <v>166.58442673929</v>
+        <v>166.58</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
@@ -26477,7 +26477,7 @@
         <v>413</v>
       </c>
       <c r="C249" s="2">
-        <v>127.84757999999999</v>
+        <v>127.85</v>
       </c>
       <c r="D249" s="2">
         <v>237.8</v>
@@ -26486,10 +26486,10 @@
         <v>207.4</v>
       </c>
       <c r="F249" s="2">
-        <v>225.80199999999999</v>
+        <v>225.8</v>
       </c>
       <c r="G249" s="2">
-        <v>166.27980421800001</v>
+        <v>166.28</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
@@ -26500,7 +26500,7 @@
         <v>368</v>
       </c>
       <c r="C250" s="2">
-        <v>123.54170499999999</v>
+        <v>123.54</v>
       </c>
       <c r="D250" s="2">
         <v>213.25</v>
@@ -26512,7 +26512,7 @@
         <v>204.07</v>
       </c>
       <c r="G250" s="2">
-        <v>161.39146718750001</v>
+        <v>161.38999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
@@ -26523,7 +26523,7 @@
         <v>350</v>
       </c>
       <c r="C251" s="2">
-        <v>115.520475</v>
+        <v>115.52</v>
       </c>
       <c r="D251" s="2">
         <v>212.75</v>
@@ -26532,10 +26532,10 @@
         <v>171</v>
       </c>
       <c r="F251" s="2">
-        <v>198.8175</v>
+        <v>198.82</v>
       </c>
       <c r="G251" s="2">
-        <v>166.32713871052999</v>
+        <v>166.33</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
@@ -26546,7 +26546,7 @@
         <v>332</v>
       </c>
       <c r="C252" s="2">
-        <v>111.1555</v>
+        <v>111.16</v>
       </c>
       <c r="D252" s="2">
         <v>198.25</v>
@@ -26558,7 +26558,7 @@
         <v>197</v>
       </c>
       <c r="G252" s="2">
-        <v>165.5735</v>
+        <v>165.57</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
@@ -26569,7 +26569,7 @@
         <v>327</v>
       </c>
       <c r="C253" s="2">
-        <v>108.4834</v>
+        <v>108.48</v>
       </c>
       <c r="D253" s="2">
         <v>193.4</v>
@@ -26581,7 +26581,7 @@
         <v>0</v>
       </c>
       <c r="G253" s="2">
-        <v>160.5453</v>
+        <v>160.55000000000001</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
@@ -26592,7 +26592,7 @@
         <v>310</v>
       </c>
       <c r="C254" s="2">
-        <v>105.38809999999999</v>
+        <v>105.39</v>
       </c>
       <c r="D254" s="2">
         <v>195.75</v>
@@ -26604,7 +26604,7 @@
         <v>0</v>
       </c>
       <c r="G254" s="2">
-        <v>147.45580000000001</v>
+        <v>147.46</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
@@ -26615,7 +26615,7 @@
         <v>264</v>
       </c>
       <c r="C255" s="2">
-        <v>104.0791</v>
+        <v>104.08</v>
       </c>
       <c r="D255" s="2">
         <v>197.6</v>
@@ -26627,7 +26627,7 @@
         <v>0</v>
       </c>
       <c r="G255" s="2">
-        <v>145.62299999999999</v>
+        <v>145.62</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
@@ -26638,7 +26638,7 @@
         <v>237</v>
       </c>
       <c r="C256" s="2">
-        <v>100.6591</v>
+        <v>100.66</v>
       </c>
       <c r="D256" s="2">
         <v>195</v>
@@ -26650,7 +26650,7 @@
         <v>0</v>
       </c>
       <c r="G256" s="2">
-        <v>148.71719999999999</v>
+        <v>148.72</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -26661,7 +26661,7 @@
         <v>230</v>
       </c>
       <c r="C257" s="2">
-        <v>96.805909999999997</v>
+        <v>96.81</v>
       </c>
       <c r="D257" s="2">
         <v>198.5</v>
@@ -26673,7 +26673,7 @@
         <v>0</v>
       </c>
       <c r="G257" s="2">
-        <v>131.6174</v>
+        <v>131.62</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -26684,7 +26684,7 @@
         <v>239</v>
       </c>
       <c r="C258" s="2">
-        <v>107.327</v>
+        <v>107.33</v>
       </c>
       <c r="D258" s="2">
         <v>203.4</v>
@@ -26696,7 +26696,7 @@
         <v>0</v>
       </c>
       <c r="G258" s="2">
-        <v>131.3528</v>
+        <v>131.35</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -26707,7 +26707,7 @@
         <v>250</v>
       </c>
       <c r="C259" s="2">
-        <v>107.4943</v>
+        <v>107.49</v>
       </c>
       <c r="D259" s="2">
         <v>198</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="2">
-        <v>141.96180000000001</v>
+        <v>141.96</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -26730,7 +26730,7 @@
         <v>251</v>
       </c>
       <c r="C260" s="2">
-        <v>105.45699999999999</v>
+        <v>105.46</v>
       </c>
       <c r="D260" s="2">
         <v>195</v>
@@ -26742,7 +26742,7 @@
         <v>0</v>
       </c>
       <c r="G260" s="2">
-        <v>138.6155</v>
+        <v>138.62</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -26753,7 +26753,7 @@
         <v>241</v>
       </c>
       <c r="C261" s="2">
-        <v>105.60469999999999</v>
+        <v>105.6</v>
       </c>
       <c r="D261" s="2">
         <v>197</v>
@@ -26765,7 +26765,7 @@
         <v>0</v>
       </c>
       <c r="G261" s="2">
-        <v>141.80869999999999</v>
+        <v>141.81</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -26776,7 +26776,7 @@
         <v>243</v>
       </c>
       <c r="C262" s="2">
-        <v>105.8507</v>
+        <v>105.85</v>
       </c>
       <c r="D262" s="2">
         <v>198.75</v>
@@ -26788,7 +26788,7 @@
         <v>0</v>
       </c>
       <c r="G262" s="2">
-        <v>150.8382</v>
+        <v>150.84</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -26799,7 +26799,7 @@
         <v>244</v>
       </c>
       <c r="C263" s="2">
-        <v>106.1361</v>
+        <v>106.14</v>
       </c>
       <c r="D263" s="2">
         <v>200.75</v>
@@ -26811,7 +26811,7 @@
         <v>0</v>
       </c>
       <c r="G263" s="2">
-        <v>149.608</v>
+        <v>149.61000000000001</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -26920,7 +26920,7 @@
         <v>190.33</v>
       </c>
       <c r="E268" s="2">
-        <v>148.33333333332999</v>
+        <v>148.33000000000001</v>
       </c>
       <c r="F268" s="2">
         <v>0</v>
@@ -27104,7 +27104,7 @@
         <v>179.33</v>
       </c>
       <c r="E276" s="2">
-        <v>134.33333333332999</v>
+        <v>134.33000000000001</v>
       </c>
       <c r="F276" s="2">
         <v>0</v>
@@ -27173,7 +27173,7 @@
         <v>173</v>
       </c>
       <c r="E279" s="2">
-        <v>148.33333333332999</v>
+        <v>148.33000000000001</v>
       </c>
       <c r="F279" s="2">
         <v>0</v>
@@ -27449,7 +27449,7 @@
         <v>179</v>
       </c>
       <c r="E291" s="2">
-        <v>143.66666666667001</v>
+        <v>143.66999999999999</v>
       </c>
       <c r="F291" s="2">
         <v>0</v>
@@ -27610,7 +27610,7 @@
         <v>241</v>
       </c>
       <c r="E298" s="2">
-        <v>156.66666666667001</v>
+        <v>156.66999999999999</v>
       </c>
       <c r="F298" s="2">
         <v>0</v>
@@ -28208,7 +28208,7 @@
         <v>269.67</v>
       </c>
       <c r="E324" s="2">
-        <v>195.66666666667001</v>
+        <v>195.67</v>
       </c>
       <c r="F324" s="2">
         <v>0</v>
@@ -28231,7 +28231,7 @@
         <v>252.5</v>
       </c>
       <c r="E325" s="2">
-        <v>180.66666666667001</v>
+        <v>180.67</v>
       </c>
       <c r="F325" s="2">
         <v>0</v>
